--- a/tests/data/input/一级测试用例-f003.xlsx
+++ b/tests/data/input/一级测试用例-f003.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Magfin\python\pipes\tests\data\input\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4C2D91-4157-42F0-8687-CCEEAD3CB00E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="2" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="301">
   <si>
     <t>用例编号</t>
   </si>
@@ -63,6 +69,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -73,6 +80,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -86,17 +94,6 @@
     <t>info_per_bus_basic.id</t>
   </si>
   <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司1001";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";
-info_per_bus_shareholder.ent_name[1]="上海蓝胖子有限公司江苏分公司";
-info_per_bus_shareholder.funded_ratio[1]="0.7";
-info_per_bus_shareholder.reg_cap[1]="120";
-info_per_bus_shareholder.ent_status[1]="注销"</t>
-  </si>
-  <si>
     <t>info_com_bus_basic.id;
 info_com_bus_basic.ent_name="上海蓝胖子有限公司1001"</t>
   </si>
@@ -112,13 +109,6 @@
   </si>
   <si>
     <t>ent_name</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司001";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="注销"</t>
   </si>
   <si>
     <t xml:space="preserve">info_per_bus_legal.basic_id;
@@ -153,6 +143,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -164,6 +155,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -174,6 +166,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -186,6 +179,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -201,6 +195,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -216,6 +211,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -226,6 +222,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -241,6 +238,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -251,6 +249,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -266,6 +265,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -278,6 +278,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -288,6 +289,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -299,6 +301,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -309,6 +312,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -352,12 +356,6 @@
 info_per_bus_shareholder.ent_status[1]="注销"</t>
   </si>
   <si>
-    <t xml:space="preserve">info_per_bus_legal.basic_id;
-info_per_bus_legal.reg_cap[0]="123";
-info_per_bus_legal.ent_name[0]="上海蓝胖子有限公司湖北分公司003"
-</t>
-  </si>
-  <si>
     <t>info_com_bus_basic.id;
 info_com_bus_basic.ent_name="上海蓝胖子有限公司湖北分公司003"</t>
   </si>
@@ -367,6 +365,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -378,6 +377,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -436,23 +436,11 @@
 info_per_bus_shareholder.ent_status[0]="注销"</t>
   </si>
   <si>
-    <t xml:space="preserve">info_per_bus_legal.basic_id;
-info_per_bus_legal.reg_cap[0]="123";
-info_per_bus_legal.ent_name[0]="上海蓝胖子有限公司湖北分公司006"
-</t>
-  </si>
-  <si>
     <t>info_com_bus_basic.id;
 info_com_bus_basic.ent_name="上海蓝胖子有限公司湖北分公司006"</t>
   </si>
   <si>
     <t>per_com_shares_frost_his=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">info_per_bus_legal.basic_id;
-info_per_bus_legal.reg_cap[0]="123";
-info_per_bus_legal.ent_name[0]="上海蓝胖子有限公司湖北分公司007"
-</t>
   </si>
   <si>
     <t>info_com_bus_basic.id;
@@ -929,6 +917,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -942,6 +931,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -952,6 +942,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1610,6 +1601,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1621,6 +1613,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1647,6 +1640,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1658,6 +1652,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1667,18 +1662,130 @@
   <si>
     <t>per_com_city=合肥市</t>
   </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司001";
+info_per_bus_shareholder.funded_ratio[0]="0.3";
+info_per_bus_shareholder.reg_cap[0]="120";
+info_per_bus_shareholder.ent_status[0]="注销"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司1001";
+info_per_bus_shareholder.funded_ratio[0]="0.3";
+info_per_bus_shareholder.reg_cap[0]="120";
+info_per_bus_shareholder.ent_status[0]="在营（开业）";
+info_per_bus_shareholder.ent_name[1]="上海蓝胖子有限公司江苏分公司";
+info_per_bus_shareholder.funded_ratio[1]="0.7";
+info_per_bus_shareholder.reg_cap[1]="120";
+info_per_bus_shareholder.ent_status[1]="注销"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>info_per_bus_legal.basic_id;
+info_per_bus_legal.reg_cap[0]="123"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>info_per_bus_legal.basic_id;
+info_per_bus_legal.reg_cap[0]="123";
+info_per_bus_legal.ent_name[0]="上海蓝胖子有限公司湖北分公司003"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;
+info_per_bus_legal.ent_status[0]="在营（开业）"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>info_per_bus_legal.basic_id;
+info_per_bus_legal.reg_cap[0]="123";
+info_per_bus_legal.ent_name[0]="上海蓝胖子有限公司湖北分公司006"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;
+info_per_bus_legal.ent_status[0]="在营（开业）"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>info_per_bus_legal.basic_id;
+info_per_bus_legal.reg_cap[0]="123";
+info_per_bus_legal.ent_name[0]="上海蓝胖子有限公司湖北分公司007"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;
+info_per_bus_legal.ent_status[0]="在营（开业）"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1690,154 +1797,34 @@
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1846,198 +1833,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.0999786370433668"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -2117,261 +1918,19 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2387,10 +1946,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2399,7 +1958,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2414,13 +1973,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2432,85 +1988,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="50" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 3" xfId="50"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="常规 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2768,37 +2289,36 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N387"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" customWidth="1"/>
-    <col min="2" max="2" width="6.75" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="25.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="53.625" customWidth="1"/>
-    <col min="6" max="6" width="26.5" customWidth="1"/>
-    <col min="7" max="7" width="40.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="51.125" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="6.7265625" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" customWidth="1"/>
+    <col min="4" max="4" width="25.36328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="53.6328125" customWidth="1"/>
+    <col min="6" max="6" width="26.453125" customWidth="1"/>
+    <col min="7" max="7" width="40.08984375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="51.08984375" customWidth="1"/>
     <col min="9" max="9" width="37" customWidth="1"/>
-    <col min="10" max="10" width="23.375" customWidth="1"/>
-    <col min="11" max="13" width="15.5" customWidth="1"/>
-    <col min="14" max="14" width="10.5" customWidth="1"/>
+    <col min="10" max="10" width="23.36328125" customWidth="1"/>
+    <col min="11" max="13" width="15.453125" customWidth="1"/>
+    <col min="14" max="14" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:14">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2842,7 +2362,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" ht="162" spans="1:14">
+    <row r="2" spans="1:14" ht="168" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2855,30 +2375,30 @@
       <c r="D2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>17</v>
+      <c r="E2" s="27" t="s">
+        <v>296</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="17"/>
+      <c r="J2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="18"/>
-      <c r="J2" s="15" t="s">
+      <c r="K2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="L2" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" ht="81" spans="1:14">
+    <row r="3" spans="1:14" ht="84" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2891,30 +2411,30 @@
       <c r="D3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="27" t="s">
+        <v>295</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
       <c r="J3" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" ht="229.5" spans="1:14">
+    <row r="4" spans="1:14" ht="238" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2928,27 +2448,27 @@
         <v>16</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
       <c r="J4" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" ht="378" spans="1:14">
+    <row r="5" spans="1:14" ht="392" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2962,27 +2482,27 @@
         <v>16</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
       <c r="J5" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" ht="162" spans="1:14">
+    <row r="6" spans="1:14" ht="168" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2990,35 +2510,35 @@
         <v>14</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I6" s="15"/>
       <c r="J6" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" ht="148.5" spans="1:14">
+    <row r="7" spans="1:14" ht="154" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -3026,37 +2546,37 @@
         <v>14</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>298</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="15" t="s">
         <v>36</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>39</v>
       </c>
       <c r="I7" s="15"/>
       <c r="J7" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
     </row>
-    <row r="8" ht="162" spans="1:14">
+    <row r="8" spans="1:14" ht="168" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -3064,35 +2584,35 @@
         <v>14</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I8" s="15"/>
       <c r="J8" s="14" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
     </row>
-    <row r="9" ht="162" spans="1:14">
+    <row r="9" spans="1:14" ht="168" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -3100,35 +2620,35 @@
         <v>14</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I9" s="15"/>
       <c r="J9" s="14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
     </row>
-    <row r="10" ht="108" spans="1:14">
+    <row r="10" spans="1:14" ht="140" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -3136,37 +2656,37 @@
         <v>14</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>49</v>
+        <v>45</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>299</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I10" s="15"/>
       <c r="J10" s="14" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="K10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
     </row>
-    <row r="11" ht="108" spans="1:14">
+    <row r="11" spans="1:14" ht="140" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -3174,37 +2694,37 @@
         <v>14</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>300</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>53</v>
-      </c>
       <c r="H11" s="15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I11" s="15"/>
       <c r="J11" s="14" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="K11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
     </row>
-    <row r="12" ht="94.5" spans="1:14">
+    <row r="12" spans="1:14" ht="98" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -3212,35 +2732,35 @@
         <v>14</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I12" s="15"/>
       <c r="J12" s="14" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
     </row>
-    <row r="13" ht="94.5" spans="1:14">
+    <row r="13" spans="1:14" ht="98" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -3248,35 +2768,35 @@
         <v>14</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="7" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="14" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
     </row>
-    <row r="14" ht="81" spans="1:14">
+    <row r="14" spans="1:14" ht="84" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -3284,37 +2804,37 @@
         <v>14</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="I14" s="15"/>
       <c r="J14" s="14" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="K14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
     </row>
-    <row r="15" ht="94.5" spans="1:14">
+    <row r="15" spans="1:14" ht="98" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -3322,35 +2842,35 @@
         <v>14</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I15" s="15"/>
       <c r="J15" s="14" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="K15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
     </row>
-    <row r="16" ht="94.5" spans="1:14">
+    <row r="16" spans="1:14" ht="98" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -3358,35 +2878,35 @@
         <v>14</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I16" s="15"/>
       <c r="J16" s="14" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="K16" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
     </row>
-    <row r="17" ht="94.5" spans="1:14">
+    <row r="17" spans="1:14" ht="98" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -3394,37 +2914,37 @@
         <v>14</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="I17" s="15"/>
       <c r="J17" s="14" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="K17" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
     </row>
-    <row r="18" ht="94.5" spans="1:14">
+    <row r="18" spans="1:14" ht="98" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -3432,35 +2952,35 @@
         <v>14</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H18" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="I18" s="17"/>
+        <v>72</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="I18" s="16"/>
       <c r="J18" s="14" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="K18" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
     </row>
-    <row r="19" ht="94.5" spans="1:14">
+    <row r="19" spans="1:14" ht="98" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -3468,35 +2988,35 @@
         <v>14</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="H19" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="I19" s="17"/>
+        <v>76</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="I19" s="16"/>
       <c r="J19" s="14" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="K19" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
     </row>
-    <row r="20" ht="94.5" spans="1:14">
+    <row r="20" spans="1:14" ht="98" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -3504,37 +3024,37 @@
         <v>14</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="H20" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="I20" s="17"/>
+        <v>79</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="I20" s="16"/>
       <c r="J20" s="14" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="K20" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
     </row>
-    <row r="21" ht="94.5" spans="1:14">
+    <row r="21" spans="1:14" ht="98" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -3542,35 +3062,35 @@
         <v>14</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="H21" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="I21" s="17"/>
+        <v>84</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="I21" s="16"/>
       <c r="J21" s="14" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="K21" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="L21" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
     </row>
-    <row r="22" ht="94.5" spans="1:14">
+    <row r="22" spans="1:14" ht="98" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -3578,35 +3098,35 @@
         <v>14</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="H22" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="I22" s="17"/>
+        <v>87</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="I22" s="16"/>
       <c r="J22" s="14" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="K22" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
     </row>
-    <row r="23" ht="94.5" spans="1:14">
+    <row r="23" spans="1:14" ht="98" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -3614,37 +3134,37 @@
         <v>14</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="H23" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="I23" s="17"/>
+        <v>90</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="I23" s="16"/>
       <c r="J23" s="14" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="K23" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
     </row>
-    <row r="24" ht="94.5" spans="1:14">
+    <row r="24" spans="1:14" ht="98" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -3652,35 +3172,35 @@
         <v>14</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="7" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I24" s="13"/>
       <c r="J24" s="14" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K24" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="L24" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
     </row>
-    <row r="25" ht="94.5" spans="1:14">
+    <row r="25" spans="1:14" ht="98" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -3688,33 +3208,33 @@
         <v>14</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
       <c r="J25" s="14" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="K25" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
     </row>
-    <row r="26" ht="94.5" spans="1:14">
+    <row r="26" spans="1:14" ht="98" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -3722,35 +3242,35 @@
         <v>14</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H26" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="I26" s="17"/>
+        <v>97</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="I26" s="16"/>
       <c r="J26" s="14" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="K26" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="L26" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
     </row>
-    <row r="27" ht="94.5" spans="1:14">
+    <row r="27" spans="1:14" ht="98" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -3758,35 +3278,35 @@
         <v>14</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H27" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="I27" s="17"/>
+        <v>103</v>
+      </c>
+      <c r="H27" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="I27" s="16"/>
       <c r="J27" s="14" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="K27" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="L27" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
     </row>
-    <row r="28" ht="94.5" spans="1:14">
+    <row r="28" spans="1:14" ht="98" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -3794,35 +3314,35 @@
         <v>14</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="H28" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="I28" s="17"/>
+        <v>108</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="I28" s="16"/>
       <c r="J28" s="14" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K28" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L28" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="L28" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
     </row>
-    <row r="29" ht="94.5" spans="1:14">
+    <row r="29" spans="1:14" ht="98" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -3830,35 +3350,35 @@
         <v>14</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D29" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H29" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="I29" s="17"/>
+        <v>111</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="I29" s="16"/>
       <c r="J29" s="14" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="K29" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L29" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="L29" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
     </row>
-    <row r="30" ht="94.5" spans="1:14">
+    <row r="30" spans="1:14" ht="98" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -3866,35 +3386,35 @@
         <v>14</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="H30" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="I30" s="17"/>
+        <v>115</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="I30" s="16"/>
       <c r="J30" s="14" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="K30" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L30" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="L30" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
     </row>
-    <row r="31" ht="94.5" spans="1:14">
+    <row r="31" spans="1:14" ht="98" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -3902,35 +3422,35 @@
         <v>14</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D31" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="7" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="I31" s="13"/>
       <c r="J31" s="14" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="K31" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L31" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="L31" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
     </row>
-    <row r="32" ht="94.5" spans="1:14">
+    <row r="32" spans="1:14" ht="98" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -3938,35 +3458,35 @@
         <v>14</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="H32" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="I32" s="17"/>
+        <v>124</v>
+      </c>
+      <c r="H32" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="I32" s="16"/>
       <c r="J32" s="14" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="K32" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L32" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="L32" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
     </row>
-    <row r="33" ht="94.5" spans="1:14">
+    <row r="33" spans="1:14" ht="98" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -3974,35 +3494,35 @@
         <v>14</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="I33" s="13"/>
       <c r="J33" s="14" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="K33" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L33" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="L33" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
     </row>
-    <row r="34" ht="94.5" spans="1:14">
+    <row r="34" spans="1:14" ht="98" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -4010,35 +3530,35 @@
         <v>14</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="H34" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="I34" s="17"/>
+        <v>131</v>
+      </c>
+      <c r="H34" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="I34" s="16"/>
       <c r="J34" s="14" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="K34" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L34" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="L34" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
     </row>
-    <row r="35" ht="94.5" spans="1:14">
+    <row r="35" spans="1:14" ht="98" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -4046,35 +3566,35 @@
         <v>14</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D35" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="H35" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="I35" s="17"/>
+        <v>135</v>
+      </c>
+      <c r="H35" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="I35" s="16"/>
       <c r="J35" s="14" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="K35" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L35" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="L35" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
     </row>
-    <row r="36" ht="81" spans="1:14">
+    <row r="36" spans="1:14" ht="84" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -4082,37 +3602,37 @@
         <v>14</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="H36" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="I36" s="17"/>
+        <v>139</v>
+      </c>
+      <c r="H36" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="I36" s="16"/>
       <c r="J36" s="14" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="K36" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L36" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="L36" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
     </row>
-    <row r="37" ht="94.5" spans="1:14">
+    <row r="37" spans="1:14" ht="98" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -4120,35 +3640,35 @@
         <v>14</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D37" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="H37" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="I37" s="17"/>
+        <v>144</v>
+      </c>
+      <c r="H37" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="I37" s="16"/>
       <c r="J37" s="14" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="K37" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L37" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="L37" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
     </row>
-    <row r="38" ht="94.5" spans="1:14">
+    <row r="38" spans="1:14" ht="98" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -4156,35 +3676,35 @@
         <v>14</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="15" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="H38" s="15" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="I38" s="15"/>
       <c r="J38" s="14" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="K38" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L38" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="L38" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
     </row>
-    <row r="39" ht="81" spans="1:14">
+    <row r="39" spans="1:14" ht="84" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -4192,37 +3712,37 @@
         <v>14</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D39" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="H39" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="I39" s="17"/>
+        <v>152</v>
+      </c>
+      <c r="H39" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="I39" s="16"/>
       <c r="J39" s="14" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="K39" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L39" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="L39" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
     </row>
-    <row r="40" ht="94.5" spans="1:14">
+    <row r="40" spans="1:14" ht="98" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -4230,35 +3750,35 @@
         <v>14</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="H40" s="15" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="I40" s="15"/>
       <c r="J40" s="14" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="K40" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L40" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="L40" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
     </row>
-    <row r="41" ht="94.5" spans="1:14">
+    <row r="41" spans="1:14" ht="98" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -4266,35 +3786,35 @@
         <v>14</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D41" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="H41" s="15" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="I41" s="15"/>
       <c r="J41" s="14" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="K41" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L41" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="L41" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
     </row>
-    <row r="42" ht="81" spans="1:14">
+    <row r="42" spans="1:14" ht="84" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -4302,37 +3822,37 @@
         <v>14</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="H42" s="15" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="I42" s="15"/>
       <c r="J42" s="14" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="K42" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L42" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="L42" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
     </row>
-    <row r="43" ht="94.5" spans="1:14">
+    <row r="43" spans="1:14" ht="98" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -4340,35 +3860,35 @@
         <v>14</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D43" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H43" s="15" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="I43" s="15"/>
       <c r="J43" s="14" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="K43" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L43" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="L43" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
     </row>
-    <row r="44" ht="94.5" spans="1:14">
+    <row r="44" spans="1:14" ht="98" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -4376,35 +3896,35 @@
         <v>14</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="H44" s="15" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="I44" s="15"/>
       <c r="J44" s="14" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="K44" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L44" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="L44" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
     </row>
-    <row r="45" ht="94.5" spans="1:14">
+    <row r="45" spans="1:14" ht="98" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -4412,35 +3932,35 @@
         <v>14</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H45" s="15" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="I45" s="15"/>
       <c r="J45" s="14" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="K45" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L45" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="L45" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
     </row>
-    <row r="46" ht="81" spans="1:14">
+    <row r="46" spans="1:14" ht="84" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -4448,109 +3968,109 @@
         <v>14</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D46" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="H46" s="15" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="I46" s="15"/>
       <c r="J46" s="14" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="K46" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L46" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="L46" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
     </row>
-    <row r="47" ht="94.5" spans="1:14">
+    <row r="47" spans="1:14" ht="98" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>46</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D47" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H47" s="15" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="I47" s="15"/>
       <c r="J47" s="14" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="K47" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L47" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="L47" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
     </row>
-    <row r="48" ht="94.5" spans="1:14">
+    <row r="48" spans="1:14" ht="98" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>47</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D48" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F48" s="4"/>
       <c r="G48" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H48" s="15" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="I48" s="15"/>
       <c r="J48" s="14" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="K48" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L48" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="L48" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
     </row>
-    <row r="49" ht="108" spans="1:14">
+    <row r="49" spans="1:14" ht="112" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -4558,894 +4078,894 @@
         <v>14</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D49" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H49" s="15" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="I49" s="15"/>
       <c r="J49" s="14" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="K49" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L49" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="L49" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
     </row>
-    <row r="50" ht="94.5" spans="1:14">
+    <row r="50" spans="1:14" ht="98" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>49</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D50" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="H50" s="15" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I50" s="15"/>
       <c r="J50" s="14" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="K50" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L50" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="L50" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
     </row>
-    <row r="51" ht="94.5" spans="1:14">
+    <row r="51" spans="1:14" ht="98" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>50</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D51" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F51" s="4"/>
       <c r="G51" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H51" s="15" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I51" s="15" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="J51" s="14" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="K51" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L51" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="L51" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="M51" s="4"/>
       <c r="N51" s="4"/>
     </row>
-    <row r="52" ht="81" spans="1:14">
+    <row r="52" spans="1:14" ht="84" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>51</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D52" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H52" s="15" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="I52" s="13"/>
       <c r="J52" s="14" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="K52" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L52" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="L52" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="M52" s="4"/>
       <c r="N52" s="4"/>
     </row>
-    <row r="53" ht="121.5" spans="1:14">
+    <row r="53" spans="1:14" ht="126" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>52</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D53" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F53" s="4"/>
       <c r="G53" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="H53" s="15" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I53" s="15" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="J53" s="14" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="K53" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L53" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="L53" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="M53" s="4"/>
       <c r="N53" s="4"/>
     </row>
-    <row r="54" ht="94.5" spans="1:14">
+    <row r="54" spans="1:14" ht="98" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>53</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D54" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F54" s="4"/>
       <c r="G54" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="H54" s="15" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="I54" s="13"/>
       <c r="J54" s="14" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="K54" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L54" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="L54" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="M54" s="4"/>
       <c r="N54" s="4"/>
     </row>
-    <row r="55" ht="81" spans="1:14">
+    <row r="55" spans="1:14" ht="84" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>54</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D55" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H55" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="I55" s="19"/>
+        <v>218</v>
+      </c>
+      <c r="I55" s="18"/>
       <c r="J55" s="14" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="K55" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L55" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="L55" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="M55" s="4"/>
       <c r="N55" s="4"/>
     </row>
-    <row r="56" ht="94.5" spans="1:14">
+    <row r="56" spans="1:14" ht="98" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>55</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D56" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F56" s="4"/>
       <c r="G56" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="H56" s="15" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="I56" s="13"/>
       <c r="J56" s="14" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="K56" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L56" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="L56" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="M56" s="4"/>
       <c r="N56" s="4"/>
     </row>
-    <row r="57" ht="81" spans="1:14">
+    <row r="57" spans="1:14" ht="84" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>56</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D57" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="H57" s="15" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="I57" s="13"/>
       <c r="J57" s="14" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="K57" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L57" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="L57" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="M57" s="4"/>
       <c r="N57" s="4"/>
     </row>
-    <row r="58" ht="94.5" spans="1:14">
+    <row r="58" spans="1:14" ht="98" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>57</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D58" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F58" s="4"/>
       <c r="G58" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="H58" s="15" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="I58" s="13"/>
       <c r="J58" s="14" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="K58" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L58" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="L58" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="M58" s="4"/>
       <c r="N58" s="4"/>
     </row>
-    <row r="59" ht="81" spans="1:14">
+    <row r="59" spans="1:14" ht="84" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>58</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D59" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="H59" s="15" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="I59" s="13"/>
       <c r="J59" s="14" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="K59" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L59" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="L59" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="M59" s="4"/>
       <c r="N59" s="4"/>
     </row>
-    <row r="60" ht="94.5" spans="1:14">
+    <row r="60" spans="1:14" ht="98" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>59</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D60" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="F60" s="4"/>
       <c r="G60" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H60" s="15" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="I60" s="13"/>
       <c r="J60" s="14" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="K60" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L60" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="L60" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="M60" s="4"/>
       <c r="N60" s="4"/>
     </row>
-    <row r="61" ht="81" spans="1:14">
+    <row r="61" spans="1:14" ht="84" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>60</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D61" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="H61" s="15" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="I61" s="13"/>
       <c r="J61" s="14" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="K61" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L61" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="L61" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="M61" s="4"/>
       <c r="N61" s="4"/>
     </row>
-    <row r="62" ht="94.5" spans="1:14">
+    <row r="62" spans="1:14" ht="98" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>61</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D62" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F62" s="4"/>
       <c r="G62" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="H62" s="15" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="I62" s="13"/>
       <c r="J62" s="14" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="K62" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L62" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="L62" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="M62" s="4"/>
       <c r="N62" s="4"/>
     </row>
-    <row r="63" ht="81" spans="1:14">
+    <row r="63" spans="1:14" ht="84" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>62</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D63" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="H63" s="15" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="I63" s="13"/>
       <c r="J63" s="14" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="K63" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L63" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="L63" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="M63" s="4"/>
       <c r="N63" s="4"/>
     </row>
-    <row r="64" ht="94.5" spans="1:14">
+    <row r="64" spans="1:14" ht="98" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>63</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D64" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="F64" s="4"/>
       <c r="G64" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="H64" s="15" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="I64" s="13"/>
       <c r="J64" s="14" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="K64" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L64" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="L64" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="M64" s="4"/>
       <c r="N64" s="4"/>
     </row>
-    <row r="65" ht="81" spans="1:14">
+    <row r="65" spans="1:14" ht="84" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>64</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D65" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="H65" s="15" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="I65" s="13"/>
       <c r="J65" s="14" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="K65" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L65" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="L65" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="M65" s="4"/>
       <c r="N65" s="4"/>
     </row>
-    <row r="66" ht="94.5" spans="1:14">
+    <row r="66" spans="1:14" ht="98" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>65</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D66" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F66" s="4"/>
       <c r="G66" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="H66" s="17" t="s">
-        <v>273</v>
+        <v>267</v>
+      </c>
+      <c r="H66" s="16" t="s">
+        <v>268</v>
       </c>
       <c r="I66" s="13"/>
       <c r="J66" s="14" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="K66" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L66" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="L66" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="M66" s="4"/>
       <c r="N66" s="4"/>
     </row>
-    <row r="67" ht="81" spans="1:14">
+    <row r="67" spans="1:14" ht="84" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>66</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D67" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G67" s="15" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="H67" s="13"/>
       <c r="I67" s="13"/>
       <c r="J67" s="14" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="K67" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L67" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="L67" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="M67" s="4"/>
       <c r="N67" s="4"/>
     </row>
-    <row r="68" ht="94.5" spans="1:14">
+    <row r="68" spans="1:14" ht="98" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>67</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D68" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="F68" s="4"/>
       <c r="G68" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="H68" s="17" t="s">
-        <v>280</v>
+        <v>274</v>
+      </c>
+      <c r="H68" s="16" t="s">
+        <v>275</v>
       </c>
       <c r="I68" s="13"/>
       <c r="J68" s="14" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="K68" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L68" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="L68" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="M68" s="4"/>
       <c r="N68" s="4"/>
     </row>
-    <row r="69" ht="94.5" spans="1:14">
+    <row r="69" spans="1:14" ht="98" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>68</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D69" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F69" s="4"/>
       <c r="G69" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="H69" s="17" t="s">
-        <v>285</v>
+        <v>279</v>
+      </c>
+      <c r="H69" s="16" t="s">
+        <v>280</v>
       </c>
       <c r="I69" s="13"/>
       <c r="J69" s="14" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="K69" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L69" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="L69" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="M69" s="4"/>
       <c r="N69" s="4"/>
     </row>
-    <row r="70" ht="81" spans="1:14">
+    <row r="70" spans="1:14" ht="84" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>69</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D70" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="H70" s="17" t="s">
-        <v>289</v>
+        <v>283</v>
+      </c>
+      <c r="H70" s="16" t="s">
+        <v>284</v>
       </c>
       <c r="I70" s="13"/>
       <c r="J70" s="14" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="K70" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L70" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="L70" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="M70" s="4"/>
       <c r="N70" s="4"/>
     </row>
-    <row r="71" ht="94.5" spans="1:14">
+    <row r="71" spans="1:14" ht="98" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>70</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D71" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="F71" s="4"/>
       <c r="G71" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="H71" s="15" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="I71" s="13"/>
       <c r="J71" s="14" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="K71" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L71" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="L71" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="M71" s="4"/>
       <c r="N71" s="4"/>
     </row>
-    <row r="72" ht="81" spans="1:14">
+    <row r="72" spans="1:14" ht="84" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>71</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D72" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="H72" s="15" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="I72" s="13"/>
       <c r="J72" s="14" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="K72" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L72" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="L72" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="M72" s="4"/>
       <c r="N72" s="4"/>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
-      <c r="B73" s="20"/>
+      <c r="B73" s="19"/>
       <c r="C73" s="14"/>
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
       <c r="F73" s="4"/>
-      <c r="G73" s="17"/>
+      <c r="G73" s="16"/>
       <c r="H73" s="13"/>
       <c r="I73" s="13"/>
       <c r="J73" s="14"/>
@@ -5454,46 +4974,46 @@
       <c r="M73" s="4"/>
       <c r="N73" s="4"/>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
-      <c r="B74" s="20"/>
-      <c r="C74" s="21"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="20"/>
       <c r="D74" s="7"/>
       <c r="E74" s="9"/>
       <c r="F74" s="4"/>
-      <c r="G74" s="17"/>
+      <c r="G74" s="16"/>
       <c r="H74" s="13"/>
       <c r="I74" s="13"/>
-      <c r="J74" s="23"/>
+      <c r="J74" s="22"/>
       <c r="K74" s="4"/>
       <c r="L74" s="4"/>
       <c r="M74" s="4"/>
       <c r="N74" s="4"/>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
-      <c r="B75" s="20"/>
-      <c r="C75" s="22"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="21"/>
       <c r="D75" s="7"/>
       <c r="E75" s="9"/>
       <c r="F75" s="4"/>
-      <c r="G75" s="17"/>
+      <c r="G75" s="16"/>
       <c r="H75" s="13"/>
       <c r="I75" s="13"/>
-      <c r="J75" s="23"/>
+      <c r="J75" s="22"/>
       <c r="K75" s="4"/>
       <c r="L75" s="4"/>
       <c r="M75" s="4"/>
       <c r="N75" s="4"/>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
-      <c r="B76" s="20"/>
+      <c r="B76" s="19"/>
       <c r="C76" s="14"/>
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
       <c r="F76" s="4"/>
-      <c r="G76" s="17"/>
+      <c r="G76" s="16"/>
       <c r="H76" s="13"/>
       <c r="I76" s="13"/>
       <c r="J76" s="14"/>
@@ -5502,14 +5022,14 @@
       <c r="M76" s="4"/>
       <c r="N76" s="4"/>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
-      <c r="B77" s="20"/>
+      <c r="B77" s="19"/>
       <c r="C77" s="14"/>
       <c r="D77" s="7"/>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
-      <c r="G77" s="17"/>
+      <c r="G77" s="16"/>
       <c r="H77" s="13"/>
       <c r="I77" s="13"/>
       <c r="J77" s="14"/>
@@ -5518,14 +5038,14 @@
       <c r="M77" s="4"/>
       <c r="N77" s="4"/>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
-      <c r="B78" s="20"/>
+      <c r="B78" s="19"/>
       <c r="C78" s="14"/>
       <c r="D78" s="7"/>
       <c r="E78" s="9"/>
       <c r="F78" s="4"/>
-      <c r="G78" s="17"/>
+      <c r="G78" s="16"/>
       <c r="H78" s="13"/>
       <c r="I78" s="13"/>
       <c r="J78" s="14"/>
@@ -5534,14 +5054,14 @@
       <c r="M78" s="4"/>
       <c r="N78" s="4"/>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
-      <c r="B79" s="20"/>
+      <c r="B79" s="19"/>
       <c r="C79" s="14"/>
       <c r="D79" s="7"/>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
-      <c r="G79" s="17"/>
+      <c r="G79" s="16"/>
       <c r="H79" s="13"/>
       <c r="I79" s="13"/>
       <c r="J79" s="14"/>
@@ -5550,14 +5070,14 @@
       <c r="M79" s="4"/>
       <c r="N79" s="4"/>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
-      <c r="B80" s="20"/>
+      <c r="B80" s="19"/>
       <c r="C80" s="14"/>
       <c r="D80" s="7"/>
       <c r="E80" s="9"/>
       <c r="F80" s="4"/>
-      <c r="G80" s="17"/>
+      <c r="G80" s="16"/>
       <c r="H80" s="13"/>
       <c r="I80" s="13"/>
       <c r="J80" s="14"/>
@@ -5566,14 +5086,14 @@
       <c r="M80" s="4"/>
       <c r="N80" s="4"/>
     </row>
-    <row r="81" spans="1:14">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
-      <c r="B81" s="20"/>
+      <c r="B81" s="19"/>
       <c r="C81" s="14"/>
       <c r="D81" s="7"/>
       <c r="E81" s="9"/>
       <c r="F81" s="4"/>
-      <c r="G81" s="17"/>
+      <c r="G81" s="16"/>
       <c r="H81" s="13"/>
       <c r="I81" s="13"/>
       <c r="J81" s="14"/>
@@ -5582,14 +5102,14 @@
       <c r="M81" s="4"/>
       <c r="N81" s="4"/>
     </row>
-    <row r="82" spans="1:14">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
-      <c r="B82" s="20"/>
+      <c r="B82" s="19"/>
       <c r="C82" s="14"/>
       <c r="D82" s="7"/>
       <c r="E82" s="9"/>
       <c r="F82" s="4"/>
-      <c r="G82" s="17"/>
+      <c r="G82" s="16"/>
       <c r="H82" s="13"/>
       <c r="I82" s="13"/>
       <c r="J82" s="14"/>
@@ -5598,14 +5118,14 @@
       <c r="M82" s="4"/>
       <c r="N82" s="4"/>
     </row>
-    <row r="83" spans="1:14">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
-      <c r="B83" s="20"/>
+      <c r="B83" s="19"/>
       <c r="C83" s="14"/>
       <c r="D83" s="7"/>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
-      <c r="G83" s="17"/>
+      <c r="G83" s="16"/>
       <c r="H83" s="13"/>
       <c r="I83" s="13"/>
       <c r="J83" s="14"/>
@@ -5614,14 +5134,14 @@
       <c r="M83" s="4"/>
       <c r="N83" s="4"/>
     </row>
-    <row r="84" spans="1:14">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
-      <c r="B84" s="20"/>
+      <c r="B84" s="19"/>
       <c r="C84" s="14"/>
       <c r="D84" s="7"/>
       <c r="E84" s="9"/>
       <c r="F84" s="4"/>
-      <c r="G84" s="17"/>
+      <c r="G84" s="16"/>
       <c r="H84" s="13"/>
       <c r="I84" s="13"/>
       <c r="J84" s="14"/>
@@ -5630,14 +5150,14 @@
       <c r="M84" s="4"/>
       <c r="N84" s="4"/>
     </row>
-    <row r="85" spans="1:14">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
-      <c r="B85" s="20"/>
+      <c r="B85" s="19"/>
       <c r="C85" s="14"/>
       <c r="D85" s="7"/>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
-      <c r="G85" s="17"/>
+      <c r="G85" s="16"/>
       <c r="H85" s="13"/>
       <c r="I85" s="13"/>
       <c r="J85" s="14"/>
@@ -5646,9 +5166,9 @@
       <c r="M85" s="4"/>
       <c r="N85" s="4"/>
     </row>
-    <row r="86" spans="1:14">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
-      <c r="B86" s="20"/>
+      <c r="B86" s="19"/>
       <c r="C86" s="14"/>
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
@@ -5662,9 +5182,9 @@
       <c r="M86" s="4"/>
       <c r="N86" s="4"/>
     </row>
-    <row r="87" spans="1:14">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
-      <c r="B87" s="20"/>
+      <c r="B87" s="19"/>
       <c r="C87" s="14"/>
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
@@ -5678,9 +5198,9 @@
       <c r="M87" s="4"/>
       <c r="N87" s="4"/>
     </row>
-    <row r="88" spans="1:14">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
-      <c r="B88" s="20"/>
+      <c r="B88" s="19"/>
       <c r="C88" s="14"/>
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
@@ -5694,9 +5214,9 @@
       <c r="M88" s="4"/>
       <c r="N88" s="4"/>
     </row>
-    <row r="89" spans="1:14">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
-      <c r="B89" s="20"/>
+      <c r="B89" s="19"/>
       <c r="C89" s="14"/>
       <c r="D89" s="7"/>
       <c r="E89" s="7"/>
@@ -5710,9 +5230,9 @@
       <c r="M89" s="4"/>
       <c r="N89" s="4"/>
     </row>
-    <row r="90" spans="1:14">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
-      <c r="B90" s="20"/>
+      <c r="B90" s="19"/>
       <c r="C90" s="14"/>
       <c r="D90" s="7"/>
       <c r="E90" s="7"/>
@@ -5726,9 +5246,9 @@
       <c r="M90" s="4"/>
       <c r="N90" s="4"/>
     </row>
-    <row r="91" spans="1:14">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
-      <c r="B91" s="20"/>
+      <c r="B91" s="19"/>
       <c r="C91" s="14"/>
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
@@ -5742,9 +5262,9 @@
       <c r="M91" s="4"/>
       <c r="N91" s="4"/>
     </row>
-    <row r="92" spans="1:14">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
-      <c r="B92" s="20"/>
+      <c r="B92" s="19"/>
       <c r="C92" s="14"/>
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
@@ -5758,9 +5278,9 @@
       <c r="M92" s="4"/>
       <c r="N92" s="4"/>
     </row>
-    <row r="93" spans="1:14">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
-      <c r="B93" s="20"/>
+      <c r="B93" s="19"/>
       <c r="C93" s="14"/>
       <c r="D93" s="7"/>
       <c r="E93" s="7"/>
@@ -5774,14 +5294,14 @@
       <c r="M93" s="4"/>
       <c r="N93" s="4"/>
     </row>
-    <row r="94" spans="1:14">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
-      <c r="B94" s="20"/>
+      <c r="B94" s="19"/>
       <c r="C94" s="14"/>
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
       <c r="F94" s="4"/>
-      <c r="G94" s="17"/>
+      <c r="G94" s="16"/>
       <c r="H94" s="13"/>
       <c r="I94" s="13"/>
       <c r="J94" s="14"/>
@@ -5790,14 +5310,14 @@
       <c r="M94" s="4"/>
       <c r="N94" s="4"/>
     </row>
-    <row r="95" spans="1:14">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
-      <c r="B95" s="20"/>
+      <c r="B95" s="19"/>
       <c r="C95" s="14"/>
       <c r="D95" s="7"/>
       <c r="E95" s="9"/>
       <c r="F95" s="4"/>
-      <c r="G95" s="17"/>
+      <c r="G95" s="16"/>
       <c r="H95" s="13"/>
       <c r="I95" s="13"/>
       <c r="J95" s="13"/>
@@ -5806,14 +5326,14 @@
       <c r="M95" s="4"/>
       <c r="N95" s="4"/>
     </row>
-    <row r="96" spans="1:14">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
-      <c r="B96" s="20"/>
+      <c r="B96" s="19"/>
       <c r="C96" s="14"/>
       <c r="D96" s="7"/>
       <c r="E96" s="9"/>
       <c r="F96" s="4"/>
-      <c r="G96" s="17"/>
+      <c r="G96" s="16"/>
       <c r="H96" s="13"/>
       <c r="I96" s="13"/>
       <c r="J96" s="13"/>
@@ -5822,14 +5342,14 @@
       <c r="M96" s="4"/>
       <c r="N96" s="4"/>
     </row>
-    <row r="97" spans="1:14">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
-      <c r="B97" s="20"/>
+      <c r="B97" s="19"/>
       <c r="C97" s="14"/>
       <c r="D97" s="7"/>
       <c r="E97" s="9"/>
       <c r="F97" s="4"/>
-      <c r="G97" s="17"/>
+      <c r="G97" s="16"/>
       <c r="H97" s="13"/>
       <c r="I97" s="13"/>
       <c r="J97" s="13"/>
@@ -5838,14 +5358,14 @@
       <c r="M97" s="4"/>
       <c r="N97" s="4"/>
     </row>
-    <row r="98" spans="1:14">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
-      <c r="B98" s="20"/>
+      <c r="B98" s="19"/>
       <c r="C98" s="14"/>
       <c r="D98" s="7"/>
       <c r="E98" s="9"/>
       <c r="F98" s="4"/>
-      <c r="G98" s="17"/>
+      <c r="G98" s="16"/>
       <c r="H98" s="13"/>
       <c r="I98" s="13"/>
       <c r="J98" s="13"/>
@@ -5854,14 +5374,14 @@
       <c r="M98" s="4"/>
       <c r="N98" s="4"/>
     </row>
-    <row r="99" spans="1:14">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
-      <c r="B99" s="20"/>
+      <c r="B99" s="19"/>
       <c r="C99" s="14"/>
       <c r="D99" s="7"/>
       <c r="E99" s="9"/>
       <c r="F99" s="4"/>
-      <c r="G99" s="17"/>
+      <c r="G99" s="16"/>
       <c r="H99" s="13"/>
       <c r="I99" s="13"/>
       <c r="J99" s="14"/>
@@ -5870,14 +5390,14 @@
       <c r="M99" s="4"/>
       <c r="N99" s="4"/>
     </row>
-    <row r="100" spans="1:14">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
-      <c r="B100" s="20"/>
+      <c r="B100" s="19"/>
       <c r="C100" s="14"/>
       <c r="D100" s="7"/>
       <c r="E100" s="9"/>
       <c r="F100" s="4"/>
-      <c r="G100" s="17"/>
+      <c r="G100" s="16"/>
       <c r="H100" s="13"/>
       <c r="I100" s="13"/>
       <c r="J100" s="14"/>
@@ -5886,206 +5406,206 @@
       <c r="M100" s="4"/>
       <c r="N100" s="4"/>
     </row>
-    <row r="101" spans="1:14">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
-      <c r="B101" s="20"/>
-      <c r="C101" s="23"/>
+      <c r="B101" s="19"/>
+      <c r="C101" s="22"/>
       <c r="D101" s="9"/>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
-      <c r="G101" s="17"/>
+      <c r="G101" s="16"/>
       <c r="H101" s="13"/>
       <c r="I101" s="13"/>
-      <c r="J101" s="18"/>
+      <c r="J101" s="17"/>
       <c r="K101" s="4"/>
       <c r="L101" s="4"/>
       <c r="M101" s="4"/>
       <c r="N101" s="4"/>
     </row>
-    <row r="102" spans="1:14">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
-      <c r="B102" s="20"/>
-      <c r="C102" s="23"/>
+      <c r="B102" s="19"/>
+      <c r="C102" s="22"/>
       <c r="D102" s="9"/>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
-      <c r="G102" s="17"/>
+      <c r="G102" s="16"/>
       <c r="H102" s="13"/>
       <c r="I102" s="13"/>
-      <c r="J102" s="18"/>
+      <c r="J102" s="17"/>
       <c r="K102" s="4"/>
       <c r="L102" s="4"/>
       <c r="M102" s="4"/>
       <c r="N102" s="4"/>
     </row>
-    <row r="103" spans="1:14">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
-      <c r="B103" s="20"/>
-      <c r="C103" s="23"/>
+      <c r="B103" s="19"/>
+      <c r="C103" s="22"/>
       <c r="D103" s="7"/>
       <c r="E103" s="9"/>
       <c r="F103" s="4"/>
-      <c r="G103" s="17"/>
+      <c r="G103" s="16"/>
       <c r="H103" s="13"/>
       <c r="I103" s="13"/>
-      <c r="J103" s="23"/>
+      <c r="J103" s="22"/>
       <c r="K103" s="4"/>
       <c r="L103" s="4"/>
       <c r="M103" s="4"/>
       <c r="N103" s="4"/>
     </row>
-    <row r="104" spans="1:14">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
-      <c r="B104" s="20"/>
-      <c r="C104" s="23"/>
+      <c r="B104" s="19"/>
+      <c r="C104" s="22"/>
       <c r="D104" s="7"/>
       <c r="E104" s="9"/>
       <c r="F104" s="4"/>
-      <c r="G104" s="17"/>
+      <c r="G104" s="16"/>
       <c r="H104" s="13"/>
       <c r="I104" s="13"/>
-      <c r="J104" s="23"/>
+      <c r="J104" s="22"/>
       <c r="K104" s="4"/>
       <c r="L104" s="4"/>
       <c r="M104" s="4"/>
       <c r="N104" s="4"/>
     </row>
-    <row r="105" spans="1:14">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
-      <c r="B105" s="20"/>
-      <c r="C105" s="23"/>
+      <c r="B105" s="19"/>
+      <c r="C105" s="22"/>
       <c r="D105" s="7"/>
       <c r="E105" s="9"/>
       <c r="F105" s="4"/>
-      <c r="G105" s="17"/>
+      <c r="G105" s="16"/>
       <c r="H105" s="13"/>
       <c r="I105" s="13"/>
-      <c r="J105" s="23"/>
+      <c r="J105" s="22"/>
       <c r="K105" s="4"/>
       <c r="L105" s="4"/>
       <c r="M105" s="4"/>
       <c r="N105" s="4"/>
     </row>
-    <row r="106" spans="1:14">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
-      <c r="B106" s="20"/>
-      <c r="C106" s="23"/>
+      <c r="B106" s="19"/>
+      <c r="C106" s="22"/>
       <c r="D106" s="7"/>
       <c r="E106" s="9"/>
       <c r="F106" s="4"/>
-      <c r="G106" s="17"/>
+      <c r="G106" s="16"/>
       <c r="H106" s="13"/>
       <c r="I106" s="13"/>
-      <c r="J106" s="23"/>
+      <c r="J106" s="22"/>
       <c r="K106" s="4"/>
       <c r="L106" s="4"/>
       <c r="M106" s="4"/>
       <c r="N106" s="4"/>
     </row>
-    <row r="107" spans="1:14">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
-      <c r="B107" s="20"/>
-      <c r="C107" s="23"/>
+      <c r="B107" s="19"/>
+      <c r="C107" s="22"/>
       <c r="D107" s="7"/>
-      <c r="E107" s="24"/>
+      <c r="E107" s="23"/>
       <c r="F107" s="4"/>
-      <c r="G107" s="17"/>
+      <c r="G107" s="16"/>
       <c r="H107" s="13"/>
       <c r="I107" s="13"/>
-      <c r="J107" s="23"/>
+      <c r="J107" s="22"/>
       <c r="K107" s="4"/>
       <c r="L107" s="4"/>
       <c r="M107" s="4"/>
       <c r="N107" s="4"/>
     </row>
-    <row r="108" spans="1:14">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
-      <c r="B108" s="20"/>
-      <c r="C108" s="23"/>
+      <c r="B108" s="19"/>
+      <c r="C108" s="22"/>
       <c r="D108" s="7"/>
-      <c r="E108" s="24"/>
+      <c r="E108" s="23"/>
       <c r="F108" s="4"/>
-      <c r="G108" s="17"/>
+      <c r="G108" s="16"/>
       <c r="H108" s="13"/>
       <c r="I108" s="13"/>
-      <c r="J108" s="23"/>
+      <c r="J108" s="22"/>
       <c r="K108" s="4"/>
       <c r="L108" s="4"/>
       <c r="M108" s="4"/>
       <c r="N108" s="4"/>
     </row>
-    <row r="109" spans="1:14">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
-      <c r="B109" s="20"/>
-      <c r="C109" s="23"/>
+      <c r="B109" s="19"/>
+      <c r="C109" s="22"/>
       <c r="D109" s="7"/>
-      <c r="E109" s="24"/>
+      <c r="E109" s="23"/>
       <c r="F109" s="4"/>
-      <c r="G109" s="17"/>
+      <c r="G109" s="16"/>
       <c r="H109" s="13"/>
       <c r="I109" s="13"/>
-      <c r="J109" s="23"/>
+      <c r="J109" s="22"/>
       <c r="K109" s="4"/>
       <c r="L109" s="4"/>
       <c r="M109" s="4"/>
       <c r="N109" s="4"/>
     </row>
-    <row r="110" spans="1:14">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="4"/>
-      <c r="B110" s="20"/>
-      <c r="C110" s="23"/>
+      <c r="B110" s="19"/>
+      <c r="C110" s="22"/>
       <c r="D110" s="7"/>
-      <c r="E110" s="24"/>
+      <c r="E110" s="23"/>
       <c r="F110" s="4"/>
-      <c r="G110" s="17"/>
+      <c r="G110" s="16"/>
       <c r="H110" s="13"/>
       <c r="I110" s="13"/>
-      <c r="J110" s="23"/>
+      <c r="J110" s="22"/>
       <c r="K110" s="4"/>
       <c r="L110" s="4"/>
       <c r="M110" s="4"/>
       <c r="N110" s="4"/>
     </row>
-    <row r="111" spans="1:14">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
-      <c r="B111" s="20"/>
-      <c r="C111" s="23"/>
+      <c r="B111" s="19"/>
+      <c r="C111" s="22"/>
       <c r="D111" s="7"/>
-      <c r="E111" s="25"/>
+      <c r="E111" s="24"/>
       <c r="F111" s="4"/>
-      <c r="G111" s="17"/>
+      <c r="G111" s="16"/>
       <c r="H111" s="13"/>
       <c r="I111" s="13"/>
-      <c r="J111" s="23"/>
+      <c r="J111" s="22"/>
       <c r="K111" s="4"/>
       <c r="L111" s="4"/>
       <c r="M111" s="4"/>
       <c r="N111" s="4"/>
     </row>
-    <row r="112" spans="1:14">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
-      <c r="B112" s="20"/>
-      <c r="C112" s="23"/>
+      <c r="B112" s="19"/>
+      <c r="C112" s="22"/>
       <c r="D112" s="7"/>
-      <c r="E112" s="25"/>
+      <c r="E112" s="24"/>
       <c r="F112" s="4"/>
-      <c r="G112" s="17"/>
+      <c r="G112" s="16"/>
       <c r="H112" s="13"/>
       <c r="I112" s="13"/>
-      <c r="J112" s="23"/>
+      <c r="J112" s="22"/>
       <c r="K112" s="4"/>
       <c r="L112" s="4"/>
       <c r="M112" s="4"/>
       <c r="N112" s="4"/>
     </row>
-    <row r="113" spans="1:14">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
-      <c r="B113" s="20"/>
+      <c r="B113" s="19"/>
       <c r="C113" s="14"/>
       <c r="D113" s="7"/>
-      <c r="E113" s="25"/>
+      <c r="E113" s="24"/>
       <c r="F113" s="4"/>
-      <c r="G113" s="17"/>
+      <c r="G113" s="16"/>
       <c r="H113" s="13"/>
       <c r="I113" s="13"/>
       <c r="J113" s="14"/>
@@ -6094,14 +5614,14 @@
       <c r="M113" s="4"/>
       <c r="N113" s="4"/>
     </row>
-    <row r="114" spans="1:14">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" s="4"/>
-      <c r="B114" s="20"/>
+      <c r="B114" s="19"/>
       <c r="C114" s="14"/>
       <c r="D114" s="7"/>
-      <c r="E114" s="25"/>
+      <c r="E114" s="24"/>
       <c r="F114" s="4"/>
-      <c r="G114" s="17"/>
+      <c r="G114" s="16"/>
       <c r="H114" s="13"/>
       <c r="I114" s="13"/>
       <c r="J114" s="14"/>
@@ -6110,14 +5630,14 @@
       <c r="M114" s="4"/>
       <c r="N114" s="4"/>
     </row>
-    <row r="115" spans="1:14">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
-      <c r="B115" s="20"/>
+      <c r="B115" s="19"/>
       <c r="C115" s="14"/>
       <c r="D115" s="7"/>
-      <c r="E115" s="25"/>
+      <c r="E115" s="24"/>
       <c r="F115" s="4"/>
-      <c r="G115" s="17"/>
+      <c r="G115" s="16"/>
       <c r="H115" s="13"/>
       <c r="I115" s="13"/>
       <c r="J115" s="14"/>
@@ -6126,23 +5646,23 @@
       <c r="M115" s="4"/>
       <c r="N115" s="4"/>
     </row>
-    <row r="116" spans="1:14">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" s="4"/>
-      <c r="B116" s="20"/>
+      <c r="B116" s="19"/>
       <c r="C116" s="14"/>
       <c r="D116" s="7"/>
       <c r="E116" s="4"/>
-      <c r="F116" s="25"/>
-      <c r="G116" s="26"/>
-      <c r="H116" s="26"/>
-      <c r="I116" s="26"/>
+      <c r="F116" s="24"/>
+      <c r="G116" s="25"/>
+      <c r="H116" s="25"/>
+      <c r="I116" s="25"/>
       <c r="J116" s="14"/>
       <c r="K116" s="4"/>
       <c r="L116" s="4"/>
       <c r="M116" s="4"/>
       <c r="N116" s="4"/>
     </row>
-    <row r="117" spans="1:14">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -6158,7 +5678,7 @@
       <c r="M117" s="4"/>
       <c r="N117" s="4"/>
     </row>
-    <row r="118" spans="1:14">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -6174,7 +5694,7 @@
       <c r="M118" s="4"/>
       <c r="N118" s="4"/>
     </row>
-    <row r="119" spans="1:14">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -6190,7 +5710,7 @@
       <c r="M119" s="4"/>
       <c r="N119" s="4"/>
     </row>
-    <row r="120" spans="1:14">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -6206,7 +5726,7 @@
       <c r="M120" s="4"/>
       <c r="N120" s="4"/>
     </row>
-    <row r="121" spans="1:14">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -6222,7 +5742,7 @@
       <c r="M121" s="4"/>
       <c r="N121" s="4"/>
     </row>
-    <row r="122" spans="1:14">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -6238,7 +5758,7 @@
       <c r="M122" s="4"/>
       <c r="N122" s="4"/>
     </row>
-    <row r="123" spans="1:14">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -6254,7 +5774,7 @@
       <c r="M123" s="4"/>
       <c r="N123" s="4"/>
     </row>
-    <row r="124" spans="1:14">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -6270,7 +5790,7 @@
       <c r="M124" s="4"/>
       <c r="N124" s="4"/>
     </row>
-    <row r="125" spans="1:14">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -6286,7 +5806,7 @@
       <c r="M125" s="4"/>
       <c r="N125" s="4"/>
     </row>
-    <row r="126" spans="1:14">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -6302,7 +5822,7 @@
       <c r="M126" s="4"/>
       <c r="N126" s="4"/>
     </row>
-    <row r="127" spans="1:14">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -6318,7 +5838,7 @@
       <c r="M127" s="4"/>
       <c r="N127" s="4"/>
     </row>
-    <row r="128" spans="1:14">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -6334,7 +5854,7 @@
       <c r="M128" s="4"/>
       <c r="N128" s="4"/>
     </row>
-    <row r="129" spans="1:14">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
@@ -6350,7 +5870,7 @@
       <c r="M129" s="4"/>
       <c r="N129" s="4"/>
     </row>
-    <row r="130" spans="1:14">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -6366,7 +5886,7 @@
       <c r="M130" s="4"/>
       <c r="N130" s="4"/>
     </row>
-    <row r="131" spans="1:14">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
@@ -6382,7 +5902,7 @@
       <c r="M131" s="4"/>
       <c r="N131" s="4"/>
     </row>
-    <row r="132" spans="1:14">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
@@ -6398,7 +5918,7 @@
       <c r="M132" s="4"/>
       <c r="N132" s="4"/>
     </row>
-    <row r="133" spans="1:14">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
@@ -6414,7 +5934,7 @@
       <c r="M133" s="4"/>
       <c r="N133" s="4"/>
     </row>
-    <row r="134" spans="1:14">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -6430,7 +5950,7 @@
       <c r="M134" s="4"/>
       <c r="N134" s="4"/>
     </row>
-    <row r="135" spans="1:14">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -6446,7 +5966,7 @@
       <c r="M135" s="4"/>
       <c r="N135" s="4"/>
     </row>
-    <row r="136" spans="1:14">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -6462,7 +5982,7 @@
       <c r="M136" s="4"/>
       <c r="N136" s="4"/>
     </row>
-    <row r="137" spans="1:14">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -6478,7 +5998,7 @@
       <c r="M137" s="4"/>
       <c r="N137" s="4"/>
     </row>
-    <row r="138" spans="1:14">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -6494,7 +6014,7 @@
       <c r="M138" s="4"/>
       <c r="N138" s="4"/>
     </row>
-    <row r="139" spans="1:14">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -6510,7 +6030,7 @@
       <c r="M139" s="4"/>
       <c r="N139" s="4"/>
     </row>
-    <row r="140" spans="1:14">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -6526,7 +6046,7 @@
       <c r="M140" s="4"/>
       <c r="N140" s="4"/>
     </row>
-    <row r="141" spans="1:14">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -6542,7 +6062,7 @@
       <c r="M141" s="4"/>
       <c r="N141" s="4"/>
     </row>
-    <row r="142" spans="1:14">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -6558,7 +6078,7 @@
       <c r="M142" s="4"/>
       <c r="N142" s="4"/>
     </row>
-    <row r="143" spans="1:14">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -6574,7 +6094,7 @@
       <c r="M143" s="4"/>
       <c r="N143" s="4"/>
     </row>
-    <row r="144" spans="1:14">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -6590,7 +6110,7 @@
       <c r="M144" s="4"/>
       <c r="N144" s="4"/>
     </row>
-    <row r="145" spans="1:14">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
@@ -6606,7 +6126,7 @@
       <c r="M145" s="4"/>
       <c r="N145" s="4"/>
     </row>
-    <row r="146" spans="1:14">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -6622,7 +6142,7 @@
       <c r="M146" s="4"/>
       <c r="N146" s="4"/>
     </row>
-    <row r="147" spans="1:14">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
@@ -6638,7 +6158,7 @@
       <c r="M147" s="4"/>
       <c r="N147" s="4"/>
     </row>
-    <row r="148" spans="1:14">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
@@ -6654,7 +6174,7 @@
       <c r="M148" s="4"/>
       <c r="N148" s="4"/>
     </row>
-    <row r="149" spans="1:14">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
@@ -6670,7 +6190,7 @@
       <c r="M149" s="4"/>
       <c r="N149" s="4"/>
     </row>
-    <row r="150" spans="1:14">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
@@ -6686,7 +6206,7 @@
       <c r="M150" s="4"/>
       <c r="N150" s="4"/>
     </row>
-    <row r="151" spans="1:14">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
@@ -6702,7 +6222,7 @@
       <c r="M151" s="4"/>
       <c r="N151" s="4"/>
     </row>
-    <row r="152" spans="1:14">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
@@ -6718,7 +6238,7 @@
       <c r="M152" s="4"/>
       <c r="N152" s="4"/>
     </row>
-    <row r="153" spans="1:14">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
@@ -6734,7 +6254,7 @@
       <c r="M153" s="4"/>
       <c r="N153" s="4"/>
     </row>
-    <row r="154" spans="1:14">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
@@ -6750,7 +6270,7 @@
       <c r="M154" s="4"/>
       <c r="N154" s="4"/>
     </row>
-    <row r="155" spans="1:14">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
@@ -6766,7 +6286,7 @@
       <c r="M155" s="4"/>
       <c r="N155" s="4"/>
     </row>
-    <row r="156" spans="1:14">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
@@ -6782,7 +6302,7 @@
       <c r="M156" s="4"/>
       <c r="N156" s="4"/>
     </row>
-    <row r="157" spans="1:14">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
@@ -6798,7 +6318,7 @@
       <c r="M157" s="4"/>
       <c r="N157" s="4"/>
     </row>
-    <row r="158" spans="1:14">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
@@ -6814,7 +6334,7 @@
       <c r="M158" s="4"/>
       <c r="N158" s="4"/>
     </row>
-    <row r="159" spans="1:14">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -6830,7 +6350,7 @@
       <c r="M159" s="4"/>
       <c r="N159" s="4"/>
     </row>
-    <row r="160" spans="1:14">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
@@ -6846,7 +6366,7 @@
       <c r="M160" s="4"/>
       <c r="N160" s="4"/>
     </row>
-    <row r="161" spans="1:14">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -6862,7 +6382,7 @@
       <c r="M161" s="4"/>
       <c r="N161" s="4"/>
     </row>
-    <row r="162" spans="1:14">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
@@ -6878,7 +6398,7 @@
       <c r="M162" s="4"/>
       <c r="N162" s="4"/>
     </row>
-    <row r="163" spans="1:14">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
@@ -6894,7 +6414,7 @@
       <c r="M163" s="4"/>
       <c r="N163" s="4"/>
     </row>
-    <row r="164" spans="1:14">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
@@ -6910,7 +6430,7 @@
       <c r="M164" s="4"/>
       <c r="N164" s="4"/>
     </row>
-    <row r="165" spans="1:14">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
@@ -6926,7 +6446,7 @@
       <c r="M165" s="4"/>
       <c r="N165" s="4"/>
     </row>
-    <row r="166" spans="1:14">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
@@ -6942,7 +6462,7 @@
       <c r="M166" s="4"/>
       <c r="N166" s="4"/>
     </row>
-    <row r="167" spans="1:14">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -6958,7 +6478,7 @@
       <c r="M167" s="4"/>
       <c r="N167" s="4"/>
     </row>
-    <row r="168" spans="1:14">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -6974,7 +6494,7 @@
       <c r="M168" s="4"/>
       <c r="N168" s="4"/>
     </row>
-    <row r="169" spans="1:14">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -6990,7 +6510,7 @@
       <c r="M169" s="4"/>
       <c r="N169" s="4"/>
     </row>
-    <row r="170" spans="1:14">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -7006,7 +6526,7 @@
       <c r="M170" s="4"/>
       <c r="N170" s="4"/>
     </row>
-    <row r="171" spans="1:14">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -7022,7 +6542,7 @@
       <c r="M171" s="4"/>
       <c r="N171" s="4"/>
     </row>
-    <row r="172" spans="1:14">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -7038,7 +6558,7 @@
       <c r="M172" s="4"/>
       <c r="N172" s="4"/>
     </row>
-    <row r="173" spans="1:14">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -7054,7 +6574,7 @@
       <c r="M173" s="4"/>
       <c r="N173" s="4"/>
     </row>
-    <row r="174" spans="1:14">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -7070,7 +6590,7 @@
       <c r="M174" s="4"/>
       <c r="N174" s="4"/>
     </row>
-    <row r="175" spans="1:14">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -7086,7 +6606,7 @@
       <c r="M175" s="4"/>
       <c r="N175" s="4"/>
     </row>
-    <row r="176" spans="1:14">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -7102,7 +6622,7 @@
       <c r="M176" s="4"/>
       <c r="N176" s="4"/>
     </row>
-    <row r="177" spans="1:14">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -7118,7 +6638,7 @@
       <c r="M177" s="4"/>
       <c r="N177" s="4"/>
     </row>
-    <row r="178" spans="1:14">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -7134,7 +6654,7 @@
       <c r="M178" s="4"/>
       <c r="N178" s="4"/>
     </row>
-    <row r="179" spans="1:14">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -7150,7 +6670,7 @@
       <c r="M179" s="4"/>
       <c r="N179" s="4"/>
     </row>
-    <row r="180" spans="1:14">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -7166,7 +6686,7 @@
       <c r="M180" s="4"/>
       <c r="N180" s="4"/>
     </row>
-    <row r="181" spans="1:14">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -7182,7 +6702,7 @@
       <c r="M181" s="4"/>
       <c r="N181" s="4"/>
     </row>
-    <row r="182" spans="1:14">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -7198,7 +6718,7 @@
       <c r="M182" s="4"/>
       <c r="N182" s="4"/>
     </row>
-    <row r="183" spans="1:14">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -7214,7 +6734,7 @@
       <c r="M183" s="4"/>
       <c r="N183" s="4"/>
     </row>
-    <row r="184" spans="1:14">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
@@ -7230,7 +6750,7 @@
       <c r="M184" s="4"/>
       <c r="N184" s="4"/>
     </row>
-    <row r="185" spans="1:14">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
@@ -7246,7 +6766,7 @@
       <c r="M185" s="4"/>
       <c r="N185" s="4"/>
     </row>
-    <row r="186" spans="1:14">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
@@ -7262,7 +6782,7 @@
       <c r="M186" s="4"/>
       <c r="N186" s="4"/>
     </row>
-    <row r="187" spans="1:14">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -7278,7 +6798,7 @@
       <c r="M187" s="4"/>
       <c r="N187" s="4"/>
     </row>
-    <row r="188" spans="1:14">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -7294,7 +6814,7 @@
       <c r="M188" s="4"/>
       <c r="N188" s="4"/>
     </row>
-    <row r="189" spans="1:14">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -7310,7 +6830,7 @@
       <c r="M189" s="4"/>
       <c r="N189" s="4"/>
     </row>
-    <row r="190" spans="1:14">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
@@ -7326,7 +6846,7 @@
       <c r="M190" s="4"/>
       <c r="N190" s="4"/>
     </row>
-    <row r="191" spans="1:14">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -7342,7 +6862,7 @@
       <c r="M191" s="4"/>
       <c r="N191" s="4"/>
     </row>
-    <row r="192" spans="1:14">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -7358,7 +6878,7 @@
       <c r="M192" s="4"/>
       <c r="N192" s="4"/>
     </row>
-    <row r="193" spans="1:14">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -7374,7 +6894,7 @@
       <c r="M193" s="4"/>
       <c r="N193" s="4"/>
     </row>
-    <row r="194" spans="1:14">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
@@ -7390,7 +6910,7 @@
       <c r="M194" s="4"/>
       <c r="N194" s="4"/>
     </row>
-    <row r="195" spans="1:14">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
@@ -7406,7 +6926,7 @@
       <c r="M195" s="4"/>
       <c r="N195" s="4"/>
     </row>
-    <row r="196" spans="1:14">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -7422,7 +6942,7 @@
       <c r="M196" s="4"/>
       <c r="N196" s="4"/>
     </row>
-    <row r="197" spans="1:14">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
@@ -7438,7 +6958,7 @@
       <c r="M197" s="4"/>
       <c r="N197" s="4"/>
     </row>
-    <row r="198" spans="1:14">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
@@ -7454,7 +6974,7 @@
       <c r="M198" s="4"/>
       <c r="N198" s="4"/>
     </row>
-    <row r="199" spans="1:14">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -7470,7 +6990,7 @@
       <c r="M199" s="4"/>
       <c r="N199" s="4"/>
     </row>
-    <row r="200" spans="1:14">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
@@ -7486,7 +7006,7 @@
       <c r="M200" s="4"/>
       <c r="N200" s="4"/>
     </row>
-    <row r="201" spans="1:14">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
@@ -7502,7 +7022,7 @@
       <c r="M201" s="4"/>
       <c r="N201" s="4"/>
     </row>
-    <row r="202" spans="1:14">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
@@ -7518,7 +7038,7 @@
       <c r="M202" s="4"/>
       <c r="N202" s="4"/>
     </row>
-    <row r="203" spans="1:14">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
@@ -7534,7 +7054,7 @@
       <c r="M203" s="4"/>
       <c r="N203" s="4"/>
     </row>
-    <row r="204" spans="1:14">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
@@ -7550,7 +7070,7 @@
       <c r="M204" s="4"/>
       <c r="N204" s="4"/>
     </row>
-    <row r="205" spans="1:14">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
@@ -7566,7 +7086,7 @@
       <c r="M205" s="4"/>
       <c r="N205" s="4"/>
     </row>
-    <row r="206" spans="1:14">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
@@ -7582,7 +7102,7 @@
       <c r="M206" s="4"/>
       <c r="N206" s="4"/>
     </row>
-    <row r="207" spans="1:14">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
@@ -7598,7 +7118,7 @@
       <c r="M207" s="4"/>
       <c r="N207" s="4"/>
     </row>
-    <row r="208" spans="1:14">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
@@ -7614,7 +7134,7 @@
       <c r="M208" s="4"/>
       <c r="N208" s="4"/>
     </row>
-    <row r="209" spans="1:14">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
@@ -7630,7 +7150,7 @@
       <c r="M209" s="4"/>
       <c r="N209" s="4"/>
     </row>
-    <row r="210" spans="1:14">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
@@ -7646,7 +7166,7 @@
       <c r="M210" s="4"/>
       <c r="N210" s="4"/>
     </row>
-    <row r="211" spans="1:14">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
@@ -7662,7 +7182,7 @@
       <c r="M211" s="4"/>
       <c r="N211" s="4"/>
     </row>
-    <row r="212" spans="1:14">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
@@ -7678,7 +7198,7 @@
       <c r="M212" s="4"/>
       <c r="N212" s="4"/>
     </row>
-    <row r="213" spans="1:14">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
@@ -7694,7 +7214,7 @@
       <c r="M213" s="4"/>
       <c r="N213" s="4"/>
     </row>
-    <row r="214" spans="1:14">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
@@ -7710,7 +7230,7 @@
       <c r="M214" s="4"/>
       <c r="N214" s="4"/>
     </row>
-    <row r="215" spans="1:14">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
@@ -7726,7 +7246,7 @@
       <c r="M215" s="4"/>
       <c r="N215" s="4"/>
     </row>
-    <row r="216" spans="1:14">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
@@ -7742,7 +7262,7 @@
       <c r="M216" s="4"/>
       <c r="N216" s="4"/>
     </row>
-    <row r="217" spans="1:14">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
@@ -7758,7 +7278,7 @@
       <c r="M217" s="4"/>
       <c r="N217" s="4"/>
     </row>
-    <row r="218" spans="1:14">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
@@ -7774,7 +7294,7 @@
       <c r="M218" s="4"/>
       <c r="N218" s="4"/>
     </row>
-    <row r="219" spans="1:14">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
@@ -7790,7 +7310,7 @@
       <c r="M219" s="4"/>
       <c r="N219" s="4"/>
     </row>
-    <row r="220" spans="1:14">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
@@ -7806,7 +7326,7 @@
       <c r="M220" s="4"/>
       <c r="N220" s="4"/>
     </row>
-    <row r="221" spans="1:14">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
       <c r="C221" s="4"/>
@@ -7822,7 +7342,7 @@
       <c r="M221" s="4"/>
       <c r="N221" s="4"/>
     </row>
-    <row r="222" spans="1:14">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
@@ -7838,7 +7358,7 @@
       <c r="M222" s="4"/>
       <c r="N222" s="4"/>
     </row>
-    <row r="223" spans="1:14">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
@@ -7854,7 +7374,7 @@
       <c r="M223" s="4"/>
       <c r="N223" s="4"/>
     </row>
-    <row r="224" spans="1:14">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
       <c r="C224" s="4"/>
@@ -7870,7 +7390,7 @@
       <c r="M224" s="4"/>
       <c r="N224" s="4"/>
     </row>
-    <row r="225" spans="1:14">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
@@ -7886,7 +7406,7 @@
       <c r="M225" s="4"/>
       <c r="N225" s="4"/>
     </row>
-    <row r="226" spans="1:14">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
@@ -7902,7 +7422,7 @@
       <c r="M226" s="4"/>
       <c r="N226" s="4"/>
     </row>
-    <row r="227" spans="1:14">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
@@ -7918,7 +7438,7 @@
       <c r="M227" s="4"/>
       <c r="N227" s="4"/>
     </row>
-    <row r="228" spans="1:14">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A228" s="4"/>
       <c r="B228" s="4"/>
       <c r="C228" s="4"/>
@@ -7934,7 +7454,7 @@
       <c r="M228" s="4"/>
       <c r="N228" s="4"/>
     </row>
-    <row r="229" spans="1:14">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
       <c r="C229" s="4"/>
@@ -7950,7 +7470,7 @@
       <c r="M229" s="4"/>
       <c r="N229" s="4"/>
     </row>
-    <row r="230" spans="1:14">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
@@ -7966,7 +7486,7 @@
       <c r="M230" s="4"/>
       <c r="N230" s="4"/>
     </row>
-    <row r="231" spans="1:14">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
@@ -7982,7 +7502,7 @@
       <c r="M231" s="4"/>
       <c r="N231" s="4"/>
     </row>
-    <row r="232" spans="1:14">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
       <c r="C232" s="4"/>
@@ -7998,7 +7518,7 @@
       <c r="M232" s="4"/>
       <c r="N232" s="4"/>
     </row>
-    <row r="233" spans="1:14">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A233" s="4"/>
       <c r="B233" s="4"/>
       <c r="C233" s="4"/>
@@ -8014,7 +7534,7 @@
       <c r="M233" s="4"/>
       <c r="N233" s="4"/>
     </row>
-    <row r="234" spans="1:14">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A234" s="4"/>
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
@@ -8030,7 +7550,7 @@
       <c r="M234" s="4"/>
       <c r="N234" s="4"/>
     </row>
-    <row r="235" spans="1:14">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
@@ -8046,7 +7566,7 @@
       <c r="M235" s="4"/>
       <c r="N235" s="4"/>
     </row>
-    <row r="236" spans="1:14">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
       <c r="C236" s="4"/>
@@ -8062,7 +7582,7 @@
       <c r="M236" s="4"/>
       <c r="N236" s="4"/>
     </row>
-    <row r="237" spans="1:14">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
@@ -8078,7 +7598,7 @@
       <c r="M237" s="4"/>
       <c r="N237" s="4"/>
     </row>
-    <row r="238" spans="1:14">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
       <c r="C238" s="4"/>
@@ -8094,7 +7614,7 @@
       <c r="M238" s="4"/>
       <c r="N238" s="4"/>
     </row>
-    <row r="239" spans="1:14">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
@@ -8110,7 +7630,7 @@
       <c r="M239" s="4"/>
       <c r="N239" s="4"/>
     </row>
-    <row r="240" spans="1:14">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
       <c r="C240" s="4"/>
@@ -8126,7 +7646,7 @@
       <c r="M240" s="4"/>
       <c r="N240" s="4"/>
     </row>
-    <row r="241" spans="1:14">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A241" s="4"/>
       <c r="B241" s="4"/>
       <c r="C241" s="4"/>
@@ -8142,7 +7662,7 @@
       <c r="M241" s="4"/>
       <c r="N241" s="4"/>
     </row>
-    <row r="242" spans="1:14">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A242" s="4"/>
       <c r="B242" s="4"/>
       <c r="C242" s="4"/>
@@ -8158,7 +7678,7 @@
       <c r="M242" s="4"/>
       <c r="N242" s="4"/>
     </row>
-    <row r="243" spans="1:14">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
@@ -8174,7 +7694,7 @@
       <c r="M243" s="4"/>
       <c r="N243" s="4"/>
     </row>
-    <row r="244" spans="1:14">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A244" s="4"/>
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
@@ -8190,7 +7710,7 @@
       <c r="M244" s="4"/>
       <c r="N244" s="4"/>
     </row>
-    <row r="245" spans="1:14">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
@@ -8206,7 +7726,7 @@
       <c r="M245" s="4"/>
       <c r="N245" s="4"/>
     </row>
-    <row r="246" spans="1:14">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A246" s="4"/>
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
@@ -8222,7 +7742,7 @@
       <c r="M246" s="4"/>
       <c r="N246" s="4"/>
     </row>
-    <row r="247" spans="1:14">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
@@ -8238,7 +7758,7 @@
       <c r="M247" s="4"/>
       <c r="N247" s="4"/>
     </row>
-    <row r="248" spans="1:14">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A248" s="4"/>
       <c r="B248" s="4"/>
       <c r="C248" s="4"/>
@@ -8254,7 +7774,7 @@
       <c r="M248" s="4"/>
       <c r="N248" s="4"/>
     </row>
-    <row r="249" spans="1:14">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
@@ -8270,7 +7790,7 @@
       <c r="M249" s="4"/>
       <c r="N249" s="4"/>
     </row>
-    <row r="250" spans="1:14">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
@@ -8286,7 +7806,7 @@
       <c r="M250" s="4"/>
       <c r="N250" s="4"/>
     </row>
-    <row r="251" spans="1:14">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
       <c r="C251" s="4"/>
@@ -8302,7 +7822,7 @@
       <c r="M251" s="4"/>
       <c r="N251" s="4"/>
     </row>
-    <row r="252" spans="1:14">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
@@ -8318,7 +7838,7 @@
       <c r="M252" s="4"/>
       <c r="N252" s="4"/>
     </row>
-    <row r="253" spans="1:14">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
@@ -8334,7 +7854,7 @@
       <c r="M253" s="4"/>
       <c r="N253" s="4"/>
     </row>
-    <row r="254" spans="1:14">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A254" s="4"/>
       <c r="B254" s="4"/>
       <c r="C254" s="4"/>
@@ -8350,7 +7870,7 @@
       <c r="M254" s="4"/>
       <c r="N254" s="4"/>
     </row>
-    <row r="255" spans="1:14">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
       <c r="C255" s="4"/>
@@ -8366,7 +7886,7 @@
       <c r="M255" s="4"/>
       <c r="N255" s="4"/>
     </row>
-    <row r="256" spans="1:14">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A256" s="4"/>
       <c r="B256" s="4"/>
       <c r="C256" s="4"/>
@@ -8382,7 +7902,7 @@
       <c r="M256" s="4"/>
       <c r="N256" s="4"/>
     </row>
-    <row r="257" spans="1:14">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
       <c r="C257" s="4"/>
@@ -8398,7 +7918,7 @@
       <c r="M257" s="4"/>
       <c r="N257" s="4"/>
     </row>
-    <row r="258" spans="1:14">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
       <c r="C258" s="4"/>
@@ -8414,7 +7934,7 @@
       <c r="M258" s="4"/>
       <c r="N258" s="4"/>
     </row>
-    <row r="259" spans="1:14">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
@@ -8430,7 +7950,7 @@
       <c r="M259" s="4"/>
       <c r="N259" s="4"/>
     </row>
-    <row r="260" spans="1:14">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A260" s="4"/>
       <c r="B260" s="4"/>
       <c r="C260" s="4"/>
@@ -8446,7 +7966,7 @@
       <c r="M260" s="4"/>
       <c r="N260" s="4"/>
     </row>
-    <row r="261" spans="1:14">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
@@ -8462,7 +7982,7 @@
       <c r="M261" s="4"/>
       <c r="N261" s="4"/>
     </row>
-    <row r="262" spans="1:14">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
       <c r="C262" s="4"/>
@@ -8478,7 +7998,7 @@
       <c r="M262" s="4"/>
       <c r="N262" s="4"/>
     </row>
-    <row r="263" spans="1:14">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A263" s="4"/>
       <c r="B263" s="4"/>
       <c r="C263" s="4"/>
@@ -8494,7 +8014,7 @@
       <c r="M263" s="4"/>
       <c r="N263" s="4"/>
     </row>
-    <row r="264" spans="1:14">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A264" s="4"/>
       <c r="B264" s="4"/>
       <c r="C264" s="4"/>
@@ -8510,7 +8030,7 @@
       <c r="M264" s="4"/>
       <c r="N264" s="4"/>
     </row>
-    <row r="265" spans="1:14">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A265" s="4"/>
       <c r="B265" s="4"/>
       <c r="C265" s="4"/>
@@ -8526,7 +8046,7 @@
       <c r="M265" s="4"/>
       <c r="N265" s="4"/>
     </row>
-    <row r="266" spans="1:14">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A266" s="4"/>
       <c r="B266" s="4"/>
       <c r="C266" s="4"/>
@@ -8542,7 +8062,7 @@
       <c r="M266" s="4"/>
       <c r="N266" s="4"/>
     </row>
-    <row r="267" spans="1:14">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A267" s="4"/>
       <c r="B267" s="4"/>
       <c r="C267" s="4"/>
@@ -8558,7 +8078,7 @@
       <c r="M267" s="4"/>
       <c r="N267" s="4"/>
     </row>
-    <row r="268" spans="1:14">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A268" s="4"/>
       <c r="B268" s="4"/>
       <c r="C268" s="4"/>
@@ -8574,7 +8094,7 @@
       <c r="M268" s="4"/>
       <c r="N268" s="4"/>
     </row>
-    <row r="269" spans="1:14">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A269" s="4"/>
       <c r="B269" s="4"/>
       <c r="C269" s="4"/>
@@ -8590,7 +8110,7 @@
       <c r="M269" s="4"/>
       <c r="N269" s="4"/>
     </row>
-    <row r="270" spans="1:14">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A270" s="4"/>
       <c r="B270" s="4"/>
       <c r="C270" s="4"/>
@@ -8606,7 +8126,7 @@
       <c r="M270" s="4"/>
       <c r="N270" s="4"/>
     </row>
-    <row r="271" spans="1:14">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A271" s="4"/>
       <c r="B271" s="4"/>
       <c r="C271" s="4"/>
@@ -8622,7 +8142,7 @@
       <c r="M271" s="4"/>
       <c r="N271" s="4"/>
     </row>
-    <row r="272" spans="1:14">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
       <c r="C272" s="4"/>
@@ -8638,7 +8158,7 @@
       <c r="M272" s="4"/>
       <c r="N272" s="4"/>
     </row>
-    <row r="273" spans="1:14">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A273" s="4"/>
       <c r="B273" s="4"/>
       <c r="C273" s="4"/>
@@ -8654,7 +8174,7 @@
       <c r="M273" s="4"/>
       <c r="N273" s="4"/>
     </row>
-    <row r="274" spans="1:14">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A274" s="4"/>
       <c r="B274" s="4"/>
       <c r="C274" s="4"/>
@@ -8670,7 +8190,7 @@
       <c r="M274" s="4"/>
       <c r="N274" s="4"/>
     </row>
-    <row r="275" spans="1:14">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A275" s="4"/>
       <c r="B275" s="4"/>
       <c r="C275" s="4"/>
@@ -8686,7 +8206,7 @@
       <c r="M275" s="4"/>
       <c r="N275" s="4"/>
     </row>
-    <row r="276" spans="1:14">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A276" s="4"/>
       <c r="B276" s="4"/>
       <c r="C276" s="4"/>
@@ -8702,7 +8222,7 @@
       <c r="M276" s="4"/>
       <c r="N276" s="4"/>
     </row>
-    <row r="277" spans="1:14">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A277" s="4"/>
       <c r="B277" s="4"/>
       <c r="C277" s="4"/>
@@ -8718,7 +8238,7 @@
       <c r="M277" s="4"/>
       <c r="N277" s="4"/>
     </row>
-    <row r="278" spans="1:14">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A278" s="4"/>
       <c r="B278" s="4"/>
       <c r="C278" s="4"/>
@@ -8734,7 +8254,7 @@
       <c r="M278" s="4"/>
       <c r="N278" s="4"/>
     </row>
-    <row r="279" spans="1:14">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A279" s="4"/>
       <c r="B279" s="4"/>
       <c r="C279" s="4"/>
@@ -8750,7 +8270,7 @@
       <c r="M279" s="4"/>
       <c r="N279" s="4"/>
     </row>
-    <row r="280" spans="1:14">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A280" s="4"/>
       <c r="B280" s="4"/>
       <c r="C280" s="4"/>
@@ -8766,7 +8286,7 @@
       <c r="M280" s="4"/>
       <c r="N280" s="4"/>
     </row>
-    <row r="281" spans="1:14">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A281" s="4"/>
       <c r="B281" s="4"/>
       <c r="C281" s="4"/>
@@ -8782,7 +8302,7 @@
       <c r="M281" s="4"/>
       <c r="N281" s="4"/>
     </row>
-    <row r="282" spans="1:14">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A282" s="4"/>
       <c r="B282" s="4"/>
       <c r="C282" s="4"/>
@@ -8798,7 +8318,7 @@
       <c r="M282" s="4"/>
       <c r="N282" s="4"/>
     </row>
-    <row r="283" spans="1:14">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A283" s="4"/>
       <c r="B283" s="4"/>
       <c r="C283" s="4"/>
@@ -8814,7 +8334,7 @@
       <c r="M283" s="4"/>
       <c r="N283" s="4"/>
     </row>
-    <row r="284" spans="1:14">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A284" s="4"/>
       <c r="B284" s="4"/>
       <c r="C284" s="4"/>
@@ -8830,7 +8350,7 @@
       <c r="M284" s="4"/>
       <c r="N284" s="4"/>
     </row>
-    <row r="285" spans="1:14">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A285" s="4"/>
       <c r="B285" s="4"/>
       <c r="C285" s="4"/>
@@ -8846,7 +8366,7 @@
       <c r="M285" s="4"/>
       <c r="N285" s="4"/>
     </row>
-    <row r="286" spans="1:14">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A286" s="4"/>
       <c r="B286" s="4"/>
       <c r="C286" s="4"/>
@@ -8862,7 +8382,7 @@
       <c r="M286" s="4"/>
       <c r="N286" s="4"/>
     </row>
-    <row r="287" spans="1:14">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A287" s="4"/>
       <c r="B287" s="4"/>
       <c r="C287" s="4"/>
@@ -8878,7 +8398,7 @@
       <c r="M287" s="4"/>
       <c r="N287" s="4"/>
     </row>
-    <row r="288" spans="1:14">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A288" s="4"/>
       <c r="B288" s="4"/>
       <c r="C288" s="4"/>
@@ -8894,7 +8414,7 @@
       <c r="M288" s="4"/>
       <c r="N288" s="4"/>
     </row>
-    <row r="289" spans="1:14">
+    <row r="289" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A289" s="4"/>
       <c r="B289" s="4"/>
       <c r="C289" s="4"/>
@@ -8910,7 +8430,7 @@
       <c r="M289" s="4"/>
       <c r="N289" s="4"/>
     </row>
-    <row r="290" spans="1:14">
+    <row r="290" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A290" s="4"/>
       <c r="B290" s="4"/>
       <c r="C290" s="4"/>
@@ -8926,7 +8446,7 @@
       <c r="M290" s="4"/>
       <c r="N290" s="4"/>
     </row>
-    <row r="291" spans="1:14">
+    <row r="291" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A291" s="4"/>
       <c r="B291" s="4"/>
       <c r="C291" s="4"/>
@@ -8942,7 +8462,7 @@
       <c r="M291" s="4"/>
       <c r="N291" s="4"/>
     </row>
-    <row r="292" spans="1:14">
+    <row r="292" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A292" s="4"/>
       <c r="B292" s="4"/>
       <c r="C292" s="4"/>
@@ -8958,7 +8478,7 @@
       <c r="M292" s="4"/>
       <c r="N292" s="4"/>
     </row>
-    <row r="293" spans="1:14">
+    <row r="293" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A293" s="4"/>
       <c r="B293" s="4"/>
       <c r="C293" s="4"/>
@@ -8974,7 +8494,7 @@
       <c r="M293" s="4"/>
       <c r="N293" s="4"/>
     </row>
-    <row r="294" spans="1:14">
+    <row r="294" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A294" s="4"/>
       <c r="B294" s="4"/>
       <c r="C294" s="4"/>
@@ -8990,7 +8510,7 @@
       <c r="M294" s="4"/>
       <c r="N294" s="4"/>
     </row>
-    <row r="295" spans="1:14">
+    <row r="295" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A295" s="4"/>
       <c r="B295" s="4"/>
       <c r="C295" s="4"/>
@@ -9006,7 +8526,7 @@
       <c r="M295" s="4"/>
       <c r="N295" s="4"/>
     </row>
-    <row r="296" spans="1:14">
+    <row r="296" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A296" s="4"/>
       <c r="B296" s="4"/>
       <c r="C296" s="4"/>
@@ -9022,7 +8542,7 @@
       <c r="M296" s="4"/>
       <c r="N296" s="4"/>
     </row>
-    <row r="297" spans="1:14">
+    <row r="297" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A297" s="4"/>
       <c r="B297" s="4"/>
       <c r="C297" s="4"/>
@@ -9038,7 +8558,7 @@
       <c r="M297" s="4"/>
       <c r="N297" s="4"/>
     </row>
-    <row r="298" spans="1:14">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A298" s="4"/>
       <c r="B298" s="4"/>
       <c r="C298" s="4"/>
@@ -9054,7 +8574,7 @@
       <c r="M298" s="4"/>
       <c r="N298" s="4"/>
     </row>
-    <row r="299" spans="1:14">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A299" s="4"/>
       <c r="B299" s="4"/>
       <c r="C299" s="4"/>
@@ -9070,7 +8590,7 @@
       <c r="M299" s="4"/>
       <c r="N299" s="4"/>
     </row>
-    <row r="300" spans="1:14">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A300" s="4"/>
       <c r="B300" s="4"/>
       <c r="C300" s="4"/>
@@ -9086,7 +8606,7 @@
       <c r="M300" s="4"/>
       <c r="N300" s="4"/>
     </row>
-    <row r="301" spans="1:14">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A301" s="4"/>
       <c r="B301" s="4"/>
       <c r="C301" s="4"/>
@@ -9102,7 +8622,7 @@
       <c r="M301" s="4"/>
       <c r="N301" s="4"/>
     </row>
-    <row r="302" spans="1:14">
+    <row r="302" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A302" s="4"/>
       <c r="B302" s="4"/>
       <c r="C302" s="4"/>
@@ -9118,7 +8638,7 @@
       <c r="M302" s="4"/>
       <c r="N302" s="4"/>
     </row>
-    <row r="303" spans="1:14">
+    <row r="303" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A303" s="4"/>
       <c r="B303" s="4"/>
       <c r="C303" s="4"/>
@@ -9134,7 +8654,7 @@
       <c r="M303" s="4"/>
       <c r="N303" s="4"/>
     </row>
-    <row r="304" spans="1:14">
+    <row r="304" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A304" s="4"/>
       <c r="B304" s="4"/>
       <c r="C304" s="4"/>
@@ -9150,7 +8670,7 @@
       <c r="M304" s="4"/>
       <c r="N304" s="4"/>
     </row>
-    <row r="305" spans="1:14">
+    <row r="305" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A305" s="4"/>
       <c r="B305" s="4"/>
       <c r="C305" s="4"/>
@@ -9166,7 +8686,7 @@
       <c r="M305" s="4"/>
       <c r="N305" s="4"/>
     </row>
-    <row r="306" spans="1:14">
+    <row r="306" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A306" s="4"/>
       <c r="B306" s="4"/>
       <c r="C306" s="4"/>
@@ -9182,7 +8702,7 @@
       <c r="M306" s="4"/>
       <c r="N306" s="4"/>
     </row>
-    <row r="307" spans="1:14">
+    <row r="307" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A307" s="4"/>
       <c r="B307" s="4"/>
       <c r="C307" s="4"/>
@@ -9198,7 +8718,7 @@
       <c r="M307" s="4"/>
       <c r="N307" s="4"/>
     </row>
-    <row r="308" spans="1:14">
+    <row r="308" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A308" s="4"/>
       <c r="B308" s="4"/>
       <c r="C308" s="4"/>
@@ -9214,7 +8734,7 @@
       <c r="M308" s="4"/>
       <c r="N308" s="4"/>
     </row>
-    <row r="309" spans="1:14">
+    <row r="309" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A309" s="4"/>
       <c r="B309" s="4"/>
       <c r="C309" s="4"/>
@@ -9230,7 +8750,7 @@
       <c r="M309" s="4"/>
       <c r="N309" s="4"/>
     </row>
-    <row r="310" spans="1:14">
+    <row r="310" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A310" s="4"/>
       <c r="B310" s="4"/>
       <c r="C310" s="4"/>
@@ -9246,7 +8766,7 @@
       <c r="M310" s="4"/>
       <c r="N310" s="4"/>
     </row>
-    <row r="311" spans="1:14">
+    <row r="311" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A311" s="4"/>
       <c r="B311" s="4"/>
       <c r="C311" s="4"/>
@@ -9262,7 +8782,7 @@
       <c r="M311" s="4"/>
       <c r="N311" s="4"/>
     </row>
-    <row r="312" spans="1:14">
+    <row r="312" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A312" s="4"/>
       <c r="B312" s="4"/>
       <c r="C312" s="4"/>
@@ -9278,7 +8798,7 @@
       <c r="M312" s="4"/>
       <c r="N312" s="4"/>
     </row>
-    <row r="313" spans="1:14">
+    <row r="313" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A313" s="4"/>
       <c r="B313" s="4"/>
       <c r="C313" s="4"/>
@@ -9294,7 +8814,7 @@
       <c r="M313" s="4"/>
       <c r="N313" s="4"/>
     </row>
-    <row r="314" spans="1:14">
+    <row r="314" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A314" s="4"/>
       <c r="B314" s="4"/>
       <c r="C314" s="4"/>
@@ -9310,7 +8830,7 @@
       <c r="M314" s="4"/>
       <c r="N314" s="4"/>
     </row>
-    <row r="315" spans="1:14">
+    <row r="315" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A315" s="4"/>
       <c r="B315" s="4"/>
       <c r="C315" s="4"/>
@@ -9326,7 +8846,7 @@
       <c r="M315" s="4"/>
       <c r="N315" s="4"/>
     </row>
-    <row r="316" spans="1:14">
+    <row r="316" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A316" s="4"/>
       <c r="B316" s="4"/>
       <c r="C316" s="4"/>
@@ -9342,7 +8862,7 @@
       <c r="M316" s="4"/>
       <c r="N316" s="4"/>
     </row>
-    <row r="317" spans="1:14">
+    <row r="317" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A317" s="4"/>
       <c r="B317" s="4"/>
       <c r="C317" s="4"/>
@@ -9358,7 +8878,7 @@
       <c r="M317" s="4"/>
       <c r="N317" s="4"/>
     </row>
-    <row r="318" spans="1:14">
+    <row r="318" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A318" s="4"/>
       <c r="B318" s="4"/>
       <c r="C318" s="4"/>
@@ -9374,7 +8894,7 @@
       <c r="M318" s="4"/>
       <c r="N318" s="4"/>
     </row>
-    <row r="319" spans="1:14">
+    <row r="319" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A319" s="4"/>
       <c r="B319" s="4"/>
       <c r="C319" s="4"/>
@@ -9390,7 +8910,7 @@
       <c r="M319" s="4"/>
       <c r="N319" s="4"/>
     </row>
-    <row r="320" spans="1:14">
+    <row r="320" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A320" s="4"/>
       <c r="B320" s="4"/>
       <c r="C320" s="4"/>
@@ -9406,7 +8926,7 @@
       <c r="M320" s="4"/>
       <c r="N320" s="4"/>
     </row>
-    <row r="321" spans="1:14">
+    <row r="321" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A321" s="4"/>
       <c r="B321" s="4"/>
       <c r="C321" s="4"/>
@@ -9422,7 +8942,7 @@
       <c r="M321" s="4"/>
       <c r="N321" s="4"/>
     </row>
-    <row r="322" spans="1:14">
+    <row r="322" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A322" s="4"/>
       <c r="B322" s="4"/>
       <c r="C322" s="4"/>
@@ -9438,7 +8958,7 @@
       <c r="M322" s="4"/>
       <c r="N322" s="4"/>
     </row>
-    <row r="323" spans="1:14">
+    <row r="323" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A323" s="4"/>
       <c r="B323" s="4"/>
       <c r="C323" s="4"/>
@@ -9454,7 +8974,7 @@
       <c r="M323" s="4"/>
       <c r="N323" s="4"/>
     </row>
-    <row r="324" spans="1:14">
+    <row r="324" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A324" s="4"/>
       <c r="B324" s="4"/>
       <c r="C324" s="4"/>
@@ -9470,7 +8990,7 @@
       <c r="M324" s="4"/>
       <c r="N324" s="4"/>
     </row>
-    <row r="325" spans="1:14">
+    <row r="325" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A325" s="4"/>
       <c r="B325" s="4"/>
       <c r="C325" s="4"/>
@@ -9486,7 +9006,7 @@
       <c r="M325" s="4"/>
       <c r="N325" s="4"/>
     </row>
-    <row r="326" spans="1:14">
+    <row r="326" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A326" s="4"/>
       <c r="B326" s="4"/>
       <c r="C326" s="4"/>
@@ -9502,7 +9022,7 @@
       <c r="M326" s="4"/>
       <c r="N326" s="4"/>
     </row>
-    <row r="327" spans="1:14">
+    <row r="327" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A327" s="4"/>
       <c r="B327" s="4"/>
       <c r="C327" s="4"/>
@@ -9518,7 +9038,7 @@
       <c r="M327" s="4"/>
       <c r="N327" s="4"/>
     </row>
-    <row r="328" spans="1:14">
+    <row r="328" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A328" s="4"/>
       <c r="B328" s="4"/>
       <c r="C328" s="4"/>
@@ -9534,7 +9054,7 @@
       <c r="M328" s="4"/>
       <c r="N328" s="4"/>
     </row>
-    <row r="329" spans="1:14">
+    <row r="329" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A329" s="4"/>
       <c r="B329" s="4"/>
       <c r="C329" s="4"/>
@@ -9550,7 +9070,7 @@
       <c r="M329" s="4"/>
       <c r="N329" s="4"/>
     </row>
-    <row r="330" spans="1:14">
+    <row r="330" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A330" s="4"/>
       <c r="B330" s="4"/>
       <c r="C330" s="4"/>
@@ -9566,7 +9086,7 @@
       <c r="M330" s="4"/>
       <c r="N330" s="4"/>
     </row>
-    <row r="331" spans="1:14">
+    <row r="331" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A331" s="4"/>
       <c r="B331" s="4"/>
       <c r="C331" s="4"/>
@@ -9582,7 +9102,7 @@
       <c r="M331" s="4"/>
       <c r="N331" s="4"/>
     </row>
-    <row r="332" spans="1:14">
+    <row r="332" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A332" s="4"/>
       <c r="B332" s="4"/>
       <c r="C332" s="4"/>
@@ -9598,7 +9118,7 @@
       <c r="M332" s="4"/>
       <c r="N332" s="4"/>
     </row>
-    <row r="333" spans="1:14">
+    <row r="333" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A333" s="4"/>
       <c r="B333" s="4"/>
       <c r="C333" s="4"/>
@@ -9614,7 +9134,7 @@
       <c r="M333" s="4"/>
       <c r="N333" s="4"/>
     </row>
-    <row r="334" spans="1:14">
+    <row r="334" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A334" s="4"/>
       <c r="B334" s="4"/>
       <c r="C334" s="4"/>
@@ -9630,7 +9150,7 @@
       <c r="M334" s="4"/>
       <c r="N334" s="4"/>
     </row>
-    <row r="335" spans="1:14">
+    <row r="335" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A335" s="4"/>
       <c r="B335" s="4"/>
       <c r="C335" s="4"/>
@@ -9646,7 +9166,7 @@
       <c r="M335" s="4"/>
       <c r="N335" s="4"/>
     </row>
-    <row r="336" spans="1:14">
+    <row r="336" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A336" s="4"/>
       <c r="B336" s="4"/>
       <c r="C336" s="4"/>
@@ -9662,7 +9182,7 @@
       <c r="M336" s="4"/>
       <c r="N336" s="4"/>
     </row>
-    <row r="337" spans="1:14">
+    <row r="337" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A337" s="4"/>
       <c r="B337" s="4"/>
       <c r="C337" s="4"/>
@@ -9678,7 +9198,7 @@
       <c r="M337" s="4"/>
       <c r="N337" s="4"/>
     </row>
-    <row r="338" spans="1:14">
+    <row r="338" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A338" s="4"/>
       <c r="B338" s="4"/>
       <c r="C338" s="4"/>
@@ -9694,7 +9214,7 @@
       <c r="M338" s="4"/>
       <c r="N338" s="4"/>
     </row>
-    <row r="339" spans="1:14">
+    <row r="339" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A339" s="4"/>
       <c r="B339" s="4"/>
       <c r="C339" s="4"/>
@@ -9710,7 +9230,7 @@
       <c r="M339" s="4"/>
       <c r="N339" s="4"/>
     </row>
-    <row r="340" spans="1:14">
+    <row r="340" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A340" s="4"/>
       <c r="B340" s="4"/>
       <c r="C340" s="4"/>
@@ -9726,7 +9246,7 @@
       <c r="M340" s="4"/>
       <c r="N340" s="4"/>
     </row>
-    <row r="341" spans="1:14">
+    <row r="341" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A341" s="4"/>
       <c r="B341" s="4"/>
       <c r="C341" s="4"/>
@@ -9742,7 +9262,7 @@
       <c r="M341" s="4"/>
       <c r="N341" s="4"/>
     </row>
-    <row r="342" spans="1:14">
+    <row r="342" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A342" s="4"/>
       <c r="B342" s="4"/>
       <c r="C342" s="4"/>
@@ -9758,7 +9278,7 @@
       <c r="M342" s="4"/>
       <c r="N342" s="4"/>
     </row>
-    <row r="343" spans="1:14">
+    <row r="343" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A343" s="4"/>
       <c r="B343" s="4"/>
       <c r="C343" s="4"/>
@@ -9774,7 +9294,7 @@
       <c r="M343" s="4"/>
       <c r="N343" s="4"/>
     </row>
-    <row r="344" spans="1:14">
+    <row r="344" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A344" s="4"/>
       <c r="B344" s="4"/>
       <c r="C344" s="4"/>
@@ -9790,7 +9310,7 @@
       <c r="M344" s="4"/>
       <c r="N344" s="4"/>
     </row>
-    <row r="345" spans="1:14">
+    <row r="345" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A345" s="4"/>
       <c r="B345" s="4"/>
       <c r="C345" s="4"/>
@@ -9806,7 +9326,7 @@
       <c r="M345" s="4"/>
       <c r="N345" s="4"/>
     </row>
-    <row r="346" spans="1:14">
+    <row r="346" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A346" s="4"/>
       <c r="B346" s="4"/>
       <c r="C346" s="4"/>
@@ -9822,7 +9342,7 @@
       <c r="M346" s="4"/>
       <c r="N346" s="4"/>
     </row>
-    <row r="347" spans="1:14">
+    <row r="347" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A347" s="4"/>
       <c r="B347" s="4"/>
       <c r="C347" s="4"/>
@@ -9838,7 +9358,7 @@
       <c r="M347" s="4"/>
       <c r="N347" s="4"/>
     </row>
-    <row r="348" spans="1:14">
+    <row r="348" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A348" s="4"/>
       <c r="B348" s="4"/>
       <c r="C348" s="4"/>
@@ -9854,7 +9374,7 @@
       <c r="M348" s="4"/>
       <c r="N348" s="4"/>
     </row>
-    <row r="349" spans="1:14">
+    <row r="349" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A349" s="4"/>
       <c r="B349" s="4"/>
       <c r="C349" s="4"/>
@@ -9870,7 +9390,7 @@
       <c r="M349" s="4"/>
       <c r="N349" s="4"/>
     </row>
-    <row r="350" spans="1:14">
+    <row r="350" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A350" s="4"/>
       <c r="B350" s="4"/>
       <c r="C350" s="4"/>
@@ -9886,7 +9406,7 @@
       <c r="M350" s="4"/>
       <c r="N350" s="4"/>
     </row>
-    <row r="351" spans="1:14">
+    <row r="351" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A351" s="4"/>
       <c r="B351" s="4"/>
       <c r="C351" s="4"/>
@@ -9902,7 +9422,7 @@
       <c r="M351" s="4"/>
       <c r="N351" s="4"/>
     </row>
-    <row r="352" spans="1:14">
+    <row r="352" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A352" s="4"/>
       <c r="B352" s="4"/>
       <c r="C352" s="4"/>
@@ -9918,7 +9438,7 @@
       <c r="M352" s="4"/>
       <c r="N352" s="4"/>
     </row>
-    <row r="353" spans="1:14">
+    <row r="353" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A353" s="4"/>
       <c r="B353" s="4"/>
       <c r="C353" s="4"/>
@@ -9934,7 +9454,7 @@
       <c r="M353" s="4"/>
       <c r="N353" s="4"/>
     </row>
-    <row r="354" spans="1:14">
+    <row r="354" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A354" s="4"/>
       <c r="B354" s="4"/>
       <c r="C354" s="4"/>
@@ -9950,7 +9470,7 @@
       <c r="M354" s="4"/>
       <c r="N354" s="4"/>
     </row>
-    <row r="355" spans="1:14">
+    <row r="355" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A355" s="4"/>
       <c r="B355" s="4"/>
       <c r="C355" s="4"/>
@@ -9966,7 +9486,7 @@
       <c r="M355" s="4"/>
       <c r="N355" s="4"/>
     </row>
-    <row r="356" spans="1:14">
+    <row r="356" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A356" s="4"/>
       <c r="B356" s="4"/>
       <c r="C356" s="4"/>
@@ -9982,7 +9502,7 @@
       <c r="M356" s="4"/>
       <c r="N356" s="4"/>
     </row>
-    <row r="357" spans="1:14">
+    <row r="357" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A357" s="4"/>
       <c r="B357" s="4"/>
       <c r="C357" s="4"/>
@@ -9998,7 +9518,7 @@
       <c r="M357" s="4"/>
       <c r="N357" s="4"/>
     </row>
-    <row r="358" spans="1:14">
+    <row r="358" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A358" s="4"/>
       <c r="B358" s="4"/>
       <c r="C358" s="4"/>
@@ -10014,7 +9534,7 @@
       <c r="M358" s="4"/>
       <c r="N358" s="4"/>
     </row>
-    <row r="359" spans="1:14">
+    <row r="359" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A359" s="4"/>
       <c r="B359" s="4"/>
       <c r="C359" s="4"/>
@@ -10030,7 +9550,7 @@
       <c r="M359" s="4"/>
       <c r="N359" s="4"/>
     </row>
-    <row r="360" spans="1:14">
+    <row r="360" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A360" s="4"/>
       <c r="B360" s="4"/>
       <c r="C360" s="4"/>
@@ -10046,7 +9566,7 @@
       <c r="M360" s="4"/>
       <c r="N360" s="4"/>
     </row>
-    <row r="361" spans="1:14">
+    <row r="361" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A361" s="4"/>
       <c r="B361" s="4"/>
       <c r="C361" s="4"/>
@@ -10062,7 +9582,7 @@
       <c r="M361" s="4"/>
       <c r="N361" s="4"/>
     </row>
-    <row r="362" spans="1:14">
+    <row r="362" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A362" s="4"/>
       <c r="B362" s="4"/>
       <c r="C362" s="4"/>
@@ -10078,7 +9598,7 @@
       <c r="M362" s="4"/>
       <c r="N362" s="4"/>
     </row>
-    <row r="363" spans="1:14">
+    <row r="363" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A363" s="4"/>
       <c r="B363" s="4"/>
       <c r="C363" s="4"/>
@@ -10094,7 +9614,7 @@
       <c r="M363" s="4"/>
       <c r="N363" s="4"/>
     </row>
-    <row r="364" spans="1:14">
+    <row r="364" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A364" s="4"/>
       <c r="B364" s="4"/>
       <c r="C364" s="4"/>
@@ -10110,7 +9630,7 @@
       <c r="M364" s="4"/>
       <c r="N364" s="4"/>
     </row>
-    <row r="365" spans="1:14">
+    <row r="365" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A365" s="4"/>
       <c r="B365" s="4"/>
       <c r="C365" s="4"/>
@@ -10126,7 +9646,7 @@
       <c r="M365" s="4"/>
       <c r="N365" s="4"/>
     </row>
-    <row r="366" spans="1:14">
+    <row r="366" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A366" s="4"/>
       <c r="B366" s="4"/>
       <c r="C366" s="4"/>
@@ -10142,7 +9662,7 @@
       <c r="M366" s="4"/>
       <c r="N366" s="4"/>
     </row>
-    <row r="367" spans="1:14">
+    <row r="367" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A367" s="4"/>
       <c r="B367" s="4"/>
       <c r="C367" s="4"/>
@@ -10158,7 +9678,7 @@
       <c r="M367" s="4"/>
       <c r="N367" s="4"/>
     </row>
-    <row r="368" spans="1:14">
+    <row r="368" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A368" s="4"/>
       <c r="B368" s="4"/>
       <c r="C368" s="4"/>
@@ -10174,7 +9694,7 @@
       <c r="M368" s="4"/>
       <c r="N368" s="4"/>
     </row>
-    <row r="369" spans="1:14">
+    <row r="369" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A369" s="4"/>
       <c r="B369" s="4"/>
       <c r="C369" s="4"/>
@@ -10190,7 +9710,7 @@
       <c r="M369" s="4"/>
       <c r="N369" s="4"/>
     </row>
-    <row r="370" spans="1:14">
+    <row r="370" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A370" s="4"/>
       <c r="B370" s="4"/>
       <c r="C370" s="4"/>
@@ -10206,7 +9726,7 @@
       <c r="M370" s="4"/>
       <c r="N370" s="4"/>
     </row>
-    <row r="371" spans="1:14">
+    <row r="371" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A371" s="4"/>
       <c r="B371" s="4"/>
       <c r="C371" s="4"/>
@@ -10222,7 +9742,7 @@
       <c r="M371" s="4"/>
       <c r="N371" s="4"/>
     </row>
-    <row r="372" spans="1:14">
+    <row r="372" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A372" s="4"/>
       <c r="B372" s="4"/>
       <c r="C372" s="4"/>
@@ -10238,7 +9758,7 @@
       <c r="M372" s="4"/>
       <c r="N372" s="4"/>
     </row>
-    <row r="373" spans="1:14">
+    <row r="373" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A373" s="4"/>
       <c r="B373" s="4"/>
       <c r="C373" s="4"/>
@@ -10254,7 +9774,7 @@
       <c r="M373" s="4"/>
       <c r="N373" s="4"/>
     </row>
-    <row r="374" spans="1:14">
+    <row r="374" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A374" s="4"/>
       <c r="B374" s="4"/>
       <c r="C374" s="4"/>
@@ -10270,7 +9790,7 @@
       <c r="M374" s="4"/>
       <c r="N374" s="4"/>
     </row>
-    <row r="375" spans="1:14">
+    <row r="375" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A375" s="4"/>
       <c r="B375" s="4"/>
       <c r="C375" s="4"/>
@@ -10286,7 +9806,7 @@
       <c r="M375" s="4"/>
       <c r="N375" s="4"/>
     </row>
-    <row r="376" spans="1:14">
+    <row r="376" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A376" s="4"/>
       <c r="B376" s="4"/>
       <c r="C376" s="4"/>
@@ -10302,7 +9822,7 @@
       <c r="M376" s="4"/>
       <c r="N376" s="4"/>
     </row>
-    <row r="377" spans="1:14">
+    <row r="377" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A377" s="4"/>
       <c r="B377" s="4"/>
       <c r="C377" s="4"/>
@@ -10318,7 +9838,7 @@
       <c r="M377" s="4"/>
       <c r="N377" s="4"/>
     </row>
-    <row r="378" spans="1:14">
+    <row r="378" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A378" s="4"/>
       <c r="B378" s="4"/>
       <c r="C378" s="4"/>
@@ -10334,7 +9854,7 @@
       <c r="M378" s="4"/>
       <c r="N378" s="4"/>
     </row>
-    <row r="379" spans="1:14">
+    <row r="379" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A379" s="4"/>
       <c r="B379" s="4"/>
       <c r="C379" s="4"/>
@@ -10350,7 +9870,7 @@
       <c r="M379" s="4"/>
       <c r="N379" s="4"/>
     </row>
-    <row r="380" spans="1:14">
+    <row r="380" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A380" s="4"/>
       <c r="B380" s="4"/>
       <c r="C380" s="4"/>
@@ -10366,7 +9886,7 @@
       <c r="M380" s="4"/>
       <c r="N380" s="4"/>
     </row>
-    <row r="381" spans="1:14">
+    <row r="381" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A381" s="4"/>
       <c r="B381" s="4"/>
       <c r="C381" s="4"/>
@@ -10382,7 +9902,7 @@
       <c r="M381" s="4"/>
       <c r="N381" s="4"/>
     </row>
-    <row r="382" spans="1:14">
+    <row r="382" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A382" s="4"/>
       <c r="B382" s="4"/>
       <c r="C382" s="4"/>
@@ -10398,7 +9918,7 @@
       <c r="M382" s="4"/>
       <c r="N382" s="4"/>
     </row>
-    <row r="383" spans="1:14">
+    <row r="383" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A383" s="4"/>
       <c r="B383" s="4"/>
       <c r="C383" s="4"/>
@@ -10414,7 +9934,7 @@
       <c r="M383" s="4"/>
       <c r="N383" s="4"/>
     </row>
-    <row r="384" spans="1:14">
+    <row r="384" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A384" s="4"/>
       <c r="B384" s="4"/>
       <c r="C384" s="4"/>
@@ -10430,7 +9950,7 @@
       <c r="M384" s="4"/>
       <c r="N384" s="4"/>
     </row>
-    <row r="385" spans="1:14">
+    <row r="385" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A385" s="4"/>
       <c r="B385" s="4"/>
       <c r="C385" s="4"/>
@@ -10446,7 +9966,7 @@
       <c r="M385" s="4"/>
       <c r="N385" s="4"/>
     </row>
-    <row r="386" spans="1:14">
+    <row r="386" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A386" s="4"/>
       <c r="B386" s="4"/>
       <c r="C386" s="4"/>
@@ -10462,7 +9982,7 @@
       <c r="M386" s="4"/>
       <c r="N386" s="4"/>
     </row>
-    <row r="387" spans="1:14">
+    <row r="387" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A387" s="4"/>
       <c r="B387" s="4"/>
       <c r="C387" s="4"/>
@@ -10479,8 +9999,8 @@
       <c r="N387" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/tests/data/input/一级测试用例-f003.xlsx
+++ b/tests/data/input/一级测试用例-f003.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Magfin\python\pipes\tests\data\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4C2D91-4157-42F0-8687-CCEEAD3CB00E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A373705A-5EA1-4CDD-BF15-57AA0B0A91C6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="300">
   <si>
     <t>用例编号</t>
   </si>
@@ -94,10 +94,6 @@
     <t>info_per_bus_basic.id</t>
   </si>
   <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司1001"</t>
-  </si>
-  <si>
     <t>info_com_bus_case.basic_id</t>
   </si>
   <si>
@@ -111,1674 +107,1354 @@
     <t>ent_name</t>
   </si>
   <si>
+    <t>per_com_case_info=0</t>
+  </si>
+  <si>
+    <t>per_com_shares_frost</t>
+  </si>
+  <si>
+    <t>per_com_shares_frost=1</t>
+  </si>
+  <si>
+    <t>per_com_shares_frost=0</t>
+  </si>
+  <si>
+    <t>per_com_shares_frost_his</t>
+  </si>
+  <si>
+    <t>per_com_shares_frost_his=0</t>
+  </si>
+  <si>
+    <t>per_com_shares_frost_his=1</t>
+  </si>
+  <si>
+    <t>per_com_shares_impawn</t>
+  </si>
+  <si>
+    <t>per_com_shares_impawn=1</t>
+  </si>
+  <si>
+    <t>per_com_shares_impawn=0</t>
+  </si>
+  <si>
+    <t>per_com_shares_impawn_his</t>
+  </si>
+  <si>
+    <t>per_com_shares_impawn_his=0</t>
+  </si>
+  <si>
+    <t>per_com_shares_impawn_his=1</t>
+  </si>
+  <si>
+    <t>per_com_mor_detail</t>
+  </si>
+  <si>
+    <t>per_com_mor_detail=1</t>
+  </si>
+  <si>
+    <t>per_com_mor_detail=0</t>
+  </si>
+  <si>
+    <t>per_com_mor_detail_his</t>
+  </si>
+  <si>
+    <t>per_com_mor_detail_his=0</t>
+  </si>
+  <si>
+    <t>per_com_mor_detail_his=1</t>
+  </si>
+  <si>
+    <t>per_com_liquidation</t>
+  </si>
+  <si>
+    <t>info_com_bus_liquidation.basic_id</t>
+  </si>
+  <si>
+    <t>per_com_liquidation=1</t>
+  </si>
+  <si>
+    <t>per_com_liquidation=0</t>
+  </si>
+  <si>
+    <t>per_com_exception</t>
+  </si>
+  <si>
+    <t>per_com_exception=0</t>
+  </si>
+  <si>
+    <t>info_com_bus_exception.basic_id</t>
+  </si>
+  <si>
+    <t>per_com_exception=1</t>
+  </si>
+  <si>
+    <t>per_com_exception_his</t>
+  </si>
+  <si>
+    <t>per_com_exception_his=1</t>
+  </si>
+  <si>
+    <t>per_com_exception_his=0</t>
+  </si>
+  <si>
+    <t>per_com_illegal_list</t>
+  </si>
+  <si>
+    <t>per_com_illegal_list=0</t>
+  </si>
+  <si>
+    <t>info_com_bus_illegal.basic_id</t>
+  </si>
+  <si>
+    <t>per_com_illegal_list=1</t>
+  </si>
+  <si>
+    <t>per_com_illegal_list_his</t>
+  </si>
+  <si>
+    <t>per_com_illegal_list_his=1</t>
+  </si>
+  <si>
+    <t>per_com_illegal_list_his=0</t>
+  </si>
+  <si>
+    <t>per_com_saicChanLegal</t>
+  </si>
+  <si>
+    <t>per_com_saicChanLegal=2</t>
+  </si>
+  <si>
+    <t>per_com_saicChanLegal=1</t>
+  </si>
+  <si>
+    <t>per_com_saicChanLegal=0</t>
+  </si>
+  <si>
+    <t>per_com_saicChanInvestor</t>
+  </si>
+  <si>
+    <t>per_com_saicChanInvestor=0</t>
+  </si>
+  <si>
+    <t>per_com_saicChanInvestor=1</t>
+  </si>
+  <si>
+    <t>per_com_saicChanInvestor=2</t>
+  </si>
+  <si>
+    <t>per_com_exception_result</t>
+  </si>
+  <si>
+    <t>per_com_exception_result=2</t>
+  </si>
+  <si>
+    <t>per_com_exception_result=0</t>
+  </si>
+  <si>
+    <t>per_com_exception_result=3</t>
+  </si>
+  <si>
+    <t>per_com_exception_result=1</t>
+  </si>
+  <si>
+    <t>per_com_saicChanRunscope</t>
+  </si>
+  <si>
+    <t>per_com_saicChanRunscope=1</t>
+  </si>
+  <si>
+    <t>per_com_saicChanRunscope=0</t>
+  </si>
+  <si>
+    <t>per_com_saicChanRunscope=2</t>
+  </si>
+  <si>
+    <t>f0003</t>
+  </si>
+  <si>
+    <t>per_com_legper_relent_revoke</t>
+  </si>
+  <si>
+    <t>per_com_legper_relent_revoke=1</t>
+  </si>
+  <si>
+    <t>per_com_legper_outwardCount1</t>
+  </si>
+  <si>
+    <t>per_com_legper_outwardCount1=1</t>
+  </si>
+  <si>
+    <t>per_com_legper_outwardCount1=2</t>
+  </si>
+  <si>
+    <t>per_com_industryphycode</t>
+  </si>
+  <si>
+    <t>per_com_industryphycode=F</t>
+  </si>
+  <si>
+    <t>per_com_industryphycode=A</t>
+  </si>
+  <si>
+    <t>per_com_endtime</t>
+  </si>
+  <si>
+    <t>per_com_endtime=2025-07-03</t>
+  </si>
+  <si>
+    <t>per_com_endtime=2020-07-03</t>
+  </si>
+  <si>
+    <t>per_com_openfrom</t>
+  </si>
+  <si>
+    <t>per_com_openfrom=2013-06-03</t>
+  </si>
+  <si>
+    <t>per_com_openfrom=2018-06-03</t>
+  </si>
+  <si>
+    <t>per_com_esdate</t>
+  </si>
+  <si>
+    <t>per_com_esdate=2013-06-03</t>
+  </si>
+  <si>
+    <t>per_com_esdate=2018-06-03</t>
+  </si>
+  <si>
+    <t>per_com_areacode</t>
+  </si>
+  <si>
+    <t>per_com_areacode=310118</t>
+  </si>
+  <si>
+    <t>per_com_areacode=340123</t>
+  </si>
+  <si>
+    <t>per_com_industrycode</t>
+  </si>
+  <si>
+    <t>per_com_industrycode=3312</t>
+  </si>
+  <si>
+    <t>per_com_industrycode=5165</t>
+  </si>
+  <si>
+    <t>per_com_saicChanRegister_5y</t>
+  </si>
+  <si>
+    <t>per_com_saicChanRegister_5y=1</t>
+  </si>
+  <si>
+    <t>per_com_saicChanRegister_5y=0</t>
+  </si>
+  <si>
+    <t>per_com_saicChanRegister_5y=2</t>
+  </si>
+  <si>
+    <t>per_com_province</t>
+  </si>
+  <si>
+    <t>per_com_province=上海</t>
+  </si>
+  <si>
+    <t>per_com_province=湖北</t>
+  </si>
+  <si>
+    <t>per_com_city</t>
+  </si>
+  <si>
+    <t>per_com_city=上海市</t>
+  </si>
+  <si>
+    <t>per_com_city=合肥市</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司1001';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';
+info_per_bus_shareholder.ent_name[1]='上海蓝胖子有限公司江苏分公司';
+info_per_bus_shareholder.funded_ratio[1]='0.7';
+info_per_bus_shareholder.reg_cap[1]='120';
+info_per_bus_shareholder.ent_status[1]='注销'</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司1001'</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司001';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='注销'</t>
+  </si>
+  <si>
+    <t>info_per_bus_legal.basic_id;
+info_per_bus_legal.reg_cap[0]='123'</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司001'</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';
+info_per_bus_shareholder.ent_name[1]='上海蓝胖子有限公司江苏分公司';
+info_per_bus_shareholder.funded_ratio[1]='0.7';
+info_per_bus_shareholder.reg_cap[1]='120';
+info_per_bus_shareholder.ent_status[1]='注销';
+info_per_bus_shareholder.ent_name[2]='上海蓝胖子有限公司湖北分公司';
+info_per_bus_shareholder.funded_ratio[2]='0.3';
+info_per_bus_shareholder.reg_cap[2]='130';
+info_per_bus_shareholder.ent_status[2]='在营（开业）'</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司湖北分公司'</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';
+info_per_bus_shareholder.jhi_date[0]='2018-07-05';
+info_per_bus_shareholder.ent_name[1]='上海蓝胖子有限公司江苏分公司';
+info_per_bus_shareholder.funded_ratio[1]='0.7';
+info_per_bus_shareholder.reg_cap[1]='120';
+info_per_bus_shareholder.ent_status[1]='注销';
+info_per_bus_shareholder.jhi_date[1]='2017-07-05';
+info_per_bus_shareholder.ent_name[2]='上海蓝胖子有限公司湖北分公司';
+info_per_bus_shareholder.funded_ratio[2]='0.3';
+info_per_bus_shareholder.reg_cap[2]='120';
+info_per_bus_shareholder.ent_status[2]='在营（开业）';
+info_per_bus_shareholder.jhi_date[2]='2017-07-05';
+info_per_bus_shareholder.ent_name[3]='上海蓝胖子有限公司湖北分公司';
+info_per_bus_shareholder.funded_ratio[3]='0.25';
+info_per_bus_shareholder.reg_cap[3]='120';
+info_per_bus_shareholder.ent_status[3]='在营（开业）';
+info_per_bus_shareholder.jhi_date[3]='2017-07-05';</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司002';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';
+info_per_bus_shareholder.ent_name[1]='上海蓝胖子有限公司江苏分公司';
+info_per_bus_shareholder.funded_ratio[1]='0.7';
+info_per_bus_shareholder.reg_cap[1]='120';
+info_per_bus_shareholder.ent_status[1]='注销'</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司002'</t>
+  </si>
+  <si>
+    <t>info_com_bus_shares_frost.basic_id;
+info_com_bus_shares_frost.judicial_froz_state[0]='冻结'</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='注销';
+info_per_bus_shareholder.ent_name[1]='上海蓝胖子有限公司江苏分公司';
+info_per_bus_shareholder.funded_ratio[1]='0.7';
+info_per_bus_shareholder.reg_cap[1]='120';
+info_per_bus_shareholder.ent_status[1]='注销'</t>
+  </si>
+  <si>
     <t xml:space="preserve">info_per_bus_legal.basic_id;
-info_per_bus_legal.reg_cap[0]="123"
+info_per_bus_legal.reg_cap[0]='123';
+info_per_bus_legal.ent_name[0]='上海蓝胖子有限公司湖北分公司003';
+info_per_bus_legal.ent_status[0]='在营（开业）'
 </t>
   </si>
   <si>
     <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司001"</t>
-  </si>
-  <si>
-    <t>per_com_case_info=0</t>
+info_com_bus_basic.ent_name='上海蓝胖子有限公司湖北分公司003'</t>
+  </si>
+  <si>
+    <t>info_com_bus_shares_frost.basic_id;
+info_com_bus_shares_frost.judicial_froz_state[0]='冻结';
+info_com_bus_shares_frost.judicial_froz_state[1]='已解冻'</t>
   </si>
   <si>
     <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";
-info_per_bus_shareholder.ent_name[1]="上海蓝胖子有限公司江苏分公司";
-info_per_bus_shareholder.funded_ratio[1]="0.7";
-info_per_bus_shareholder.reg_cap[1]="120";
-info_per_bus_shareholder.ent_status[1]="注销";
-info_per_bus_shareholder.ent_name[2]="上海蓝胖子有限公司湖北分公司";
-info_per_bus_shareholder.funded_ratio[2]="0.3";
-info_per_bus_shareholder.reg_cap[2]="130";
-info_per_bus_shareholder.ent_status[2]="在营（开业）"</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>上海蓝胖子有限公司湖北分公司</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";
-info_per_bus_shareholder.jhi_date[0]="2018-07-05";</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-info_per_bus_shareholder.ent_name[1]="上海蓝胖子有限公司江苏分公司";
-info_per_bus_shareholder.funded_ratio[1]="0.7";
-info_per_bus_shareholder.reg_cap[1]="120";
-info_per_bus_shareholder.ent_status[1]="注销";
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司004';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';
+info_per_bus_shareholder.ent_name[1]='上海蓝胖子有限公司江苏分公司';
+info_per_bus_shareholder.funded_ratio[1]='0.7';
+info_per_bus_shareholder.reg_cap[1]='120';
+info_per_bus_shareholder.ent_status[1]='注销'</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司004'</t>
+  </si>
+  <si>
+    <t>info_com_bus_shares_frost.basic_id;
+info_com_bus_shares_frost.judicial_froz_state[0]='冻结，已解冻'</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司005';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';
+info_per_bus_shareholder.ent_name[1]='上海蓝胖子有限公司江苏分公司';
+info_per_bus_shareholder.funded_ratio[1]='0.7';
+info_per_bus_shareholder.reg_cap[1]='120';
+info_per_bus_shareholder.ent_status[1]='注销'</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司005'</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='注销'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info_per_bus_legal.basic_id;
+info_per_bus_legal.reg_cap[0]='123';
+info_per_bus_legal.ent_name[0]='上海蓝胖子有限公司湖北分公司006';
+info_per_bus_legal.ent_status[0]='在营（开业）'
 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>info_per_bus_shareholder.jhi_date[1]="2017-07-05";</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-info_per_bus_shareholder.ent_name[2]="上海蓝胖子有限公司湖北分公司";
-info_per_bus_shareholder.funded_ratio[2]="0.3";
-info_per_bus_shareholder.reg_cap[2]="120";
-info_per_bus_shareholder.ent_status[2]="在营（开业）";
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司湖北分公司006'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info_per_bus_legal.basic_id;
+info_per_bus_legal.reg_cap[0]='123';
+info_per_bus_legal.ent_name[0]='上海蓝胖子有限公司湖北分公司007';
+info_per_bus_legal.ent_status[0]='在营（开业）'
 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>info_per_bus_shareholder.jhi_date[2]="2017-07-05";</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-info_per_bus_shareholder.ent_name[3]="上海蓝胖子有限公司湖北分公司";
-info_per_bus_shareholder.funded_ratio[3]="0.25";
-info_per_bus_shareholder.reg_cap[3]="120";
-info_per_bus_shareholder.ent_status[3]="在营（开业）";
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司湖北分公司007'</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司008';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司008'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info_com_bus_shares_impawn.basic_id;
+info_com_bus_shares_impawn.imp_exe_state[0]='有效'
 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>info_per_bus_shareholder.jhi_date[3]="2017-07-05";</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>info_com_bus_basic.id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;
-info_com_bus_basic.ent_name="</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>上海蓝胖子有限公司湖北分公司</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
-  </si>
-  <si>
-    <t>per_com_shares_frost</t>
   </si>
   <si>
     <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司002";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";
-info_per_bus_shareholder.ent_name[1]="上海蓝胖子有限公司江苏分公司";
-info_per_bus_shareholder.funded_ratio[1]="0.7";
-info_per_bus_shareholder.reg_cap[1]="120";
-info_per_bus_shareholder.ent_status[1]="注销"</t>
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司009';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
   </si>
   <si>
     <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司002"</t>
-  </si>
-  <si>
-    <t>info_com_bus_shares_frost.basic_id;
-info_com_bus_shares_frost.judicial_froz_state[0]="冻结"</t>
-  </si>
-  <si>
-    <t>per_com_shares_frost=1</t>
+info_com_bus_basic.ent_name='上海蓝胖子有限公司009'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info_com_bus_shares_impawn.basic_id;
+info_com_bus_shares_impawn.imp_exe_state[0]='有效';
+info_com_bus_shares_impawn.imp_exe_state[1]='失效'
+</t>
   </si>
   <si>
     <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="注销";
-info_per_bus_shareholder.ent_name[1]="上海蓝胖子有限公司江苏分公司";
-info_per_bus_shareholder.funded_ratio[1]="0.7";
-info_per_bus_shareholder.reg_cap[1]="120";
-info_per_bus_shareholder.ent_status[1]="注销"</t>
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司010';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info_per_bus_legal.basic_id;
+info_per_bus_legal.reg_cap[0]='123'
+</t>
   </si>
   <si>
     <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司湖北分公司003"</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>info_com_bus_shares_frost.basic_id;
-info_com_bus_shares_frost.judicial_froz_state[0]="冻结"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;
-info_com_bus_shares_frost.judicial_froz_state[1]="已解冻"</t>
-    </r>
+info_com_bus_basic.ent_name='上海蓝胖子有限公司010'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info_com_bus_shares_impawn.basic_id;
+info_com_bus_shares_impawn.imp_exe_state[0]='失效'
+</t>
   </si>
   <si>
     <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司004";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";
-info_per_bus_shareholder.ent_name[1]="上海蓝胖子有限公司江苏分公司";
-info_per_bus_shareholder.funded_ratio[1]="0.7";
-info_per_bus_shareholder.reg_cap[1]="120";
-info_per_bus_shareholder.ent_status[1]="注销"</t>
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司011';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
   </si>
   <si>
     <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司004"</t>
-  </si>
-  <si>
-    <t>info_com_bus_shares_frost.basic_id;
-info_com_bus_shares_frost.judicial_froz_state[0]="冻结，已解冻"</t>
-  </si>
-  <si>
-    <t>per_com_shares_frost=0</t>
-  </si>
-  <si>
-    <t>per_com_shares_frost_his</t>
+info_com_bus_basic.ent_name='上海蓝胖子有限公司011'</t>
   </si>
   <si>
     <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司005";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";
-info_per_bus_shareholder.ent_name[1]="上海蓝胖子有限公司江苏分公司";
-info_per_bus_shareholder.funded_ratio[1]="0.7";
-info_per_bus_shareholder.reg_cap[1]="120";
-info_per_bus_shareholder.ent_status[1]="注销"</t>
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司012';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
   </si>
   <si>
     <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司005"</t>
-  </si>
-  <si>
-    <t>per_com_shares_frost_his=0</t>
+info_com_bus_basic.ent_name='上海蓝胖子有限公司012'</t>
   </si>
   <si>
     <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="注销"</t>
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司013';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='存续（在营、开业、在册）'</t>
   </si>
   <si>
     <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司湖北分公司006"</t>
-  </si>
-  <si>
-    <t>per_com_shares_frost_his=1</t>
+info_com_bus_basic.ent_name='上海蓝胖子有限公司013'</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司014';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
   </si>
   <si>
     <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司湖北分公司007"</t>
-  </si>
-  <si>
-    <t>per_com_shares_impawn</t>
+info_com_bus_basic.ent_name='上海蓝胖子有限公司014'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info_com_bus_mort_basic.basic_id;
+info_com_bus_mort_basic.mort_status[0]='有效'
+</t>
   </si>
   <si>
     <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司008";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";</t>
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司015';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
   </si>
   <si>
     <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司008"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">info_com_bus_shares_impawn.basic_id;
-info_com_bus_shares_impawn.imp_exe_state[0]="有效"
-</t>
-  </si>
-  <si>
-    <t>per_com_shares_impawn=1</t>
+info_com_bus_basic.ent_name='上海蓝胖子有限公司015'</t>
+  </si>
+  <si>
+    <t>info_com_bus_mort_basic.basic_id;
+info_com_bus_mort_basic.mort_status[0]='有效';
+info_com_bus_mort_basic.mort_status[1]='失效'</t>
   </si>
   <si>
     <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司009";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";</t>
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司016';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='存续（在营、开业、在册）'</t>
   </si>
   <si>
     <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司009"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">info_com_bus_shares_impawn.basic_id;
-info_com_bus_shares_impawn.imp_exe_state[0]="有效";
-info_com_bus_shares_impawn.imp_exe_state[1]="失效"
-</t>
+info_com_bus_basic.ent_name='上海蓝胖子有限公司016'</t>
+  </si>
+  <si>
+    <t>info_com_bus_mort_basic.basic_id;
+info_com_bus_mort_basic.mort_status[0]='失效'</t>
   </si>
   <si>
     <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司010";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）"</t>
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司017';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
   </si>
   <si>
     <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司010"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">info_com_bus_shares_impawn.basic_id;
-info_com_bus_shares_impawn.imp_exe_state[0]="失效"
-</t>
-  </si>
-  <si>
-    <t>per_com_shares_impawn=0</t>
-  </si>
-  <si>
-    <t>per_com_shares_impawn_his</t>
+info_com_bus_basic.ent_name='上海蓝胖子有限公司017'</t>
   </si>
   <si>
     <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司011";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";</t>
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司018';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
   </si>
   <si>
     <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司011"</t>
-  </si>
-  <si>
-    <t>per_com_shares_impawn_his=0</t>
+info_com_bus_basic.ent_name='上海蓝胖子有限公司018'</t>
   </si>
   <si>
     <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司012";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";</t>
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司019';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='存续（在营、开业、在册）'</t>
   </si>
   <si>
     <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司012"</t>
-  </si>
-  <si>
-    <t>per_com_shares_impawn_his=1</t>
+info_com_bus_basic.ent_name='上海蓝胖子有限公司019'</t>
   </si>
   <si>
     <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司013";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="存续（在营、开业、在册）"</t>
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司020';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
   </si>
   <si>
     <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司013"</t>
-  </si>
-  <si>
-    <t>per_com_mor_detail</t>
+info_com_bus_basic.ent_name='上海蓝胖子有限公司020'</t>
   </si>
   <si>
     <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司014";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";</t>
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司021';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
   </si>
   <si>
     <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司014"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">info_com_bus_mort_basic.basic_id;
-info_com_bus_mort_basic.mort_status[0]="有效"
-</t>
-  </si>
-  <si>
-    <t>per_com_mor_detail=1</t>
+info_com_bus_basic.ent_name='上海蓝胖子有限公司021'</t>
+  </si>
+  <si>
+    <t>info_com_bus_exception.basic_id;
+info_com_bus_exception.result_out[0]='已移出'</t>
   </si>
   <si>
     <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司015";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";</t>
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司022';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
   </si>
   <si>
     <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司015"</t>
-  </si>
-  <si>
-    <t>info_com_bus_mort_basic.basic_id;
-info_com_bus_mort_basic.mort_status[0]="有效";
-info_com_bus_mort_basic.mort_status[1]="失效"</t>
+info_com_bus_basic.ent_name='上海蓝胖子有限公司022'</t>
   </si>
   <si>
     <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司016";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="存续（在营、开业、在册）"</t>
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司023';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
   </si>
   <si>
     <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司016"</t>
-  </si>
-  <si>
-    <t>info_com_bus_mort_basic.basic_id;
-info_com_bus_mort_basic.mort_status[0]="失效"</t>
-  </si>
-  <si>
-    <t>per_com_mor_detail=0</t>
-  </si>
-  <si>
-    <t>per_com_mor_detail_his</t>
+info_com_bus_basic.ent_name='上海蓝胖子有限公司023'</t>
   </si>
   <si>
     <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司017";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";</t>
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司024';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
   </si>
   <si>
     <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司017"</t>
-  </si>
-  <si>
-    <t>per_com_mor_detail_his=0</t>
+info_com_bus_basic.ent_name='上海蓝胖子有限公司024'</t>
   </si>
   <si>
     <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司018";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";</t>
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司025';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
   </si>
   <si>
     <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司018"</t>
-  </si>
-  <si>
-    <t>per_com_mor_detail_his=1</t>
+info_com_bus_basic.ent_name='上海蓝胖子有限公司025'</t>
+  </si>
+  <si>
+    <t>info_com_bus_illegal.basic_id;
+info_com_bus_illegal.illegal_rresult_out[0]='已移出'</t>
   </si>
   <si>
     <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司019";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="存续（在营、开业、在册）"</t>
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司026';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
   </si>
   <si>
     <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司019"</t>
-  </si>
-  <si>
-    <t>per_com_liquidation</t>
+info_com_bus_basic.ent_name='上海蓝胖子有限公司026'</t>
   </si>
   <si>
     <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司020";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";</t>
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司027';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
   </si>
   <si>
     <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司020"</t>
-  </si>
-  <si>
-    <t>info_com_bus_liquidation.basic_id</t>
-  </si>
-  <si>
-    <t>per_com_liquidation=1</t>
+info_com_bus_basic.ent_name='上海蓝胖子有限公司027'</t>
   </si>
   <si>
     <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司021";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";</t>
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司028';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
   </si>
   <si>
     <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司021"</t>
-  </si>
-  <si>
-    <t>per_com_liquidation=0</t>
-  </si>
-  <si>
-    <t>per_com_exception</t>
+info_com_bus_basic.ent_name='上海蓝胖子有限公司028'</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司029';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司029';
+info_com_bus_basic.create_time='2019-07-05'</t>
+  </si>
+  <si>
+    <t>info_com_bus_alter.basic_id;
+info_com_bus_alter.alt_date[0]='2018-09-01';
+info_com_bus_alter.alt_item[0]='法定代表人变更';
+info_com_bus_alter.alt_date[1]='2013-09-01';
+info_com_bus_alter.alt_item[1]='法定代表人变更';
+info_com_bus_alter.alt_date[2]='2017-09-01';
+info_com_bus_alter.alt_item[2]='法定代表人变更'</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司030';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司030';
+info_com_bus_basic.create_time='2019-07-05'</t>
+  </si>
+  <si>
+    <t>info_com_bus_alter.basic_id;
+info_com_bus_alter.alt_date[0]='2018-09-01';
+info_com_bus_alter.alt_item[0]='法定代表人变更';
+info_com_bus_alter.alt_date[1]='2017-09-01';
+info_com_bus_alter.alt_item[1]='投资人变更'</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司031';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）'</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司031';
+info_com_bus_basic.create_time='2019-07-05'</t>
+  </si>
+  <si>
+    <t>info_com_bus_alter.basic_id;
+info_com_bus_alter.alt_date[0]='2018-09-01';
+info_com_bus_alter.alt_item[0]='投资人变更'</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司032';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司032';
+info_com_bus_basic.create_time='2019-07-05'</t>
+  </si>
+  <si>
+    <t>info_com_bus_alter.basic_id;
+info_com_bus_alter.alt_date[0]='2018-09-01';
+info_com_bus_alter.alt_item[0]='法定代表人变更';
+info_com_bus_alter.alt_date[1]='2013-09-01';
+info_com_bus_alter.alt_item[1]='法定代表人变更'</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司033';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司033';
+info_com_bus_basic.create_time='2019-07-05'</t>
+  </si>
+  <si>
+    <t>info_com_bus_alter.basic_id;
+info_com_bus_alter.alt_date[0]='2018-09-01';
+info_com_bus_alter.alt_item[0]='法定代表人变更';
+info_com_bus_alter.alt_date[1]='2014-09-01';
+info_com_bus_alter.alt_item[1]='投资人变更'</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司034';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）'</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司034';
+info_com_bus_basic.create_time='2019-07-05'</t>
+  </si>
+  <si>
+    <t>info_com_bus_alter.basic_id;
+info_com_bus_alter.alt_date[0]='2018-09-01';
+info_com_bus_alter.alt_item[0]='投资人变更';
+info_com_bus_alter.alt_date[1]='2017-09-01';
+info_com_bus_alter.alt_item[1]='投资人变更'</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司035';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司035'</t>
   </si>
   <si>
     <t>info_com_bus_exception.basic_id;
-info_com_bus_exception.result_out[0]="已移出"</t>
-  </si>
-  <si>
-    <t>per_com_exception=0</t>
+info_com_bus_exception.date_out[0]='2018-07-03';
+info_com_bus_exception.result_in[0]='年度报告';
+info_com_bus_exception.date_out[1]='';
+info_com_bus_exception.result_in[1]='无法取得联系'</t>
   </si>
   <si>
     <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司022";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";</t>
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司036';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
   </si>
   <si>
     <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司022"</t>
-  </si>
-  <si>
-    <t>info_com_bus_exception.basic_id</t>
-  </si>
-  <si>
-    <t>per_com_exception=1</t>
-  </si>
-  <si>
-    <t>per_com_exception_his</t>
+info_com_bus_basic.ent_name='上海蓝胖子有限公司036'</t>
+  </si>
+  <si>
+    <t>info_com_bus_exception.basic_id;
+info_com_bus_exception.date_out[0]='2018-07-03';
+info_com_bus_exception.result_in[0]='年度报告'</t>
   </si>
   <si>
     <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司023";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";</t>
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司037';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）'</t>
   </si>
   <si>
     <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司023"</t>
-  </si>
-  <si>
-    <t>per_com_exception_his=1</t>
+info_com_bus_basic.ent_name='上海蓝胖子有限公司037'</t>
+  </si>
+  <si>
+    <t>info_com_bus_exception.basic_id;
+info_com_bus_exception.result_in[0]='弄虚作假';
+info_com_bus_exception.result_in[1]='无法取得联系'</t>
   </si>
   <si>
     <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司024";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";</t>
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司038';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
   </si>
   <si>
     <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司024"</t>
-  </si>
-  <si>
-    <t>per_com_exception_his=0</t>
-  </si>
-  <si>
-    <t>per_com_illegal_list</t>
+info_com_bus_basic.ent_name='上海蓝胖子有限公司038'</t>
+  </si>
+  <si>
+    <t>info_com_bus_exception.basic_id;
+info_com_bus_exception.result_in[0]='年度报告'</t>
   </si>
   <si>
     <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司025";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";</t>
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司039';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
   </si>
   <si>
     <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司025"</t>
-  </si>
-  <si>
-    <t>info_com_bus_illegal.basic_id;
-info_com_bus_illegal.illegal_rresult_out[0]="已移出"</t>
-  </si>
-  <si>
-    <t>per_com_illegal_list=0</t>
+info_com_bus_basic.ent_name='上海蓝胖子有限公司039'</t>
+  </si>
+  <si>
+    <t>info_com_bus_alter.basic_id;
+info_com_bus_alter.alt_item[0]='经营范围变更'</t>
   </si>
   <si>
     <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司026";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";</t>
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司040';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
   </si>
   <si>
     <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司026"</t>
-  </si>
-  <si>
-    <t>info_com_bus_illegal.basic_id</t>
-  </si>
-  <si>
-    <t>per_com_illegal_list=1</t>
-  </si>
-  <si>
-    <t>per_com_illegal_list_his</t>
+info_com_bus_basic.ent_name='上海蓝胖子有限公司040'</t>
+  </si>
+  <si>
+    <t>info_com_bus_alter.basic_id;
+info_com_bus_alter.alt_item[0]='投资人变更'</t>
   </si>
   <si>
     <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司027";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";</t>
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司041';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）'</t>
   </si>
   <si>
     <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司027"</t>
-  </si>
-  <si>
-    <t>per_com_illegal_list_his=1</t>
+info_com_bus_basic.ent_name='上海蓝胖子有限公司041'</t>
+  </si>
+  <si>
+    <t>info_com_bus_alter.basic_id;
+info_com_bus_alter.alt_item[0]='经营范围变更';
+info_com_bus_alter.alt_item[1]='法定代表人变更';
+info_com_bus_alter.alt_item[2]='经营范围变更'</t>
   </si>
   <si>
     <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司028";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";</t>
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司042';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
   </si>
   <si>
     <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司028"</t>
-  </si>
-  <si>
-    <t>per_com_illegal_list_his=0</t>
-  </si>
-  <si>
-    <t>per_com_saicChanLegal</t>
+info_com_bus_basic.ent_name='上海蓝胖子有限公司042'</t>
+  </si>
+  <si>
+    <t>info_com_bus_entinvitem.basic_id;
+info_com_bus_entinvitem.funded_ratio[0]='0.2';
+info_com_bus_entinvitem.ent_status[0]='吊销'</t>
   </si>
   <si>
     <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司029";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";</t>
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司043';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
   </si>
   <si>
     <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司029";
-info_com_bus_basic.create_time="2019-07-05"</t>
+info_com_bus_basic.ent_name='上海蓝胖子有限公司043'</t>
+  </si>
+  <si>
+    <t>info_com_bus_frinv.basic_id;
+info_com_bus_frinv.funded_ratio[0]='0.2';
+info_com_bus_frinv.ent_status[0]='吊销'</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司044';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）'</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司044'</t>
+  </si>
+  <si>
+    <t>info_com_bus_entinvitem.basic_id;
+info_com_bus_entinvitem.funded_ratio[0]='0.2';
+info_com_bus_entinvitem.ent_status[0]='在营（开业）';
+info_com_bus_entinvitem.funded_ratio[1]='0.1';
+info_com_bus_entinvitem.ent_status[1]='吊销';
+info_com_bus_entinvitem.funded_ratio[2]='0.3';
+info_com_bus_entinvitem.ent_status[2]='吊销'</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司045';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司045'</t>
+  </si>
+  <si>
+    <t>info_com_bus_entinvitem.basic_id;
+info_com_bus_entinvitem.ent_name[0]='上海蓝胖子有限公司江苏分公司';
+info_com_bus_entinvitem.funded_ratio[0]='0.3'</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司046';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司046'</t>
+  </si>
+  <si>
+    <t>info_com_bus_frinv.basic_id;
+info_com_bus_frinv.ent_name[0]='上海蓝胖子有限公司江苏分公司';
+info_com_bus_frinv.funded_ratio[0]='0.3'</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司047';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）'</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司047'</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司048';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司048'</t>
+  </si>
+  <si>
+    <t>info_com_bus_frinv.basic_id;
+info_com_bus_frinv.ent_name[0]='上海蓝胖子有限公司湖南分公司';
+info_com_bus_frinv.funded_ratio[0]='0.1';
+info_com_bus_frinv.ent_name[1]='上海蓝胖子有限公司湖北分公司';
+info_com_bus_frinv.funded_ratio[1]='0.3'</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司049';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司049'</t>
+  </si>
+  <si>
+    <t>info_com_bus_face.basic_id;
+info_com_bus_face.industry_phy_code[0]='F'</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司050';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）'</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司050'</t>
+  </si>
+  <si>
+    <t>info_com_bus_face.basic_id;
+info_com_bus_face.industry_phy_code[0]='A'</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司051';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司051'</t>
+  </si>
+  <si>
+    <t>info_com_bus_face.basic_id;
+info_com_bus_face.open_to[0]='2025-07-03'</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司052';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）'</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司052'</t>
+  </si>
+  <si>
+    <t>info_com_bus_face.basic_id;
+info_com_bus_face.open_to[0]='2020-07-03'</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司053';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司053'</t>
+  </si>
+  <si>
+    <t>info_com_bus_face.basic_id;
+info_com_bus_face.open_from[0]='2013-06-03'</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司054';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）'</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司054'</t>
+  </si>
+  <si>
+    <t>info_com_bus_face.basic_id;
+info_com_bus_face.open_from[0]='2018-06-03'</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司055';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司055'</t>
+  </si>
+  <si>
+    <t>info_com_bus_face.basic_id;
+info_com_bus_face.es_date[0]='2013-06-03'</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司056';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）'</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司056'</t>
+  </si>
+  <si>
+    <t>info_com_bus_face.basic_id;
+info_com_bus_face.es_date[0]='2018-06-03'</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司057';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司057'</t>
+  </si>
+  <si>
+    <t>info_com_bus_face.basic_id;
+info_com_bus_face.area_code[0]='310118'</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司058';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）'</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司058'</t>
+  </si>
+  <si>
+    <t>info_com_bus_face.basic_id;
+info_com_bus_face.area_code[0]='340123'</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司059';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司059'</t>
+  </si>
+  <si>
+    <t>info_com_bus_face.basic_id;
+info_com_bus_face.industry_code[0]='3312'</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司060';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）'</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司060'</t>
+  </si>
+  <si>
+    <t>info_com_bus_face.basic_id;
+info_com_bus_face.industry_code[0]='5165'</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司061';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司061';
+info_com_bus_basic.create_time='2019-07-05'</t>
   </si>
   <si>
     <t>info_com_bus_alter.basic_id;
-info_com_bus_alter.alt_date[0]="2018-09-01";
-info_com_bus_alter.alt_item[0]="法定代表人变更";
-info_com_bus_alter.alt_date[1]="2013-09-01";
-info_com_bus_alter.alt_item[1]="法定代表人变更";
-info_com_bus_alter.alt_date[2]="2017-09-01";
-info_com_bus_alter.alt_item[2]="法定代表人变更"</t>
-  </si>
-  <si>
-    <t>per_com_saicChanLegal=2</t>
+info_com_bus_alter.alt_date[0]='2018-03-05';
+info_com_bus_alter.alt_item[0]='注册资本变更';
+info_com_bus_alter.alt_date[1]='2013-03-05';
+info_com_bus_alter.alt_item[1]='注册资本变更'</t>
   </si>
   <si>
     <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司030";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";</t>
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司062';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）'</t>
   </si>
   <si>
     <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司030";
-info_com_bus_basic.create_time="2019-07-05"</t>
+info_com_bus_basic.ent_name='上海蓝胖子有限公司062';
+info_com_bus_basic.create_time='2019-07-05'</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司063';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司063';
+info_com_bus_basic.create_time='2019-07-05'</t>
   </si>
   <si>
     <t>info_com_bus_alter.basic_id;
-info_com_bus_alter.alt_date[0]="2018-09-01";
-info_com_bus_alter.alt_item[0]="法定代表人变更";
-info_com_bus_alter.alt_date[1]="2017-09-01";
-info_com_bus_alter.alt_item[1]="投资人变更"</t>
-  </si>
-  <si>
-    <t>per_com_saicChanLegal=1</t>
+info_com_bus_alter.alt_date[0]='2018-03-05';
+info_com_bus_alter.alt_item[0]='法定代表人变更';
+info_com_bus_alter.alt_date[1]='2017-03-05';
+info_com_bus_alter.alt_item[1]='注册资本变更';
+info_com_bus_alter.alt_date[2]='2016-03-05';
+info_com_bus_alter.alt_item[2]='注册资本变更'</t>
   </si>
   <si>
     <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司031";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）"</t>
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司064';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
   </si>
   <si>
     <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司031";
-info_com_bus_basic.create_time="2019-07-05"</t>
-  </si>
-  <si>
-    <t>info_com_bus_alter.basic_id;
-info_com_bus_alter.alt_date[0]="2018-09-01";
-info_com_bus_alter.alt_item[0]="投资人变更"</t>
-  </si>
-  <si>
-    <t>per_com_saicChanLegal=0</t>
-  </si>
-  <si>
-    <t>per_com_saicChanInvestor</t>
+info_com_bus_basic.ent_name='上海蓝胖子有限公司064'</t>
+  </si>
+  <si>
+    <t>info_com_bus_face.basic_id;
+info_com_bus_face.province[0]='上海'</t>
   </si>
   <si>
     <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司032";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";</t>
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司065';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）'</t>
   </si>
   <si>
     <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司032";
-info_com_bus_basic.create_time="2019-07-05"</t>
-  </si>
-  <si>
-    <t>info_com_bus_alter.basic_id;
-info_com_bus_alter.alt_date[0]="2018-09-01";
-info_com_bus_alter.alt_item[0]="法定代表人变更";
-info_com_bus_alter.alt_date[1]="2013-09-01";
-info_com_bus_alter.alt_item[1]="法定代表人变更"</t>
-  </si>
-  <si>
-    <t>per_com_saicChanInvestor=0</t>
+info_com_bus_basic.ent_name='上海蓝胖子有限公司065'</t>
+  </si>
+  <si>
+    <t>info_com_bus_face.basic_id;
+info_com_bus_face.province[0]='湖北'</t>
   </si>
   <si>
     <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司033";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";</t>
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司066';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
   </si>
   <si>
     <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司033";
-info_com_bus_basic.create_time="2019-07-05"</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>info_com_bus_alter.basic_id;
-info_com_bus_alter.alt_date[0]="2018-09-01";
-info_com_bus_alter.alt_item[0]="法定代表人变更";
-info_com_bus_alter.alt_date[1]="201</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-09-01";
-info_com_bus_alter.alt_item[1]="投资人变更"</t>
-    </r>
-  </si>
-  <si>
-    <t>per_com_saicChanInvestor=1</t>
+info_com_bus_basic.ent_name='上海蓝胖子有限公司066'</t>
+  </si>
+  <si>
+    <t>info_com_bus_face.basic_id;
+info_com_bus_face.city[0]='上海市'</t>
   </si>
   <si>
     <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司034";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）"</t>
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司067';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）'</t>
   </si>
   <si>
     <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司034";
-info_com_bus_basic.create_time="2019-07-05"</t>
-  </si>
-  <si>
-    <t>info_com_bus_alter.basic_id;
-info_com_bus_alter.alt_date[0]="2018-09-01";
-info_com_bus_alter.alt_item[0]="投资人变更";
-info_com_bus_alter.alt_date[1]="2017-09-01";
-info_com_bus_alter.alt_item[1]="投资人变更"</t>
-  </si>
-  <si>
-    <t>per_com_saicChanInvestor=2</t>
-  </si>
-  <si>
-    <t>per_com_exception_result</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司035";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司035"</t>
-  </si>
-  <si>
-    <t>info_com_bus_exception.basic_id;
-info_com_bus_exception.date_out[0]="2018-07-03";
-info_com_bus_exception.result_in[0]="年度报告";
-info_com_bus_exception.result_in[1]="无法取得联系"</t>
-  </si>
-  <si>
-    <t>per_com_exception_result=2</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司036";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司036"</t>
-  </si>
-  <si>
-    <t>info_com_bus_exception.basic_id;
-info_com_bus_exception.date_out[0]="2018-07-03";
-info_com_bus_exception.result_in[0]="年度报告"</t>
-  </si>
-  <si>
-    <t>per_com_exception_result=0</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司037";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）"</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司037"</t>
-  </si>
-  <si>
-    <t>info_com_bus_exception.basic_id;
-info_com_bus_exception.result_in[0]="弄虚作假";
-info_com_bus_exception.result_in[1]="无法取得联系"</t>
-  </si>
-  <si>
-    <t>per_com_exception_result=3</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司038";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司038"</t>
-  </si>
-  <si>
-    <t>info_com_bus_exception.basic_id;
-info_com_bus_exception.result_in[0]="年度报告"</t>
-  </si>
-  <si>
-    <t>per_com_exception_result=1</t>
-  </si>
-  <si>
-    <t>per_com_saicChanRunscope</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司039";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司039"</t>
-  </si>
-  <si>
-    <t>info_com_bus_alter.basic_id;
-info_com_bus_alter.alt_item[0]="经营范围变更"</t>
-  </si>
-  <si>
-    <t>per_com_saicChanRunscope=1</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司040";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司040"</t>
-  </si>
-  <si>
-    <t>info_com_bus_alter.basic_id;
-info_com_bus_alter.alt_item[0]="投资人变更"</t>
-  </si>
-  <si>
-    <t>per_com_saicChanRunscope=0</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司041";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）"</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司041"</t>
-  </si>
-  <si>
-    <t>info_com_bus_alter.basic_id;
-info_com_bus_alter.alt_item[0]="经营范围变更";
-info_com_bus_alter.alt_item[1]="法定代表人变更";
-info_com_bus_alter.alt_item[2]="经营范围变更"</t>
-  </si>
-  <si>
-    <t>per_com_saicChanRunscope=2</t>
-  </si>
-  <si>
-    <t>f0003</t>
-  </si>
-  <si>
-    <t>per_com_legper_relent_revoke</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司042";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司042"</t>
-  </si>
-  <si>
-    <t>info_com_bus_entinvitem.basic_id;
-info_com_bus_entinvitem.funded_ratio[0]="0.2";
-info_com_bus_entinvitem.ent_status[0]="吊销"</t>
-  </si>
-  <si>
-    <t>per_com_legper_relent_revoke=1</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司043";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司043"</t>
-  </si>
-  <si>
-    <t>info_com_bus_frinv.basic_id;
-info_com_bus_frinv.funded_ratio[0]="0.2";
-info_com_bus_frinv.ent_status[0]="吊销"</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司044";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）"</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司044"</t>
-  </si>
-  <si>
-    <t>info_com_bus_entinvitem.basic_id;
-info_com_bus_entinvitem.funded_ratio[0]="0.2";
-info_com_bus_entinvitem.ent_status[0]="在营（开业）";
-info_com_bus_entinvitem.funded_ratio[1]="0.1";
-info_com_bus_entinvitem.ent_status[1]="吊销";
-info_com_bus_entinvitem.funded_ratio[2]="0.3";
-info_com_bus_entinvitem.ent_status[2]="吊销"</t>
-  </si>
-  <si>
-    <t>per_com_legper_outwardCount1</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司045";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司045"</t>
-  </si>
-  <si>
-    <t>info_com_bus_entinvitem.basic_id;
-info_com_bus_entinvitem.ent_name[0]="上海蓝胖子有限公司江苏分公司";
-info_com_bus_entinvitem.funded_ratio[0]="0.3"</t>
-  </si>
-  <si>
-    <t>per_com_legper_outwardCount1=1</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司046";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司046"</t>
-  </si>
-  <si>
-    <t>info_com_bus_frinv.basic_id;
-info_com_bus_frinv.ent_name[0]="上海蓝胖子有限公司江苏分公司";
-info_com_bus_frinv.funded_ratio[0]="0.3"</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司047";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）"</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司047"</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司048";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司048"</t>
-  </si>
-  <si>
-    <t>info_com_bus_frinv.basic_id;
-info_com_bus_frinv.ent_name[0]="上海蓝胖子有限公司湖南分公司";
-info_com_bus_frinv.funded_ratio[0]="0.1";
-info_com_bus_frinv.ent_name[1]="上海蓝胖子有限公司湖北分公司";
-info_com_bus_frinv.funded_ratio[1]="0.3"</t>
-  </si>
-  <si>
-    <t>per_com_legper_outwardCount1=2</t>
-  </si>
-  <si>
-    <t>per_com_industryphycode</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司049";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司049"</t>
+info_com_bus_basic.ent_name='上海蓝胖子有限公司067'</t>
   </si>
   <si>
     <t>info_com_bus_face.basic_id;
-info_com_bus_face.industry_phy_code[0]="F"</t>
-  </si>
-  <si>
-    <t>per_com_industryphycode=F</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司050";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）"</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司050"</t>
-  </si>
-  <si>
-    <t>info_com_bus_face.basic_id;
-info_com_bus_face.industry_phy_code[0]="A"</t>
-  </si>
-  <si>
-    <t>per_com_industryphycode=A</t>
-  </si>
-  <si>
-    <t>per_com_endtime</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司051";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司051"</t>
-  </si>
-  <si>
-    <t>info_com_bus_face.basic_id;
-info_com_bus_face.open_to[0]="2025-07-03"</t>
-  </si>
-  <si>
-    <t>per_com_endtime=2025-07-03</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司052";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）"</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司052"</t>
-  </si>
-  <si>
-    <t>info_com_bus_face.basic_id;
-info_com_bus_face.open_to[0]="2020-07-03"</t>
-  </si>
-  <si>
-    <t>per_com_endtime=2020-07-03</t>
-  </si>
-  <si>
-    <t>per_com_openfrom</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司053";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司053"</t>
-  </si>
-  <si>
-    <t>info_com_bus_face.basic_id;
-info_com_bus_face.open_from[0]="2013-06-03"</t>
-  </si>
-  <si>
-    <t>per_com_openfrom=2013-06-03</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司054";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）"</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司054"</t>
-  </si>
-  <si>
-    <t>info_com_bus_face.basic_id;
-info_com_bus_face.open_from[0]="2018-06-03"</t>
-  </si>
-  <si>
-    <t>per_com_openfrom=2018-06-03</t>
-  </si>
-  <si>
-    <t>per_com_esdate</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司055";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司055"</t>
-  </si>
-  <si>
-    <t>info_com_bus_face.basic_id;
-info_com_bus_face.es_date[0]="2013-06-03"</t>
-  </si>
-  <si>
-    <t>per_com_esdate=2013-06-03</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司056";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）"</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司056"</t>
-  </si>
-  <si>
-    <t>info_com_bus_face.basic_id;
-info_com_bus_face.es_date[0]="2018-06-03"</t>
-  </si>
-  <si>
-    <t>per_com_esdate=2018-06-03</t>
-  </si>
-  <si>
-    <t>per_com_areacode</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司057";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司057"</t>
-  </si>
-  <si>
-    <t>info_com_bus_face.basic_id;
-info_com_bus_face.area_code[0]="310118"</t>
-  </si>
-  <si>
-    <t>per_com_areacode=310118</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司058";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）"</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司058"</t>
-  </si>
-  <si>
-    <t>info_com_bus_face.basic_id;
-info_com_bus_face.area_code[0]="340123"</t>
-  </si>
-  <si>
-    <t>per_com_areacode=340123</t>
-  </si>
-  <si>
-    <t>per_com_industrycode</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司059";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司059"</t>
-  </si>
-  <si>
-    <t>info_com_bus_face.basic_id;
-info_com_bus_face.industry_code[0]="3312"</t>
-  </si>
-  <si>
-    <t>per_com_industrycode=3312</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司060";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）"</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司060"</t>
-  </si>
-  <si>
-    <t>info_com_bus_face.basic_id;
-info_com_bus_face.industry_code[0]="5165"</t>
-  </si>
-  <si>
-    <t>per_com_industrycode=5165</t>
-  </si>
-  <si>
-    <t>per_com_saicChanRegister_5y</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司061";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司061";
-info_com_bus_basic.create_time="2019-07-05"</t>
-  </si>
-  <si>
-    <t>info_com_bus_alter.basic_id;
-info_com_bus_alter.alt_date[0]="2018-03-05";
-info_com_bus_alter.alt_item[0]="注册资本变更";
-info_com_bus_alter.alt_date[1]="2013-03-05";
-info_com_bus_alter.alt_item[1]="注册资本变更"</t>
-  </si>
-  <si>
-    <t>per_com_saicChanRegister_5y=1</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司062";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）"</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司062";
-info_com_bus_basic.create_time="2019-07-05"</t>
-  </si>
-  <si>
-    <t>per_com_saicChanRegister_5y=0</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司063";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司063";
-info_com_bus_basic.create_time="2019-07-05"</t>
-  </si>
-  <si>
-    <t>info_com_bus_alter.basic_id;
-info_com_bus_alter.alt_date[0]="2018-03-05";
-info_com_bus_alter.alt_item[0]="法定代表人变更";
-info_com_bus_alter.alt_date[1]="2017-03-05";
-info_com_bus_alter.alt_item[1]="注册资本变更";
-info_com_bus_alter.alt_date[2]="2016-03-05";
-info_com_bus_alter.alt_item[2]="注册资本变更"</t>
-  </si>
-  <si>
-    <t>per_com_saicChanRegister_5y=2</t>
-  </si>
-  <si>
-    <t>per_com_province</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司064";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司064"</t>
-  </si>
-  <si>
-    <t>info_com_bus_face.basic_id;
-info_com_bus_face.province[0]="上海"</t>
-  </si>
-  <si>
-    <t>per_com_province=上海</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司065";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）"</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司065"</t>
-  </si>
-  <si>
-    <t>info_com_bus_face.basic_id;
-info_com_bus_face.province[0]="湖北"</t>
-  </si>
-  <si>
-    <t>per_com_province=湖北</t>
-  </si>
-  <si>
-    <t>per_com_city</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司066";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司066"</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>info_com_bus_face.basic_id;
-info_com_bus_face.city</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[0]="上海市"</t>
-    </r>
-  </si>
-  <si>
-    <t>per_com_city=上海市</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司067";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）"</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司067"</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>info_com_bus_face.basic_id;
-info_com_bus_face.city</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[0]="合肥市"</t>
-    </r>
-  </si>
-  <si>
-    <t>per_com_city=合肥市</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司001";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="注销"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司1001";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";
-info_per_bus_shareholder.ent_name[1]="上海蓝胖子有限公司江苏分公司";
-info_per_bus_shareholder.funded_ratio[1]="0.7";
-info_per_bus_shareholder.reg_cap[1]="120";
-info_per_bus_shareholder.ent_status[1]="注销"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>info_per_bus_legal.basic_id;
-info_per_bus_legal.reg_cap[0]="123"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>info_per_bus_legal.basic_id;
-info_per_bus_legal.reg_cap[0]="123";
-info_per_bus_legal.ent_name[0]="上海蓝胖子有限公司湖北分公司003"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;
-info_per_bus_legal.ent_status[0]="在营（开业）"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>info_per_bus_legal.basic_id;
-info_per_bus_legal.reg_cap[0]="123";
-info_per_bus_legal.ent_name[0]="上海蓝胖子有限公司湖北分公司006"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;
-info_per_bus_legal.ent_status[0]="在营（开业）"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>info_per_bus_legal.basic_id;
-info_per_bus_legal.reg_cap[0]="123";
-info_per_bus_legal.ent_name[0]="上海蓝胖子有限公司湖北分公司007"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;
-info_per_bus_legal.ent_status[0]="在营（开业）"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+info_com_bus_face.city[0]='合肥市'</t>
   </si>
 </sst>
 </file>
@@ -1930,7 +1606,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2016,6 +1692,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2297,9 +1976,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N387"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F76" sqref="F76"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2376,24 +2055,24 @@
         <v>16</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>296</v>
+        <v>109</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="I2" s="17"/>
       <c r="J2" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="L2" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
@@ -2412,24 +2091,24 @@
         <v>16</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>295</v>
+        <v>111</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>297</v>
+        <v>112</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
       <c r="J3" s="15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
@@ -2448,22 +2127,22 @@
         <v>16</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>25</v>
+        <v>114</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7" t="s">
-        <v>26</v>
+        <v>115</v>
       </c>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
       <c r="J4" s="15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
@@ -2482,22 +2161,22 @@
         <v>16</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>27</v>
+        <v>116</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="7" t="s">
-        <v>28</v>
+        <v>115</v>
       </c>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
       <c r="J5" s="15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
@@ -2510,30 +2189,30 @@
         <v>14</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="7" t="s">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
       <c r="I6" s="15"/>
       <c r="J6" s="14" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
@@ -2546,32 +2225,32 @@
         <v>14</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>298</v>
+        <v>121</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="I7" s="15"/>
       <c r="J7" s="14" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
@@ -2584,30 +2263,30 @@
         <v>14</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>37</v>
+        <v>124</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="7" t="s">
-        <v>38</v>
+        <v>125</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>39</v>
+        <v>126</v>
       </c>
       <c r="I8" s="15"/>
       <c r="J8" s="14" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="K8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
@@ -2620,30 +2299,30 @@
         <v>14</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="7" t="s">
-        <v>43</v>
+        <v>128</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
       <c r="I9" s="15"/>
       <c r="J9" s="14" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="K9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
@@ -2656,32 +2335,32 @@
         <v>14</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>299</v>
+        <v>130</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>46</v>
+        <v>131</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="I10" s="15"/>
       <c r="J10" s="14" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="K10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
@@ -2694,32 +2373,32 @@
         <v>14</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>300</v>
+        <v>132</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>48</v>
+        <v>133</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>39</v>
+        <v>126</v>
       </c>
       <c r="I11" s="15"/>
       <c r="J11" s="14" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="K11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
@@ -2732,30 +2411,30 @@
         <v>14</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>50</v>
+        <v>134</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="7" t="s">
-        <v>51</v>
+        <v>135</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>52</v>
+        <v>136</v>
       </c>
       <c r="I12" s="15"/>
       <c r="J12" s="14" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="K12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
@@ -2768,30 +2447,30 @@
         <v>14</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="7" t="s">
-        <v>55</v>
+        <v>138</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>56</v>
+        <v>139</v>
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="14" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="K13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
@@ -2804,32 +2483,32 @@
         <v>14</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>57</v>
+        <v>140</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>58</v>
+        <v>142</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>59</v>
+        <v>143</v>
       </c>
       <c r="I14" s="15"/>
       <c r="J14" s="14" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K14" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
@@ -2842,30 +2521,30 @@
         <v>14</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>62</v>
+        <v>144</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="7" t="s">
-        <v>63</v>
+        <v>145</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>52</v>
+        <v>136</v>
       </c>
       <c r="I15" s="15"/>
       <c r="J15" s="14" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="K15" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
@@ -2878,30 +2557,30 @@
         <v>14</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="7" t="s">
-        <v>66</v>
+        <v>147</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>56</v>
+        <v>139</v>
       </c>
       <c r="I16" s="15"/>
       <c r="J16" s="14" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="K16" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
@@ -2914,32 +2593,32 @@
         <v>14</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>68</v>
+        <v>148</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>69</v>
+        <v>149</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>59</v>
+        <v>143</v>
       </c>
       <c r="I17" s="15"/>
       <c r="J17" s="14" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="K17" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
@@ -2952,30 +2631,30 @@
         <v>14</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>71</v>
+        <v>150</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="7" t="s">
-        <v>72</v>
+        <v>151</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>73</v>
+        <v>152</v>
       </c>
       <c r="I18" s="16"/>
       <c r="J18" s="14" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="K18" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
@@ -2988,30 +2667,30 @@
         <v>14</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="7" t="s">
-        <v>76</v>
+        <v>154</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>77</v>
+        <v>155</v>
       </c>
       <c r="I19" s="16"/>
       <c r="J19" s="14" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="K19" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
@@ -3024,32 +2703,32 @@
         <v>14</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>79</v>
+        <v>157</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>80</v>
+        <v>158</v>
       </c>
       <c r="I20" s="16"/>
       <c r="J20" s="14" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="K20" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L20" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
@@ -3062,30 +2741,30 @@
         <v>14</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>83</v>
+        <v>159</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="7" t="s">
-        <v>84</v>
+        <v>160</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>73</v>
+        <v>152</v>
       </c>
       <c r="I21" s="16"/>
       <c r="J21" s="14" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="K21" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L21" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="L21" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
@@ -3098,30 +2777,30 @@
         <v>14</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>86</v>
+        <v>161</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="7" t="s">
-        <v>87</v>
+        <v>162</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>77</v>
+        <v>155</v>
       </c>
       <c r="I22" s="16"/>
       <c r="J22" s="14" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="K22" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L22" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
@@ -3134,32 +2813,32 @@
         <v>14</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>90</v>
+        <v>164</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>80</v>
+        <v>158</v>
       </c>
       <c r="I23" s="16"/>
       <c r="J23" s="14" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="K23" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L23" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
@@ -3172,30 +2851,30 @@
         <v>14</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>92</v>
+        <v>165</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="7" t="s">
-        <v>93</v>
+        <v>166</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="I24" s="13"/>
       <c r="J24" s="14" t="s">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="K24" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="L24" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
@@ -3208,28 +2887,28 @@
         <v>14</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>96</v>
+        <v>167</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="7" t="s">
-        <v>97</v>
+        <v>168</v>
       </c>
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
       <c r="J25" s="14" t="s">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="K25" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L25" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
@@ -3242,30 +2921,30 @@
         <v>14</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>96</v>
+        <v>167</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="7" t="s">
-        <v>97</v>
+        <v>168</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="I26" s="16"/>
       <c r="J26" s="14" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="K26" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L26" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="L26" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
@@ -3278,30 +2957,30 @@
         <v>14</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>102</v>
+        <v>170</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="7" t="s">
-        <v>103</v>
+        <v>171</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>104</v>
+        <v>46</v>
       </c>
       <c r="I27" s="16"/>
       <c r="J27" s="14" t="s">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="K27" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="L27" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
@@ -3314,30 +2993,30 @@
         <v>14</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>106</v>
+        <v>48</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>107</v>
+        <v>172</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="7" t="s">
-        <v>108</v>
+        <v>173</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="I28" s="16"/>
       <c r="J28" s="14" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="K28" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L28" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="L28" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
@@ -3350,30 +3029,30 @@
         <v>14</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>106</v>
+        <v>48</v>
       </c>
       <c r="D29" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>110</v>
+        <v>174</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="7" t="s">
-        <v>111</v>
+        <v>175</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>104</v>
+        <v>46</v>
       </c>
       <c r="I29" s="16"/>
       <c r="J29" s="14" t="s">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="K29" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L29" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="L29" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
@@ -3386,30 +3065,30 @@
         <v>14</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>114</v>
+        <v>176</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="7" t="s">
-        <v>115</v>
+        <v>177</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>116</v>
+        <v>178</v>
       </c>
       <c r="I30" s="16"/>
       <c r="J30" s="14" t="s">
-        <v>117</v>
+        <v>52</v>
       </c>
       <c r="K30" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L30" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="L30" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
@@ -3422,30 +3101,30 @@
         <v>14</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="D31" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>118</v>
+        <v>179</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="7" t="s">
-        <v>119</v>
+        <v>180</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>120</v>
+        <v>53</v>
       </c>
       <c r="I31" s="13"/>
       <c r="J31" s="14" t="s">
-        <v>121</v>
+        <v>54</v>
       </c>
       <c r="K31" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L31" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="L31" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
@@ -3458,30 +3137,30 @@
         <v>14</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>122</v>
+        <v>55</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>123</v>
+        <v>181</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="7" t="s">
-        <v>124</v>
+        <v>182</v>
       </c>
       <c r="H32" s="16" t="s">
-        <v>116</v>
+        <v>178</v>
       </c>
       <c r="I32" s="16"/>
       <c r="J32" s="14" t="s">
-        <v>125</v>
+        <v>56</v>
       </c>
       <c r="K32" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L32" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="L32" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
@@ -3494,30 +3173,30 @@
         <v>14</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>122</v>
+        <v>55</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>126</v>
+        <v>183</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="7" t="s">
-        <v>127</v>
+        <v>184</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>120</v>
+        <v>53</v>
       </c>
       <c r="I33" s="13"/>
       <c r="J33" s="14" t="s">
-        <v>128</v>
+        <v>57</v>
       </c>
       <c r="K33" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L33" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="L33" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
@@ -3530,30 +3209,30 @@
         <v>14</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>129</v>
+        <v>58</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>130</v>
+        <v>185</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="15" t="s">
-        <v>131</v>
+        <v>186</v>
       </c>
       <c r="H34" s="16" t="s">
-        <v>132</v>
+        <v>187</v>
       </c>
       <c r="I34" s="16"/>
       <c r="J34" s="14" t="s">
-        <v>133</v>
+        <v>59</v>
       </c>
       <c r="K34" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L34" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="L34" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
@@ -3566,30 +3245,30 @@
         <v>14</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>129</v>
+        <v>58</v>
       </c>
       <c r="D35" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>134</v>
+        <v>188</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="15" t="s">
-        <v>135</v>
+        <v>189</v>
       </c>
       <c r="H35" s="16" t="s">
-        <v>136</v>
+        <v>190</v>
       </c>
       <c r="I35" s="16"/>
       <c r="J35" s="14" t="s">
-        <v>137</v>
+        <v>60</v>
       </c>
       <c r="K35" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L35" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="L35" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
@@ -3602,32 +3281,32 @@
         <v>14</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>129</v>
+        <v>58</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>138</v>
+        <v>191</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>139</v>
+        <v>192</v>
       </c>
       <c r="H36" s="16" t="s">
-        <v>140</v>
+        <v>193</v>
       </c>
       <c r="I36" s="16"/>
       <c r="J36" s="14" t="s">
-        <v>141</v>
+        <v>61</v>
       </c>
       <c r="K36" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L36" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="L36" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
@@ -3640,30 +3319,30 @@
         <v>14</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>142</v>
+        <v>62</v>
       </c>
       <c r="D37" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>143</v>
+        <v>194</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="15" t="s">
-        <v>144</v>
+        <v>195</v>
       </c>
       <c r="H37" s="16" t="s">
-        <v>145</v>
+        <v>196</v>
       </c>
       <c r="I37" s="16"/>
       <c r="J37" s="14" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="K37" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L37" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="L37" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
@@ -3676,30 +3355,30 @@
         <v>14</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>142</v>
+        <v>62</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>147</v>
+        <v>197</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="15" t="s">
-        <v>148</v>
+        <v>198</v>
       </c>
       <c r="H38" s="15" t="s">
-        <v>149</v>
+        <v>199</v>
       </c>
       <c r="I38" s="15"/>
       <c r="J38" s="14" t="s">
-        <v>150</v>
+        <v>64</v>
       </c>
       <c r="K38" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L38" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="L38" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
@@ -3712,32 +3391,32 @@
         <v>14</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>142</v>
+        <v>62</v>
       </c>
       <c r="D39" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>151</v>
+        <v>200</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="H39" s="16" t="s">
-        <v>153</v>
+        <v>201</v>
+      </c>
+      <c r="H39" s="29" t="s">
+        <v>202</v>
       </c>
       <c r="I39" s="16"/>
       <c r="J39" s="14" t="s">
-        <v>154</v>
+        <v>65</v>
       </c>
       <c r="K39" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L39" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="L39" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
@@ -3750,30 +3429,30 @@
         <v>14</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>155</v>
+        <v>66</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>156</v>
+        <v>203</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="H40" s="15" t="s">
-        <v>158</v>
+        <v>204</v>
+      </c>
+      <c r="H40" s="29" t="s">
+        <v>205</v>
       </c>
       <c r="I40" s="15"/>
       <c r="J40" s="14" t="s">
-        <v>159</v>
+        <v>67</v>
       </c>
       <c r="K40" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L40" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="L40" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
@@ -3786,30 +3465,30 @@
         <v>14</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>155</v>
+        <v>66</v>
       </c>
       <c r="D41" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="7" t="s">
-        <v>161</v>
+        <v>207</v>
       </c>
       <c r="H41" s="15" t="s">
-        <v>162</v>
+        <v>208</v>
       </c>
       <c r="I41" s="15"/>
       <c r="J41" s="14" t="s">
-        <v>163</v>
+        <v>68</v>
       </c>
       <c r="K41" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L41" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="L41" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
@@ -3822,32 +3501,32 @@
         <v>14</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>155</v>
+        <v>66</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>164</v>
+        <v>209</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>165</v>
+        <v>210</v>
       </c>
       <c r="H42" s="15" t="s">
-        <v>166</v>
+        <v>211</v>
       </c>
       <c r="I42" s="15"/>
       <c r="J42" s="14" t="s">
-        <v>167</v>
+        <v>69</v>
       </c>
       <c r="K42" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L42" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="L42" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
@@ -3860,30 +3539,30 @@
         <v>14</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>155</v>
+        <v>66</v>
       </c>
       <c r="D43" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>168</v>
+        <v>212</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="7" t="s">
-        <v>169</v>
+        <v>213</v>
       </c>
       <c r="H43" s="15" t="s">
-        <v>170</v>
+        <v>214</v>
       </c>
       <c r="I43" s="15"/>
       <c r="J43" s="14" t="s">
-        <v>171</v>
+        <v>70</v>
       </c>
       <c r="K43" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L43" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="L43" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
@@ -3896,30 +3575,30 @@
         <v>14</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>172</v>
+        <v>71</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>173</v>
+        <v>215</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="7" t="s">
-        <v>174</v>
+        <v>216</v>
       </c>
       <c r="H44" s="15" t="s">
-        <v>175</v>
+        <v>217</v>
       </c>
       <c r="I44" s="15"/>
       <c r="J44" s="14" t="s">
-        <v>176</v>
+        <v>72</v>
       </c>
       <c r="K44" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L44" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="L44" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
@@ -3932,30 +3611,30 @@
         <v>14</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>172</v>
+        <v>71</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>177</v>
+        <v>218</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="7" t="s">
-        <v>178</v>
+        <v>219</v>
       </c>
       <c r="H45" s="15" t="s">
-        <v>179</v>
+        <v>220</v>
       </c>
       <c r="I45" s="15"/>
       <c r="J45" s="14" t="s">
-        <v>180</v>
+        <v>73</v>
       </c>
       <c r="K45" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L45" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="L45" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
@@ -3968,32 +3647,32 @@
         <v>14</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>172</v>
+        <v>71</v>
       </c>
       <c r="D46" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>181</v>
+        <v>221</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>182</v>
+        <v>222</v>
       </c>
       <c r="H46" s="15" t="s">
-        <v>183</v>
+        <v>223</v>
       </c>
       <c r="I46" s="15"/>
       <c r="J46" s="14" t="s">
-        <v>184</v>
+        <v>74</v>
       </c>
       <c r="K46" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L46" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="L46" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
@@ -4003,33 +3682,33 @@
         <v>46</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>185</v>
+        <v>75</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>186</v>
+        <v>76</v>
       </c>
       <c r="D47" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>187</v>
+        <v>224</v>
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="7" t="s">
-        <v>188</v>
+        <v>225</v>
       </c>
       <c r="H47" s="15" t="s">
-        <v>189</v>
+        <v>226</v>
       </c>
       <c r="I47" s="15"/>
       <c r="J47" s="14" t="s">
-        <v>190</v>
+        <v>77</v>
       </c>
       <c r="K47" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L47" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="L47" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
@@ -4039,33 +3718,33 @@
         <v>47</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>185</v>
+        <v>75</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>186</v>
+        <v>76</v>
       </c>
       <c r="D48" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>191</v>
+        <v>227</v>
       </c>
       <c r="F48" s="4"/>
       <c r="G48" s="7" t="s">
-        <v>192</v>
+        <v>228</v>
       </c>
       <c r="H48" s="15" t="s">
-        <v>193</v>
+        <v>229</v>
       </c>
       <c r="I48" s="15"/>
       <c r="J48" s="14" t="s">
-        <v>190</v>
+        <v>77</v>
       </c>
       <c r="K48" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L48" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="L48" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
@@ -4078,32 +3757,32 @@
         <v>14</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>186</v>
+        <v>76</v>
       </c>
       <c r="D49" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>194</v>
+        <v>230</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>195</v>
+        <v>231</v>
       </c>
       <c r="H49" s="15" t="s">
-        <v>196</v>
+        <v>232</v>
       </c>
       <c r="I49" s="15"/>
       <c r="J49" s="14" t="s">
-        <v>190</v>
+        <v>77</v>
       </c>
       <c r="K49" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L49" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="L49" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
@@ -4113,33 +3792,33 @@
         <v>49</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>185</v>
+        <v>75</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>197</v>
+        <v>78</v>
       </c>
       <c r="D50" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>198</v>
+        <v>233</v>
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="7" t="s">
-        <v>199</v>
+        <v>234</v>
       </c>
       <c r="H50" s="15" t="s">
-        <v>200</v>
+        <v>235</v>
       </c>
       <c r="I50" s="15"/>
       <c r="J50" s="14" t="s">
-        <v>201</v>
+        <v>79</v>
       </c>
       <c r="K50" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L50" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="L50" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
@@ -4149,35 +3828,35 @@
         <v>50</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>185</v>
+        <v>75</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>197</v>
+        <v>78</v>
       </c>
       <c r="D51" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>202</v>
+        <v>236</v>
       </c>
       <c r="F51" s="4"/>
       <c r="G51" s="7" t="s">
-        <v>203</v>
+        <v>237</v>
       </c>
       <c r="H51" s="15" t="s">
-        <v>200</v>
+        <v>235</v>
       </c>
       <c r="I51" s="15" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="J51" s="14" t="s">
-        <v>201</v>
+        <v>79</v>
       </c>
       <c r="K51" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L51" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="L51" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="M51" s="4"/>
       <c r="N51" s="4"/>
@@ -4187,35 +3866,35 @@
         <v>51</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>185</v>
+        <v>75</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>197</v>
+        <v>78</v>
       </c>
       <c r="D52" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>205</v>
+        <v>239</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>206</v>
+        <v>240</v>
       </c>
       <c r="H52" s="15" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="I52" s="13"/>
       <c r="J52" s="14" t="s">
-        <v>201</v>
+        <v>79</v>
       </c>
       <c r="K52" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L52" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="L52" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="M52" s="4"/>
       <c r="N52" s="4"/>
@@ -4225,35 +3904,35 @@
         <v>52</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>185</v>
+        <v>75</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>197</v>
+        <v>78</v>
       </c>
       <c r="D53" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>207</v>
+        <v>241</v>
       </c>
       <c r="F53" s="4"/>
       <c r="G53" s="7" t="s">
-        <v>208</v>
+        <v>242</v>
       </c>
       <c r="H53" s="15" t="s">
-        <v>200</v>
+        <v>235</v>
       </c>
       <c r="I53" s="15" t="s">
-        <v>209</v>
+        <v>243</v>
       </c>
       <c r="J53" s="14" t="s">
-        <v>210</v>
+        <v>80</v>
       </c>
       <c r="K53" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L53" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="L53" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="M53" s="4"/>
       <c r="N53" s="4"/>
@@ -4263,33 +3942,33 @@
         <v>53</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>185</v>
+        <v>75</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>211</v>
+        <v>81</v>
       </c>
       <c r="D54" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>212</v>
+        <v>244</v>
       </c>
       <c r="F54" s="4"/>
       <c r="G54" s="7" t="s">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="H54" s="15" t="s">
-        <v>214</v>
+        <v>246</v>
       </c>
       <c r="I54" s="13"/>
       <c r="J54" s="14" t="s">
-        <v>215</v>
+        <v>82</v>
       </c>
       <c r="K54" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L54" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="L54" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="M54" s="4"/>
       <c r="N54" s="4"/>
@@ -4299,35 +3978,35 @@
         <v>54</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>185</v>
+        <v>75</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>211</v>
+        <v>81</v>
       </c>
       <c r="D55" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="H55" s="15" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="I55" s="18"/>
       <c r="J55" s="14" t="s">
-        <v>219</v>
+        <v>83</v>
       </c>
       <c r="K55" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L55" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="L55" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="M55" s="4"/>
       <c r="N55" s="4"/>
@@ -4337,33 +4016,33 @@
         <v>55</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>185</v>
+        <v>75</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>220</v>
+        <v>84</v>
       </c>
       <c r="D56" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="F56" s="4"/>
       <c r="G56" s="7" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="H56" s="15" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="I56" s="13"/>
       <c r="J56" s="14" t="s">
-        <v>224</v>
+        <v>85</v>
       </c>
       <c r="K56" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L56" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="L56" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="M56" s="4"/>
       <c r="N56" s="4"/>
@@ -4373,35 +4052,35 @@
         <v>56</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>185</v>
+        <v>75</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>220</v>
+        <v>84</v>
       </c>
       <c r="D57" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="H57" s="15" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="I57" s="13"/>
       <c r="J57" s="14" t="s">
-        <v>228</v>
+        <v>86</v>
       </c>
       <c r="K57" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L57" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="L57" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="M57" s="4"/>
       <c r="N57" s="4"/>
@@ -4411,33 +4090,33 @@
         <v>57</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>185</v>
+        <v>75</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>229</v>
+        <v>87</v>
       </c>
       <c r="D58" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="F58" s="4"/>
       <c r="G58" s="7" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="H58" s="15" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="I58" s="13"/>
       <c r="J58" s="14" t="s">
-        <v>233</v>
+        <v>88</v>
       </c>
       <c r="K58" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L58" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="L58" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="M58" s="4"/>
       <c r="N58" s="4"/>
@@ -4447,35 +4126,35 @@
         <v>58</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>185</v>
+        <v>75</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>229</v>
+        <v>87</v>
       </c>
       <c r="D59" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="H59" s="15" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="I59" s="13"/>
       <c r="J59" s="14" t="s">
-        <v>237</v>
+        <v>89</v>
       </c>
       <c r="K59" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L59" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="L59" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="M59" s="4"/>
       <c r="N59" s="4"/>
@@ -4485,33 +4164,33 @@
         <v>59</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>185</v>
+        <v>75</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>238</v>
+        <v>90</v>
       </c>
       <c r="D60" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="F60" s="4"/>
       <c r="G60" s="7" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="H60" s="15" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="I60" s="13"/>
       <c r="J60" s="14" t="s">
-        <v>242</v>
+        <v>91</v>
       </c>
       <c r="K60" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L60" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="L60" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="M60" s="4"/>
       <c r="N60" s="4"/>
@@ -4521,35 +4200,35 @@
         <v>60</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>185</v>
+        <v>75</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>238</v>
+        <v>90</v>
       </c>
       <c r="D61" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="H61" s="15" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="I61" s="13"/>
       <c r="J61" s="14" t="s">
-        <v>246</v>
+        <v>92</v>
       </c>
       <c r="K61" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L61" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="L61" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="M61" s="4"/>
       <c r="N61" s="4"/>
@@ -4559,33 +4238,33 @@
         <v>61</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>185</v>
+        <v>75</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>247</v>
+        <v>93</v>
       </c>
       <c r="D62" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="F62" s="4"/>
       <c r="G62" s="7" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="H62" s="15" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="I62" s="13"/>
       <c r="J62" s="14" t="s">
-        <v>251</v>
+        <v>94</v>
       </c>
       <c r="K62" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L62" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="L62" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="M62" s="4"/>
       <c r="N62" s="4"/>
@@ -4595,35 +4274,35 @@
         <v>62</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>185</v>
+        <v>75</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>247</v>
+        <v>93</v>
       </c>
       <c r="D63" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="H63" s="15" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="I63" s="13"/>
       <c r="J63" s="14" t="s">
-        <v>255</v>
+        <v>95</v>
       </c>
       <c r="K63" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L63" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="L63" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="M63" s="4"/>
       <c r="N63" s="4"/>
@@ -4633,33 +4312,33 @@
         <v>63</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>185</v>
+        <v>75</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>256</v>
+        <v>96</v>
       </c>
       <c r="D64" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="F64" s="4"/>
       <c r="G64" s="7" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="H64" s="15" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="I64" s="13"/>
       <c r="J64" s="14" t="s">
-        <v>260</v>
+        <v>97</v>
       </c>
       <c r="K64" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L64" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="L64" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="M64" s="4"/>
       <c r="N64" s="4"/>
@@ -4669,35 +4348,35 @@
         <v>64</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>185</v>
+        <v>75</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>256</v>
+        <v>96</v>
       </c>
       <c r="D65" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="H65" s="15" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="I65" s="13"/>
       <c r="J65" s="14" t="s">
-        <v>264</v>
+        <v>98</v>
       </c>
       <c r="K65" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L65" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="L65" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="M65" s="4"/>
       <c r="N65" s="4"/>
@@ -4707,33 +4386,33 @@
         <v>65</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>185</v>
+        <v>75</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>265</v>
+        <v>99</v>
       </c>
       <c r="D66" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="F66" s="4"/>
       <c r="G66" s="15" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="H66" s="16" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="I66" s="13"/>
       <c r="J66" s="14" t="s">
-        <v>269</v>
+        <v>100</v>
       </c>
       <c r="K66" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L66" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="L66" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="M66" s="4"/>
       <c r="N66" s="4"/>
@@ -4743,33 +4422,33 @@
         <v>66</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>185</v>
+        <v>75</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>265</v>
+        <v>99</v>
       </c>
       <c r="D67" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="G67" s="15" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="H67" s="13"/>
       <c r="I67" s="13"/>
       <c r="J67" s="14" t="s">
-        <v>272</v>
+        <v>101</v>
       </c>
       <c r="K67" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L67" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="L67" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="M67" s="4"/>
       <c r="N67" s="4"/>
@@ -4779,33 +4458,33 @@
         <v>67</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>185</v>
+        <v>75</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>265</v>
+        <v>99</v>
       </c>
       <c r="D68" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="F68" s="4"/>
       <c r="G68" s="15" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="H68" s="16" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="I68" s="13"/>
       <c r="J68" s="14" t="s">
-        <v>276</v>
+        <v>102</v>
       </c>
       <c r="K68" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L68" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="L68" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="M68" s="4"/>
       <c r="N68" s="4"/>
@@ -4815,33 +4494,33 @@
         <v>68</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>185</v>
+        <v>75</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>277</v>
+        <v>103</v>
       </c>
       <c r="D69" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="F69" s="4"/>
       <c r="G69" s="7" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="H69" s="16" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="I69" s="13"/>
       <c r="J69" s="14" t="s">
-        <v>281</v>
+        <v>104</v>
       </c>
       <c r="K69" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L69" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="L69" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="M69" s="4"/>
       <c r="N69" s="4"/>
@@ -4851,35 +4530,35 @@
         <v>69</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>185</v>
+        <v>75</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>277</v>
+        <v>103</v>
       </c>
       <c r="D70" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="H70" s="16" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="I70" s="13"/>
       <c r="J70" s="14" t="s">
-        <v>285</v>
+        <v>105</v>
       </c>
       <c r="K70" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L70" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="L70" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="M70" s="4"/>
       <c r="N70" s="4"/>
@@ -4889,33 +4568,33 @@
         <v>70</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>185</v>
+        <v>75</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>286</v>
+        <v>106</v>
       </c>
       <c r="D71" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="F71" s="4"/>
       <c r="G71" s="7" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="H71" s="15" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="I71" s="13"/>
       <c r="J71" s="14" t="s">
-        <v>290</v>
+        <v>107</v>
       </c>
       <c r="K71" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L71" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="L71" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="M71" s="4"/>
       <c r="N71" s="4"/>
@@ -4925,35 +4604,35 @@
         <v>71</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>185</v>
+        <v>75</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>286</v>
+        <v>106</v>
       </c>
       <c r="D72" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="H72" s="15" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="I72" s="13"/>
       <c r="J72" s="14" t="s">
-        <v>294</v>
+        <v>108</v>
       </c>
       <c r="K72" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L72" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="L72" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="M72" s="4"/>
       <c r="N72" s="4"/>

--- a/tests/data/input/一级测试用例-f003.xlsx
+++ b/tests/data/input/一级测试用例-f003.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Magfin\python\pipes\tests\data\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A373705A-5EA1-4CDD-BF15-57AA0B0A91C6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA3202E-985D-4EBF-B026-C1BFE159FEFD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -951,13 +951,6 @@
 info_com_bus_basic.ent_name='上海蓝胖子有限公司035'</t>
   </si>
   <si>
-    <t>info_com_bus_exception.basic_id;
-info_com_bus_exception.date_out[0]='2018-07-03';
-info_com_bus_exception.result_in[0]='年度报告';
-info_com_bus_exception.date_out[1]='';
-info_com_bus_exception.result_in[1]='无法取得联系'</t>
-  </si>
-  <si>
     <t>info_per_bus_shareholder.basic_id;
 info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司036';
 info_per_bus_shareholder.funded_ratio[0]='0.3';
@@ -1455,6 +1448,13 @@
   <si>
     <t>info_com_bus_face.basic_id;
 info_com_bus_face.city[0]='合肥市'</t>
+  </si>
+  <si>
+    <t>info_com_bus_exception.basic_id;
+info_com_bus_exception.date_out[0]='2018-07-03';
+info_com_bus_exception.result_in[0]='年度报告';
+info_com_bus_exception.result_in[1]='无法取得联系'</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1978,7 +1978,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I39" sqref="I39"/>
+      <selection pane="bottomLeft" activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3442,7 +3442,7 @@
         <v>204</v>
       </c>
       <c r="H40" s="29" t="s">
-        <v>205</v>
+        <v>299</v>
       </c>
       <c r="I40" s="15"/>
       <c r="J40" s="14" t="s">
@@ -3471,14 +3471,14 @@
         <v>16</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H41" s="15" t="s">
         <v>207</v>
-      </c>
-      <c r="H41" s="15" t="s">
-        <v>208</v>
       </c>
       <c r="I41" s="15"/>
       <c r="J41" s="14" t="s">
@@ -3507,16 +3507,16 @@
         <v>16</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F42" s="11" t="s">
         <v>141</v>
       </c>
       <c r="G42" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H42" s="15" t="s">
         <v>210</v>
-      </c>
-      <c r="H42" s="15" t="s">
-        <v>211</v>
       </c>
       <c r="I42" s="15"/>
       <c r="J42" s="14" t="s">
@@ -3545,14 +3545,14 @@
         <v>16</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H43" s="15" t="s">
         <v>213</v>
-      </c>
-      <c r="H43" s="15" t="s">
-        <v>214</v>
       </c>
       <c r="I43" s="15"/>
       <c r="J43" s="14" t="s">
@@ -3581,14 +3581,14 @@
         <v>16</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H44" s="15" t="s">
         <v>216</v>
-      </c>
-      <c r="H44" s="15" t="s">
-        <v>217</v>
       </c>
       <c r="I44" s="15"/>
       <c r="J44" s="14" t="s">
@@ -3617,14 +3617,14 @@
         <v>16</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="H45" s="15" t="s">
         <v>219</v>
-      </c>
-      <c r="H45" s="15" t="s">
-        <v>220</v>
       </c>
       <c r="I45" s="15"/>
       <c r="J45" s="14" t="s">
@@ -3653,16 +3653,16 @@
         <v>16</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F46" s="11" t="s">
         <v>141</v>
       </c>
       <c r="G46" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="H46" s="15" t="s">
         <v>222</v>
-      </c>
-      <c r="H46" s="15" t="s">
-        <v>223</v>
       </c>
       <c r="I46" s="15"/>
       <c r="J46" s="14" t="s">
@@ -3691,14 +3691,14 @@
         <v>16</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="H47" s="15" t="s">
         <v>225</v>
-      </c>
-      <c r="H47" s="15" t="s">
-        <v>226</v>
       </c>
       <c r="I47" s="15"/>
       <c r="J47" s="14" t="s">
@@ -3727,14 +3727,14 @@
         <v>16</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F48" s="4"/>
       <c r="G48" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H48" s="15" t="s">
         <v>228</v>
-      </c>
-      <c r="H48" s="15" t="s">
-        <v>229</v>
       </c>
       <c r="I48" s="15"/>
       <c r="J48" s="14" t="s">
@@ -3763,16 +3763,16 @@
         <v>16</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F49" s="11" t="s">
         <v>141</v>
       </c>
       <c r="G49" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="H49" s="15" t="s">
         <v>231</v>
-      </c>
-      <c r="H49" s="15" t="s">
-        <v>232</v>
       </c>
       <c r="I49" s="15"/>
       <c r="J49" s="14" t="s">
@@ -3801,14 +3801,14 @@
         <v>16</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="H50" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="H50" s="15" t="s">
-        <v>235</v>
       </c>
       <c r="I50" s="15"/>
       <c r="J50" s="14" t="s">
@@ -3837,17 +3837,17 @@
         <v>16</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F51" s="4"/>
       <c r="G51" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="H51" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="I51" s="15" t="s">
         <v>237</v>
-      </c>
-      <c r="H51" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="I51" s="15" t="s">
-        <v>238</v>
       </c>
       <c r="J51" s="14" t="s">
         <v>79</v>
@@ -3875,16 +3875,16 @@
         <v>16</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F52" s="11" t="s">
         <v>141</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H52" s="15" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I52" s="13"/>
       <c r="J52" s="14" t="s">
@@ -3913,17 +3913,17 @@
         <v>16</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F53" s="4"/>
       <c r="G53" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="H53" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="I53" s="15" t="s">
         <v>242</v>
-      </c>
-      <c r="H53" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="I53" s="15" t="s">
-        <v>243</v>
       </c>
       <c r="J53" s="14" t="s">
         <v>80</v>
@@ -3951,14 +3951,14 @@
         <v>16</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F54" s="4"/>
       <c r="G54" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="H54" s="15" t="s">
         <v>245</v>
-      </c>
-      <c r="H54" s="15" t="s">
-        <v>246</v>
       </c>
       <c r="I54" s="13"/>
       <c r="J54" s="14" t="s">
@@ -3987,16 +3987,16 @@
         <v>16</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F55" s="11" t="s">
         <v>141</v>
       </c>
       <c r="G55" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H55" s="15" t="s">
         <v>248</v>
-      </c>
-      <c r="H55" s="15" t="s">
-        <v>249</v>
       </c>
       <c r="I55" s="18"/>
       <c r="J55" s="14" t="s">
@@ -4025,14 +4025,14 @@
         <v>16</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F56" s="4"/>
       <c r="G56" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H56" s="15" t="s">
         <v>251</v>
-      </c>
-      <c r="H56" s="15" t="s">
-        <v>252</v>
       </c>
       <c r="I56" s="13"/>
       <c r="J56" s="14" t="s">
@@ -4061,16 +4061,16 @@
         <v>16</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F57" s="11" t="s">
         <v>141</v>
       </c>
       <c r="G57" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="H57" s="15" t="s">
         <v>254</v>
-      </c>
-      <c r="H57" s="15" t="s">
-        <v>255</v>
       </c>
       <c r="I57" s="13"/>
       <c r="J57" s="14" t="s">
@@ -4099,14 +4099,14 @@
         <v>16</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F58" s="4"/>
       <c r="G58" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="H58" s="15" t="s">
         <v>257</v>
-      </c>
-      <c r="H58" s="15" t="s">
-        <v>258</v>
       </c>
       <c r="I58" s="13"/>
       <c r="J58" s="14" t="s">
@@ -4135,16 +4135,16 @@
         <v>16</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F59" s="11" t="s">
         <v>141</v>
       </c>
       <c r="G59" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="H59" s="15" t="s">
         <v>260</v>
-      </c>
-      <c r="H59" s="15" t="s">
-        <v>261</v>
       </c>
       <c r="I59" s="13"/>
       <c r="J59" s="14" t="s">
@@ -4173,14 +4173,14 @@
         <v>16</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F60" s="4"/>
       <c r="G60" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H60" s="15" t="s">
         <v>263</v>
-      </c>
-      <c r="H60" s="15" t="s">
-        <v>264</v>
       </c>
       <c r="I60" s="13"/>
       <c r="J60" s="14" t="s">
@@ -4209,16 +4209,16 @@
         <v>16</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F61" s="11" t="s">
         <v>141</v>
       </c>
       <c r="G61" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="H61" s="15" t="s">
         <v>266</v>
-      </c>
-      <c r="H61" s="15" t="s">
-        <v>267</v>
       </c>
       <c r="I61" s="13"/>
       <c r="J61" s="14" t="s">
@@ -4247,14 +4247,14 @@
         <v>16</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F62" s="4"/>
       <c r="G62" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="H62" s="15" t="s">
         <v>269</v>
-      </c>
-      <c r="H62" s="15" t="s">
-        <v>270</v>
       </c>
       <c r="I62" s="13"/>
       <c r="J62" s="14" t="s">
@@ -4283,16 +4283,16 @@
         <v>16</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F63" s="11" t="s">
         <v>141</v>
       </c>
       <c r="G63" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="H63" s="15" t="s">
         <v>272</v>
-      </c>
-      <c r="H63" s="15" t="s">
-        <v>273</v>
       </c>
       <c r="I63" s="13"/>
       <c r="J63" s="14" t="s">
@@ -4321,14 +4321,14 @@
         <v>16</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F64" s="4"/>
       <c r="G64" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="H64" s="15" t="s">
         <v>275</v>
-      </c>
-      <c r="H64" s="15" t="s">
-        <v>276</v>
       </c>
       <c r="I64" s="13"/>
       <c r="J64" s="14" t="s">
@@ -4357,16 +4357,16 @@
         <v>16</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F65" s="11" t="s">
         <v>141</v>
       </c>
       <c r="G65" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="H65" s="15" t="s">
         <v>278</v>
-      </c>
-      <c r="H65" s="15" t="s">
-        <v>279</v>
       </c>
       <c r="I65" s="13"/>
       <c r="J65" s="14" t="s">
@@ -4395,14 +4395,14 @@
         <v>16</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F66" s="4"/>
       <c r="G66" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="H66" s="16" t="s">
         <v>281</v>
-      </c>
-      <c r="H66" s="16" t="s">
-        <v>282</v>
       </c>
       <c r="I66" s="13"/>
       <c r="J66" s="14" t="s">
@@ -4431,13 +4431,13 @@
         <v>16</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F67" s="11" t="s">
         <v>141</v>
       </c>
       <c r="G67" s="15" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H67" s="13"/>
       <c r="I67" s="13"/>
@@ -4467,14 +4467,14 @@
         <v>16</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F68" s="4"/>
       <c r="G68" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="H68" s="16" t="s">
         <v>286</v>
-      </c>
-      <c r="H68" s="16" t="s">
-        <v>287</v>
       </c>
       <c r="I68" s="13"/>
       <c r="J68" s="14" t="s">
@@ -4503,14 +4503,14 @@
         <v>16</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F69" s="4"/>
       <c r="G69" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H69" s="16" t="s">
         <v>289</v>
-      </c>
-      <c r="H69" s="16" t="s">
-        <v>290</v>
       </c>
       <c r="I69" s="13"/>
       <c r="J69" s="14" t="s">
@@ -4539,16 +4539,16 @@
         <v>16</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F70" s="11" t="s">
         <v>141</v>
       </c>
       <c r="G70" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="H70" s="16" t="s">
         <v>292</v>
-      </c>
-      <c r="H70" s="16" t="s">
-        <v>293</v>
       </c>
       <c r="I70" s="13"/>
       <c r="J70" s="14" t="s">
@@ -4577,14 +4577,14 @@
         <v>16</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F71" s="4"/>
       <c r="G71" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="H71" s="15" t="s">
         <v>295</v>
-      </c>
-      <c r="H71" s="15" t="s">
-        <v>296</v>
       </c>
       <c r="I71" s="13"/>
       <c r="J71" s="14" t="s">
@@ -4613,16 +4613,16 @@
         <v>16</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F72" s="11" t="s">
         <v>141</v>
       </c>
       <c r="G72" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="H72" s="15" t="s">
         <v>298</v>
-      </c>
-      <c r="H72" s="15" t="s">
-        <v>299</v>
       </c>
       <c r="I72" s="13"/>
       <c r="J72" s="14" t="s">

--- a/tests/data/input/一级测试用例-f003.xlsx
+++ b/tests/data/input/一级测试用例-f003.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="2" r:id="rId1"/>
@@ -820,6 +820,7 @@
     <t>info_com_bus_exception.basic_id;
 info_com_bus_exception.date_out[0]='2018-07-03';
 info_com_bus_exception.result_in[0]='年度报告';
+info_com_bus_exception.date_out[1]=;
 info_com_bus_exception.result_in[1]='无法取得联系'</t>
   </si>
   <si>
@@ -1453,12 +1454,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1473,10 +1474,39 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1495,92 +1525,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1595,7 +1541,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1610,6 +1556,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -1617,8 +1610,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1639,7 +1633,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1651,43 +1711,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1699,85 +1741,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1795,13 +1765,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1813,13 +1801,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1905,15 +1899,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1929,6 +1914,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1940,32 +1949,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1989,6 +1972,15 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -1996,9 +1988,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2010,10 +2004,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2022,143 +2016,143 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2180,9 +2174,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2195,7 +2186,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2210,16 +2201,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
@@ -2228,7 +2213,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2240,7 +2225,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="50" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="50" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2573,28 +2558,28 @@
   <dimension ref="A1:N387"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.4537037037037" customWidth="1"/>
-    <col min="2" max="2" width="6.72222222222222" customWidth="1"/>
-    <col min="3" max="3" width="12.4537037037037" customWidth="1"/>
-    <col min="4" max="4" width="25.3611111111111" style="1" customWidth="1"/>
-    <col min="5" max="5" width="53.6296296296296" customWidth="1"/>
-    <col min="6" max="6" width="26.4537037037037" customWidth="1"/>
-    <col min="7" max="7" width="40.0925925925926" style="1" customWidth="1"/>
-    <col min="8" max="8" width="51.0925925925926" customWidth="1"/>
+    <col min="1" max="1" width="10.45" customWidth="1"/>
+    <col min="2" max="2" width="6.725" customWidth="1"/>
+    <col min="3" max="3" width="12.45" customWidth="1"/>
+    <col min="4" max="4" width="25.3583333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="53.6333333333333" customWidth="1"/>
+    <col min="6" max="6" width="26.45" customWidth="1"/>
+    <col min="7" max="7" width="40.0916666666667" style="1" customWidth="1"/>
+    <col min="8" max="8" width="51.0916666666667" customWidth="1"/>
     <col min="9" max="9" width="37" customWidth="1"/>
-    <col min="10" max="10" width="23.3611111111111" customWidth="1"/>
-    <col min="11" max="13" width="15.4537037037037" customWidth="1"/>
-    <col min="14" max="14" width="10.4537037037037" customWidth="1"/>
+    <col min="10" max="10" width="23.3583333333333" customWidth="1"/>
+    <col min="11" max="13" width="15.45" customWidth="1"/>
+    <col min="14" max="14" width="10.45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:14">
+    <row r="1" ht="14.25" spans="1:14">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2638,7 +2623,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" ht="172.8" spans="1:14">
+    <row r="2" ht="162" spans="1:14">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2655,17 +2640,17 @@
         <v>17</v>
       </c>
       <c r="F2" s="4"/>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="21"/>
-      <c r="J2" s="16" t="s">
+      <c r="I2" s="18"/>
+      <c r="J2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="10" t="s">
         <v>21</v>
       </c>
       <c r="L2" s="4" t="s">
@@ -2674,34 +2659,34 @@
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" ht="86.4" spans="1:14">
+    <row r="3" ht="81" spans="1:14">
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="16" t="s">
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="10" t="s">
         <v>21</v>
       </c>
       <c r="L3" s="4" t="s">
@@ -2710,32 +2695,32 @@
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" ht="259.2" spans="1:14">
+    <row r="4" ht="229.5" spans="1:14">
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F4" s="4"/>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="16" t="s">
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="10" t="s">
         <v>21</v>
       </c>
       <c r="L4" s="4" t="s">
@@ -2744,32 +2729,32 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" ht="403.2" spans="1:14">
+    <row r="5" ht="378" spans="1:14">
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>29</v>
       </c>
       <c r="F5" s="4"/>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="16" t="s">
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="10" t="s">
         <v>21</v>
       </c>
       <c r="L5" s="4" t="s">
@@ -2778,34 +2763,34 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" ht="172.8" spans="1:14">
+    <row r="6" ht="162" spans="1:14">
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="F6" s="4"/>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="15" t="s">
+      <c r="I6" s="15"/>
+      <c r="J6" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="10" t="s">
         <v>21</v>
       </c>
       <c r="L6" s="4" t="s">
@@ -2814,36 +2799,36 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" ht="158.4" spans="1:14">
+    <row r="7" ht="148.5" spans="1:14">
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="15" t="s">
+      <c r="I7" s="15"/>
+      <c r="J7" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="10" t="s">
         <v>21</v>
       </c>
       <c r="L7" s="4" t="s">
@@ -2852,34 +2837,34 @@
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
     </row>
-    <row r="8" ht="172.8" spans="1:14">
+    <row r="8" ht="162" spans="1:14">
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>39</v>
       </c>
       <c r="F8" s="4"/>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="I8" s="16"/>
-      <c r="J8" s="15" t="s">
+      <c r="I8" s="15"/>
+      <c r="J8" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="10" t="s">
         <v>21</v>
       </c>
       <c r="L8" s="4" t="s">
@@ -2888,34 +2873,34 @@
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
     </row>
-    <row r="9" ht="172.8" spans="1:14">
+    <row r="9" ht="162" spans="1:14">
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F9" s="4"/>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="16"/>
-      <c r="J9" s="15" t="s">
+      <c r="I9" s="15"/>
+      <c r="J9" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="10" t="s">
         <v>21</v>
       </c>
       <c r="L9" s="4" t="s">
@@ -2924,36 +2909,36 @@
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
     </row>
-    <row r="10" ht="144" spans="1:14">
+    <row r="10" ht="135" spans="1:14">
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="15" t="s">
+      <c r="I10" s="15"/>
+      <c r="J10" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="10" t="s">
         <v>21</v>
       </c>
       <c r="L10" s="4" t="s">
@@ -2962,36 +2947,36 @@
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
     </row>
-    <row r="11" ht="144" spans="1:14">
+    <row r="11" ht="135" spans="1:14">
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="I11" s="16"/>
-      <c r="J11" s="15" t="s">
+      <c r="I11" s="15"/>
+      <c r="J11" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="10" t="s">
         <v>21</v>
       </c>
       <c r="L11" s="4" t="s">
@@ -3000,34 +2985,34 @@
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
     </row>
-    <row r="12" ht="100.8" spans="1:14">
+    <row r="12" ht="94.5" spans="1:14">
       <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="7" t="s">
         <v>54</v>
       </c>
       <c r="F12" s="4"/>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="I12" s="16"/>
-      <c r="J12" s="15" t="s">
+      <c r="I12" s="15"/>
+      <c r="J12" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="K12" s="11" t="s">
+      <c r="K12" s="10" t="s">
         <v>21</v>
       </c>
       <c r="L12" s="4" t="s">
@@ -3036,34 +3021,34 @@
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
     </row>
-    <row r="13" ht="100.8" spans="1:14">
+    <row r="13" ht="94.5" spans="1:14">
       <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="7" t="s">
         <v>58</v>
       </c>
       <c r="F13" s="4"/>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H13" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="I13" s="16"/>
-      <c r="J13" s="15" t="s">
+      <c r="I13" s="15"/>
+      <c r="J13" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="10" t="s">
         <v>21</v>
       </c>
       <c r="L13" s="4" t="s">
@@ -3072,36 +3057,36 @@
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
     </row>
-    <row r="14" ht="100.8" spans="1:14">
+    <row r="14" ht="81" spans="1:14">
       <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="H14" s="16" t="s">
+      <c r="H14" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="I14" s="16"/>
-      <c r="J14" s="15" t="s">
+      <c r="I14" s="15"/>
+      <c r="J14" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="K14" s="11" t="s">
+      <c r="K14" s="10" t="s">
         <v>21</v>
       </c>
       <c r="L14" s="4" t="s">
@@ -3110,34 +3095,34 @@
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
     </row>
-    <row r="15" ht="100.8" spans="1:14">
+    <row r="15" ht="94.5" spans="1:14">
       <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="7" t="s">
         <v>67</v>
       </c>
       <c r="F15" s="4"/>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="H15" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="I15" s="16"/>
-      <c r="J15" s="15" t="s">
+      <c r="I15" s="15"/>
+      <c r="J15" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="K15" s="11" t="s">
+      <c r="K15" s="10" t="s">
         <v>21</v>
       </c>
       <c r="L15" s="4" t="s">
@@ -3146,34 +3131,34 @@
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
     </row>
-    <row r="16" ht="100.8" spans="1:14">
+    <row r="16" ht="94.5" spans="1:14">
       <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="7" t="s">
         <v>70</v>
       </c>
       <c r="F16" s="4"/>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="H16" s="16" t="s">
+      <c r="H16" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="I16" s="16"/>
-      <c r="J16" s="15" t="s">
+      <c r="I16" s="15"/>
+      <c r="J16" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="K16" s="10" t="s">
         <v>21</v>
       </c>
       <c r="L16" s="4" t="s">
@@ -3182,36 +3167,36 @@
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
     </row>
-    <row r="17" ht="100.8" spans="1:14">
+    <row r="17" ht="94.5" spans="1:14">
       <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="H17" s="16" t="s">
+      <c r="H17" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="I17" s="16"/>
-      <c r="J17" s="15" t="s">
+      <c r="I17" s="15"/>
+      <c r="J17" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="K17" s="11" t="s">
+      <c r="K17" s="10" t="s">
         <v>21</v>
       </c>
       <c r="L17" s="4" t="s">
@@ -3220,34 +3205,34 @@
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
     </row>
-    <row r="18" ht="100.8" spans="1:14">
+    <row r="18" ht="94.5" spans="1:14">
       <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="7" t="s">
         <v>76</v>
       </c>
       <c r="F18" s="4"/>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="H18" s="19" t="s">
+      <c r="H18" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="I18" s="19"/>
-      <c r="J18" s="15" t="s">
+      <c r="I18" s="17"/>
+      <c r="J18" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="K18" s="11" t="s">
+      <c r="K18" s="10" t="s">
         <v>21</v>
       </c>
       <c r="L18" s="4" t="s">
@@ -3256,34 +3241,34 @@
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
     </row>
-    <row r="19" ht="100.8" spans="1:14">
+    <row r="19" ht="94.5" spans="1:14">
       <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="7" t="s">
         <v>80</v>
       </c>
       <c r="F19" s="4"/>
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H19" s="19" t="s">
+      <c r="H19" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="I19" s="19"/>
-      <c r="J19" s="15" t="s">
+      <c r="I19" s="17"/>
+      <c r="J19" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="K19" s="11" t="s">
+      <c r="K19" s="10" t="s">
         <v>21</v>
       </c>
       <c r="L19" s="4" t="s">
@@ -3292,36 +3277,36 @@
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
     </row>
-    <row r="20" ht="100.8" spans="1:14">
+    <row r="20" ht="94.5" spans="1:14">
       <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F20" s="18" t="s">
+      <c r="F20" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H20" s="19" t="s">
+      <c r="H20" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="I20" s="19"/>
-      <c r="J20" s="15" t="s">
+      <c r="I20" s="17"/>
+      <c r="J20" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="K20" s="11" t="s">
+      <c r="K20" s="10" t="s">
         <v>21</v>
       </c>
       <c r="L20" s="4" t="s">
@@ -3330,34 +3315,34 @@
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
     </row>
-    <row r="21" ht="100.8" spans="1:14">
+    <row r="21" ht="94.5" spans="1:14">
       <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="7" t="s">
         <v>88</v>
       </c>
       <c r="F21" s="4"/>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="H21" s="19" t="s">
+      <c r="H21" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="I21" s="19"/>
-      <c r="J21" s="15" t="s">
+      <c r="I21" s="17"/>
+      <c r="J21" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="K21" s="11" t="s">
+      <c r="K21" s="10" t="s">
         <v>21</v>
       </c>
       <c r="L21" s="4" t="s">
@@ -3366,34 +3351,34 @@
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
     </row>
-    <row r="22" ht="100.8" spans="1:14">
+    <row r="22" ht="94.5" spans="1:14">
       <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="7" t="s">
         <v>91</v>
       </c>
       <c r="F22" s="4"/>
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="H22" s="19" t="s">
+      <c r="H22" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="I22" s="19"/>
-      <c r="J22" s="15" t="s">
+      <c r="I22" s="17"/>
+      <c r="J22" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="K22" s="11" t="s">
+      <c r="K22" s="10" t="s">
         <v>21</v>
       </c>
       <c r="L22" s="4" t="s">
@@ -3402,36 +3387,36 @@
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
     </row>
-    <row r="23" ht="100.8" spans="1:14">
+    <row r="23" ht="94.5" spans="1:14">
       <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F23" s="18" t="s">
+      <c r="F23" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="G23" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="H23" s="19" t="s">
+      <c r="H23" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="I23" s="19"/>
-      <c r="J23" s="15" t="s">
+      <c r="I23" s="17"/>
+      <c r="J23" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="K23" s="11" t="s">
+      <c r="K23" s="10" t="s">
         <v>21</v>
       </c>
       <c r="L23" s="4" t="s">
@@ -3440,34 +3425,34 @@
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
     </row>
-    <row r="24" ht="100.8" spans="1:14">
+    <row r="24" ht="94.5" spans="1:14">
       <c r="A24" s="4">
         <v>23</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="7" t="s">
         <v>97</v>
       </c>
       <c r="F24" s="4"/>
-      <c r="G24" s="8" t="s">
+      <c r="G24" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="H24" s="14" t="s">
+      <c r="H24" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="I24" s="14"/>
-      <c r="J24" s="15" t="s">
+      <c r="I24" s="13"/>
+      <c r="J24" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="K24" s="11" t="s">
+      <c r="K24" s="10" t="s">
         <v>21</v>
       </c>
       <c r="L24" s="4" t="s">
@@ -3476,32 +3461,32 @@
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
     </row>
-    <row r="25" ht="100.8" spans="1:14">
+    <row r="25" ht="94.5" spans="1:14">
       <c r="A25" s="4">
         <v>24</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="7" t="s">
         <v>101</v>
       </c>
       <c r="F25" s="4"/>
-      <c r="G25" s="8" t="s">
+      <c r="G25" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="15" t="s">
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="K25" s="11" t="s">
+      <c r="K25" s="10" t="s">
         <v>21</v>
       </c>
       <c r="L25" s="4" t="s">
@@ -3510,34 +3495,34 @@
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
     </row>
-    <row r="26" ht="100.8" spans="1:14">
+    <row r="26" ht="94.5" spans="1:14">
       <c r="A26" s="4">
         <v>25</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="7" t="s">
         <v>101</v>
       </c>
       <c r="F26" s="4"/>
-      <c r="G26" s="8" t="s">
+      <c r="G26" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="H26" s="19" t="s">
+      <c r="H26" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="I26" s="19"/>
-      <c r="J26" s="15" t="s">
+      <c r="I26" s="17"/>
+      <c r="J26" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="K26" s="11" t="s">
+      <c r="K26" s="10" t="s">
         <v>21</v>
       </c>
       <c r="L26" s="4" t="s">
@@ -3546,34 +3531,34 @@
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
     </row>
-    <row r="27" ht="100.8" spans="1:14">
+    <row r="27" ht="94.5" spans="1:14">
       <c r="A27" s="4">
         <v>26</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F27" s="4"/>
-      <c r="G27" s="8" t="s">
+      <c r="G27" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="H27" s="19" t="s">
+      <c r="H27" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="I27" s="19"/>
-      <c r="J27" s="15" t="s">
+      <c r="I27" s="17"/>
+      <c r="J27" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="K27" s="11" t="s">
+      <c r="K27" s="10" t="s">
         <v>21</v>
       </c>
       <c r="L27" s="4" t="s">
@@ -3582,34 +3567,34 @@
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
     </row>
-    <row r="28" ht="100.8" spans="1:14">
+    <row r="28" ht="94.5" spans="1:14">
       <c r="A28" s="4">
         <v>27</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="7" t="s">
         <v>112</v>
       </c>
       <c r="F28" s="4"/>
-      <c r="G28" s="8" t="s">
+      <c r="G28" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="H28" s="19" t="s">
+      <c r="H28" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="I28" s="19"/>
-      <c r="J28" s="15" t="s">
+      <c r="I28" s="17"/>
+      <c r="J28" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="K28" s="11" t="s">
+      <c r="K28" s="10" t="s">
         <v>21</v>
       </c>
       <c r="L28" s="4" t="s">
@@ -3618,34 +3603,34 @@
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
     </row>
-    <row r="29" ht="100.8" spans="1:14">
+    <row r="29" ht="94.5" spans="1:14">
       <c r="A29" s="4">
         <v>28</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="7" t="s">
         <v>115</v>
       </c>
       <c r="F29" s="4"/>
-      <c r="G29" s="8" t="s">
+      <c r="G29" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="H29" s="19" t="s">
+      <c r="H29" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="I29" s="19"/>
-      <c r="J29" s="15" t="s">
+      <c r="I29" s="17"/>
+      <c r="J29" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="K29" s="11" t="s">
+      <c r="K29" s="10" t="s">
         <v>21</v>
       </c>
       <c r="L29" s="4" t="s">
@@ -3654,34 +3639,34 @@
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
     </row>
-    <row r="30" ht="100.8" spans="1:14">
+    <row r="30" ht="94.5" spans="1:14">
       <c r="A30" s="4">
         <v>29</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="7" t="s">
         <v>119</v>
       </c>
       <c r="F30" s="4"/>
-      <c r="G30" s="8" t="s">
+      <c r="G30" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="H30" s="19" t="s">
+      <c r="H30" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="I30" s="19"/>
-      <c r="J30" s="15" t="s">
+      <c r="I30" s="17"/>
+      <c r="J30" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="K30" s="11" t="s">
+      <c r="K30" s="10" t="s">
         <v>21</v>
       </c>
       <c r="L30" s="4" t="s">
@@ -3690,34 +3675,34 @@
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
     </row>
-    <row r="31" ht="100.8" spans="1:14">
+    <row r="31" ht="94.5" spans="1:14">
       <c r="A31" s="4">
         <v>30</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="7" t="s">
         <v>123</v>
       </c>
       <c r="F31" s="4"/>
-      <c r="G31" s="8" t="s">
+      <c r="G31" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="H31" s="14" t="s">
+      <c r="H31" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="I31" s="14"/>
-      <c r="J31" s="15" t="s">
+      <c r="I31" s="13"/>
+      <c r="J31" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="K31" s="11" t="s">
+      <c r="K31" s="10" t="s">
         <v>21</v>
       </c>
       <c r="L31" s="4" t="s">
@@ -3726,34 +3711,34 @@
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
     </row>
-    <row r="32" ht="100.8" spans="1:14">
+    <row r="32" ht="94.5" spans="1:14">
       <c r="A32" s="4">
         <v>31</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="7" t="s">
         <v>128</v>
       </c>
       <c r="F32" s="4"/>
-      <c r="G32" s="8" t="s">
+      <c r="G32" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="H32" s="19" t="s">
+      <c r="H32" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="I32" s="19"/>
-      <c r="J32" s="15" t="s">
+      <c r="I32" s="17"/>
+      <c r="J32" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="K32" s="11" t="s">
+      <c r="K32" s="10" t="s">
         <v>21</v>
       </c>
       <c r="L32" s="4" t="s">
@@ -3762,34 +3747,34 @@
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
     </row>
-    <row r="33" ht="100.8" spans="1:14">
+    <row r="33" ht="94.5" spans="1:14">
       <c r="A33" s="4">
         <v>32</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="7" t="s">
         <v>131</v>
       </c>
       <c r="F33" s="4"/>
-      <c r="G33" s="8" t="s">
+      <c r="G33" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="H33" s="14" t="s">
+      <c r="H33" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="I33" s="14"/>
-      <c r="J33" s="15" t="s">
+      <c r="I33" s="13"/>
+      <c r="J33" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="K33" s="11" t="s">
+      <c r="K33" s="10" t="s">
         <v>21</v>
       </c>
       <c r="L33" s="4" t="s">
@@ -3798,34 +3783,34 @@
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
     </row>
-    <row r="34" ht="100.8" spans="1:14">
+    <row r="34" ht="94.5" spans="1:14">
       <c r="A34" s="4">
         <v>33</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="7" t="s">
         <v>135</v>
       </c>
       <c r="F34" s="4"/>
-      <c r="G34" s="16" t="s">
+      <c r="G34" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="H34" s="19" t="s">
+      <c r="H34" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="I34" s="19"/>
-      <c r="J34" s="15" t="s">
+      <c r="I34" s="17"/>
+      <c r="J34" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="K34" s="11" t="s">
+      <c r="K34" s="10" t="s">
         <v>21</v>
       </c>
       <c r="L34" s="4" t="s">
@@ -3834,34 +3819,34 @@
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
     </row>
-    <row r="35" ht="100.8" spans="1:14">
+    <row r="35" ht="94.5" spans="1:14">
       <c r="A35" s="4">
         <v>34</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="7" t="s">
         <v>139</v>
       </c>
       <c r="F35" s="4"/>
-      <c r="G35" s="16" t="s">
+      <c r="G35" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="H35" s="19" t="s">
+      <c r="H35" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="I35" s="19"/>
-      <c r="J35" s="15" t="s">
+      <c r="I35" s="17"/>
+      <c r="J35" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="K35" s="11" t="s">
+      <c r="K35" s="10" t="s">
         <v>21</v>
       </c>
       <c r="L35" s="4" t="s">
@@ -3870,36 +3855,36 @@
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
     </row>
-    <row r="36" ht="100.8" spans="1:14">
+    <row r="36" ht="81" spans="1:14">
       <c r="A36" s="4">
         <v>35</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C36" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D36" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F36" s="18" t="s">
+      <c r="F36" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="G36" s="16" t="s">
+      <c r="G36" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="H36" s="19" t="s">
+      <c r="H36" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="I36" s="19"/>
-      <c r="J36" s="15" t="s">
+      <c r="I36" s="17"/>
+      <c r="J36" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="K36" s="11" t="s">
+      <c r="K36" s="10" t="s">
         <v>21</v>
       </c>
       <c r="L36" s="4" t="s">
@@ -3908,34 +3893,34 @@
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
     </row>
-    <row r="37" ht="100.8" spans="1:14">
+    <row r="37" ht="94.5" spans="1:14">
       <c r="A37" s="4">
         <v>36</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="E37" s="7" t="s">
         <v>148</v>
       </c>
       <c r="F37" s="4"/>
-      <c r="G37" s="16" t="s">
+      <c r="G37" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="H37" s="19" t="s">
+      <c r="H37" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="I37" s="19"/>
-      <c r="J37" s="15" t="s">
+      <c r="I37" s="17"/>
+      <c r="J37" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="K37" s="11" t="s">
+      <c r="K37" s="10" t="s">
         <v>21</v>
       </c>
       <c r="L37" s="4" t="s">
@@ -3944,34 +3929,34 @@
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
     </row>
-    <row r="38" ht="100.8" spans="1:14">
+    <row r="38" ht="94.5" spans="1:14">
       <c r="A38" s="4">
         <v>37</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E38" s="7" t="s">
         <v>152</v>
       </c>
       <c r="F38" s="4"/>
-      <c r="G38" s="16" t="s">
+      <c r="G38" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="H38" s="16" t="s">
+      <c r="H38" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="I38" s="16"/>
-      <c r="J38" s="15" t="s">
+      <c r="I38" s="15"/>
+      <c r="J38" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="K38" s="11" t="s">
+      <c r="K38" s="10" t="s">
         <v>21</v>
       </c>
       <c r="L38" s="4" t="s">
@@ -3980,36 +3965,36 @@
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
     </row>
-    <row r="39" ht="100.8" spans="1:14">
+    <row r="39" ht="81" spans="1:14">
       <c r="A39" s="4">
         <v>38</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C39" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="E39" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="F39" s="18" t="s">
+      <c r="F39" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="G39" s="16" t="s">
+      <c r="G39" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="H39" s="20" t="s">
+      <c r="H39" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="I39" s="19"/>
-      <c r="J39" s="15" t="s">
+      <c r="I39" s="17"/>
+      <c r="J39" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="K39" s="11" t="s">
+      <c r="K39" s="10" t="s">
         <v>21</v>
       </c>
       <c r="L39" s="4" t="s">
@@ -4018,34 +4003,34 @@
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
     </row>
-    <row r="40" ht="100.8" spans="1:14">
+    <row r="40" ht="94.5" spans="1:14">
       <c r="A40" s="4">
         <v>39</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C40" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="D40" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="E40" s="7" t="s">
         <v>161</v>
       </c>
       <c r="F40" s="4"/>
-      <c r="G40" s="8" t="s">
+      <c r="G40" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="H40" s="20" t="s">
+      <c r="H40" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="I40" s="16"/>
-      <c r="J40" s="15" t="s">
+      <c r="I40" s="15"/>
+      <c r="J40" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="K40" s="11" t="s">
+      <c r="K40" s="10" t="s">
         <v>21</v>
       </c>
       <c r="L40" s="4" t="s">
@@ -4054,34 +4039,34 @@
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
     </row>
-    <row r="41" ht="100.8" spans="1:14">
+    <row r="41" ht="94.5" spans="1:14">
       <c r="A41" s="4">
         <v>40</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C41" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="E41" s="7" t="s">
         <v>165</v>
       </c>
       <c r="F41" s="4"/>
-      <c r="G41" s="8" t="s">
+      <c r="G41" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="H41" s="16" t="s">
+      <c r="H41" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="I41" s="16"/>
-      <c r="J41" s="15" t="s">
+      <c r="I41" s="15"/>
+      <c r="J41" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="K41" s="11" t="s">
+      <c r="K41" s="10" t="s">
         <v>21</v>
       </c>
       <c r="L41" s="4" t="s">
@@ -4090,36 +4075,36 @@
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
     </row>
-    <row r="42" ht="100.8" spans="1:14">
+    <row r="42" ht="81" spans="1:14">
       <c r="A42" s="4">
         <v>41</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C42" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="D42" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E42" s="8" t="s">
+      <c r="E42" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F42" s="18" t="s">
+      <c r="F42" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="G42" s="8" t="s">
+      <c r="G42" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="H42" s="16" t="s">
+      <c r="H42" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="I42" s="16"/>
-      <c r="J42" s="15" t="s">
+      <c r="I42" s="15"/>
+      <c r="J42" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="K42" s="11" t="s">
+      <c r="K42" s="10" t="s">
         <v>21</v>
       </c>
       <c r="L42" s="4" t="s">
@@ -4128,34 +4113,34 @@
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
     </row>
-    <row r="43" ht="100.8" spans="1:14">
+    <row r="43" ht="94.5" spans="1:14">
       <c r="A43" s="4">
         <v>42</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C43" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="D43" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E43" s="8" t="s">
+      <c r="E43" s="7" t="s">
         <v>173</v>
       </c>
       <c r="F43" s="4"/>
-      <c r="G43" s="8" t="s">
+      <c r="G43" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="H43" s="16" t="s">
+      <c r="H43" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="I43" s="16"/>
-      <c r="J43" s="15" t="s">
+      <c r="I43" s="15"/>
+      <c r="J43" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="K43" s="11" t="s">
+      <c r="K43" s="10" t="s">
         <v>21</v>
       </c>
       <c r="L43" s="4" t="s">
@@ -4164,34 +4149,34 @@
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
     </row>
-    <row r="44" ht="100.8" spans="1:14">
+    <row r="44" ht="94.5" spans="1:14">
       <c r="A44" s="4">
         <v>43</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C44" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="D44" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="E44" s="7" t="s">
         <v>178</v>
       </c>
       <c r="F44" s="4"/>
-      <c r="G44" s="8" t="s">
+      <c r="G44" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="H44" s="16" t="s">
+      <c r="H44" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="I44" s="16"/>
-      <c r="J44" s="15" t="s">
+      <c r="I44" s="15"/>
+      <c r="J44" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="K44" s="11" t="s">
+      <c r="K44" s="10" t="s">
         <v>21</v>
       </c>
       <c r="L44" s="4" t="s">
@@ -4200,34 +4185,34 @@
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
     </row>
-    <row r="45" ht="100.8" spans="1:14">
+    <row r="45" ht="94.5" spans="1:14">
       <c r="A45" s="4">
         <v>44</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="C45" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="D45" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="E45" s="7" t="s">
         <v>182</v>
       </c>
       <c r="F45" s="4"/>
-      <c r="G45" s="8" t="s">
+      <c r="G45" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="H45" s="16" t="s">
+      <c r="H45" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="I45" s="16"/>
-      <c r="J45" s="15" t="s">
+      <c r="I45" s="15"/>
+      <c r="J45" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="K45" s="11" t="s">
+      <c r="K45" s="10" t="s">
         <v>21</v>
       </c>
       <c r="L45" s="4" t="s">
@@ -4236,36 +4221,36 @@
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
     </row>
-    <row r="46" ht="100.8" spans="1:14">
+    <row r="46" ht="81" spans="1:14">
       <c r="A46" s="4">
         <v>45</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="C46" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="D46" s="11" t="s">
+      <c r="D46" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E46" s="8" t="s">
+      <c r="E46" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="F46" s="18" t="s">
+      <c r="F46" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="G46" s="8" t="s">
+      <c r="G46" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="H46" s="16" t="s">
+      <c r="H46" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="I46" s="16"/>
-      <c r="J46" s="15" t="s">
+      <c r="I46" s="15"/>
+      <c r="J46" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="K46" s="11" t="s">
+      <c r="K46" s="10" t="s">
         <v>21</v>
       </c>
       <c r="L46" s="4" t="s">
@@ -4274,34 +4259,34 @@
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
     </row>
-    <row r="47" ht="100.8" spans="1:14">
+    <row r="47" ht="94.5" spans="1:14">
       <c r="A47" s="4">
         <v>46</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="C47" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="D47" s="11" t="s">
+      <c r="D47" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E47" s="8" t="s">
+      <c r="E47" s="7" t="s">
         <v>192</v>
       </c>
       <c r="F47" s="4"/>
-      <c r="G47" s="8" t="s">
+      <c r="G47" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="H47" s="16" t="s">
+      <c r="H47" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="I47" s="16"/>
-      <c r="J47" s="15" t="s">
+      <c r="I47" s="15"/>
+      <c r="J47" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="K47" s="11" t="s">
+      <c r="K47" s="10" t="s">
         <v>21</v>
       </c>
       <c r="L47" s="4" t="s">
@@ -4310,34 +4295,34 @@
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
     </row>
-    <row r="48" ht="100.8" spans="1:14">
+    <row r="48" ht="94.5" spans="1:14">
       <c r="A48" s="4">
         <v>47</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="C48" s="15" t="s">
+      <c r="C48" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="D48" s="11" t="s">
+      <c r="D48" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E48" s="8" t="s">
+      <c r="E48" s="7" t="s">
         <v>196</v>
       </c>
       <c r="F48" s="4"/>
-      <c r="G48" s="8" t="s">
+      <c r="G48" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="H48" s="16" t="s">
+      <c r="H48" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="I48" s="16"/>
-      <c r="J48" s="15" t="s">
+      <c r="I48" s="15"/>
+      <c r="J48" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="K48" s="11" t="s">
+      <c r="K48" s="10" t="s">
         <v>21</v>
       </c>
       <c r="L48" s="4" t="s">
@@ -4346,36 +4331,36 @@
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
     </row>
-    <row r="49" ht="115.2" spans="1:14">
+    <row r="49" ht="108" spans="1:14">
       <c r="A49" s="4">
         <v>48</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C49" s="15" t="s">
+      <c r="C49" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="D49" s="11" t="s">
+      <c r="D49" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E49" s="8" t="s">
+      <c r="E49" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="F49" s="18" t="s">
+      <c r="F49" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="G49" s="8" t="s">
+      <c r="G49" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="H49" s="16" t="s">
+      <c r="H49" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="I49" s="16"/>
-      <c r="J49" s="15" t="s">
+      <c r="I49" s="15"/>
+      <c r="J49" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="K49" s="11" t="s">
+      <c r="K49" s="10" t="s">
         <v>21</v>
       </c>
       <c r="L49" s="4" t="s">
@@ -4384,34 +4369,34 @@
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
     </row>
-    <row r="50" ht="100.8" spans="1:14">
+    <row r="50" ht="94.5" spans="1:14">
       <c r="A50" s="4">
         <v>49</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="C50" s="15" t="s">
+      <c r="C50" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="D50" s="11" t="s">
+      <c r="D50" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E50" s="8" t="s">
+      <c r="E50" s="7" t="s">
         <v>203</v>
       </c>
       <c r="F50" s="4"/>
-      <c r="G50" s="8" t="s">
+      <c r="G50" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="H50" s="16" t="s">
+      <c r="H50" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="I50" s="16"/>
-      <c r="J50" s="15" t="s">
+      <c r="I50" s="15"/>
+      <c r="J50" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="K50" s="11" t="s">
+      <c r="K50" s="10" t="s">
         <v>21</v>
       </c>
       <c r="L50" s="4" t="s">
@@ -4420,36 +4405,36 @@
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
     </row>
-    <row r="51" ht="100.8" spans="1:14">
+    <row r="51" ht="94.5" spans="1:14">
       <c r="A51" s="4">
         <v>50</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="C51" s="15" t="s">
+      <c r="C51" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="D51" s="11" t="s">
+      <c r="D51" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E51" s="8" t="s">
+      <c r="E51" s="7" t="s">
         <v>207</v>
       </c>
       <c r="F51" s="4"/>
-      <c r="G51" s="8" t="s">
+      <c r="G51" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="H51" s="16" t="s">
+      <c r="H51" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="I51" s="16" t="s">
+      <c r="I51" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="J51" s="15" t="s">
+      <c r="J51" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="K51" s="11" t="s">
+      <c r="K51" s="10" t="s">
         <v>21</v>
       </c>
       <c r="L51" s="4" t="s">
@@ -4458,36 +4443,36 @@
       <c r="M51" s="4"/>
       <c r="N51" s="4"/>
     </row>
-    <row r="52" ht="100.8" spans="1:14">
+    <row r="52" ht="81" spans="1:14">
       <c r="A52" s="4">
         <v>51</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="C52" s="15" t="s">
+      <c r="C52" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="D52" s="11" t="s">
+      <c r="D52" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E52" s="8" t="s">
+      <c r="E52" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="F52" s="18" t="s">
+      <c r="F52" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="G52" s="8" t="s">
+      <c r="G52" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="H52" s="16" t="s">
+      <c r="H52" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="I52" s="14"/>
-      <c r="J52" s="15" t="s">
+      <c r="I52" s="13"/>
+      <c r="J52" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="K52" s="11" t="s">
+      <c r="K52" s="10" t="s">
         <v>21</v>
       </c>
       <c r="L52" s="4" t="s">
@@ -4496,36 +4481,36 @@
       <c r="M52" s="4"/>
       <c r="N52" s="4"/>
     </row>
-    <row r="53" ht="129.6" spans="1:14">
+    <row r="53" ht="121.5" spans="1:14">
       <c r="A53" s="4">
         <v>52</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="C53" s="15" t="s">
+      <c r="C53" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="D53" s="11" t="s">
+      <c r="D53" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E53" s="8" t="s">
+      <c r="E53" s="7" t="s">
         <v>212</v>
       </c>
       <c r="F53" s="4"/>
-      <c r="G53" s="8" t="s">
+      <c r="G53" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="H53" s="16" t="s">
+      <c r="H53" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="I53" s="16" t="s">
+      <c r="I53" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="J53" s="15" t="s">
+      <c r="J53" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="K53" s="11" t="s">
+      <c r="K53" s="10" t="s">
         <v>21</v>
       </c>
       <c r="L53" s="4" t="s">
@@ -4534,34 +4519,34 @@
       <c r="M53" s="4"/>
       <c r="N53" s="4"/>
     </row>
-    <row r="54" ht="100.8" spans="1:14">
+    <row r="54" ht="94.5" spans="1:14">
       <c r="A54" s="4">
         <v>53</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="C54" s="15" t="s">
+      <c r="C54" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="D54" s="11" t="s">
+      <c r="D54" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E54" s="8" t="s">
+      <c r="E54" s="7" t="s">
         <v>217</v>
       </c>
       <c r="F54" s="4"/>
-      <c r="G54" s="8" t="s">
+      <c r="G54" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="H54" s="16" t="s">
+      <c r="H54" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="I54" s="14"/>
-      <c r="J54" s="15" t="s">
+      <c r="I54" s="13"/>
+      <c r="J54" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="K54" s="11" t="s">
+      <c r="K54" s="10" t="s">
         <v>21</v>
       </c>
       <c r="L54" s="4" t="s">
@@ -4570,36 +4555,36 @@
       <c r="M54" s="4"/>
       <c r="N54" s="4"/>
     </row>
-    <row r="55" ht="100.8" spans="1:14">
+    <row r="55" ht="81" spans="1:14">
       <c r="A55" s="4">
         <v>54</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="C55" s="15" t="s">
+      <c r="C55" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="D55" s="11" t="s">
+      <c r="D55" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E55" s="8" t="s">
+      <c r="E55" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="F55" s="18" t="s">
+      <c r="F55" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="G55" s="8" t="s">
+      <c r="G55" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="H55" s="16" t="s">
+      <c r="H55" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="I55" s="22"/>
-      <c r="J55" s="15" t="s">
+      <c r="I55" s="19"/>
+      <c r="J55" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="K55" s="11" t="s">
+      <c r="K55" s="10" t="s">
         <v>21</v>
       </c>
       <c r="L55" s="4" t="s">
@@ -4608,34 +4593,34 @@
       <c r="M55" s="4"/>
       <c r="N55" s="4"/>
     </row>
-    <row r="56" ht="100.8" spans="1:14">
+    <row r="56" ht="94.5" spans="1:14">
       <c r="A56" s="4">
         <v>55</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="C56" s="15" t="s">
+      <c r="C56" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="D56" s="11" t="s">
+      <c r="D56" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E56" s="8" t="s">
+      <c r="E56" s="7" t="s">
         <v>226</v>
       </c>
       <c r="F56" s="4"/>
-      <c r="G56" s="8" t="s">
+      <c r="G56" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="H56" s="16" t="s">
+      <c r="H56" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="I56" s="14"/>
-      <c r="J56" s="15" t="s">
+      <c r="I56" s="13"/>
+      <c r="J56" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="K56" s="11" t="s">
+      <c r="K56" s="10" t="s">
         <v>21</v>
       </c>
       <c r="L56" s="4" t="s">
@@ -4644,36 +4629,36 @@
       <c r="M56" s="4"/>
       <c r="N56" s="4"/>
     </row>
-    <row r="57" ht="100.8" spans="1:14">
+    <row r="57" ht="81" spans="1:14">
       <c r="A57" s="4">
         <v>56</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="C57" s="15" t="s">
+      <c r="C57" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="D57" s="11" t="s">
+      <c r="D57" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E57" s="8" t="s">
+      <c r="E57" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="F57" s="18" t="s">
+      <c r="F57" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="G57" s="8" t="s">
+      <c r="G57" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="H57" s="16" t="s">
+      <c r="H57" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="I57" s="14"/>
-      <c r="J57" s="15" t="s">
+      <c r="I57" s="13"/>
+      <c r="J57" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="K57" s="11" t="s">
+      <c r="K57" s="10" t="s">
         <v>21</v>
       </c>
       <c r="L57" s="4" t="s">
@@ -4682,34 +4667,34 @@
       <c r="M57" s="4"/>
       <c r="N57" s="4"/>
     </row>
-    <row r="58" ht="100.8" spans="1:14">
+    <row r="58" ht="94.5" spans="1:14">
       <c r="A58" s="4">
         <v>57</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="C58" s="15" t="s">
+      <c r="C58" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="D58" s="11" t="s">
+      <c r="D58" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E58" s="8" t="s">
+      <c r="E58" s="7" t="s">
         <v>235</v>
       </c>
       <c r="F58" s="4"/>
-      <c r="G58" s="8" t="s">
+      <c r="G58" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="H58" s="16" t="s">
+      <c r="H58" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="I58" s="14"/>
-      <c r="J58" s="15" t="s">
+      <c r="I58" s="13"/>
+      <c r="J58" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="K58" s="11" t="s">
+      <c r="K58" s="10" t="s">
         <v>21</v>
       </c>
       <c r="L58" s="4" t="s">
@@ -4718,36 +4703,36 @@
       <c r="M58" s="4"/>
       <c r="N58" s="4"/>
     </row>
-    <row r="59" ht="100.8" spans="1:14">
+    <row r="59" ht="81" spans="1:14">
       <c r="A59" s="4">
         <v>58</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="C59" s="15" t="s">
+      <c r="C59" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="D59" s="11" t="s">
+      <c r="D59" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E59" s="8" t="s">
+      <c r="E59" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="F59" s="18" t="s">
+      <c r="F59" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="G59" s="8" t="s">
+      <c r="G59" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="H59" s="16" t="s">
+      <c r="H59" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="I59" s="14"/>
-      <c r="J59" s="15" t="s">
+      <c r="I59" s="13"/>
+      <c r="J59" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="K59" s="11" t="s">
+      <c r="K59" s="10" t="s">
         <v>21</v>
       </c>
       <c r="L59" s="4" t="s">
@@ -4756,34 +4741,34 @@
       <c r="M59" s="4"/>
       <c r="N59" s="4"/>
     </row>
-    <row r="60" ht="100.8" spans="1:14">
+    <row r="60" ht="94.5" spans="1:14">
       <c r="A60" s="4">
         <v>59</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="C60" s="15" t="s">
+      <c r="C60" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="D60" s="11" t="s">
+      <c r="D60" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E60" s="8" t="s">
+      <c r="E60" s="7" t="s">
         <v>244</v>
       </c>
       <c r="F60" s="4"/>
-      <c r="G60" s="8" t="s">
+      <c r="G60" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="H60" s="16" t="s">
+      <c r="H60" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="I60" s="14"/>
-      <c r="J60" s="15" t="s">
+      <c r="I60" s="13"/>
+      <c r="J60" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="K60" s="11" t="s">
+      <c r="K60" s="10" t="s">
         <v>21</v>
       </c>
       <c r="L60" s="4" t="s">
@@ -4792,36 +4777,36 @@
       <c r="M60" s="4"/>
       <c r="N60" s="4"/>
     </row>
-    <row r="61" ht="100.8" spans="1:14">
+    <row r="61" ht="81" spans="1:14">
       <c r="A61" s="4">
         <v>60</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="C61" s="15" t="s">
+      <c r="C61" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="D61" s="11" t="s">
+      <c r="D61" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E61" s="8" t="s">
+      <c r="E61" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F61" s="18" t="s">
+      <c r="F61" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="G61" s="8" t="s">
+      <c r="G61" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="H61" s="16" t="s">
+      <c r="H61" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="I61" s="14"/>
-      <c r="J61" s="15" t="s">
+      <c r="I61" s="13"/>
+      <c r="J61" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="K61" s="11" t="s">
+      <c r="K61" s="10" t="s">
         <v>21</v>
       </c>
       <c r="L61" s="4" t="s">
@@ -4830,34 +4815,34 @@
       <c r="M61" s="4"/>
       <c r="N61" s="4"/>
     </row>
-    <row r="62" ht="100.8" spans="1:14">
+    <row r="62" ht="94.5" spans="1:14">
       <c r="A62" s="4">
         <v>61</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="C62" s="15" t="s">
+      <c r="C62" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="D62" s="11" t="s">
+      <c r="D62" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E62" s="8" t="s">
+      <c r="E62" s="7" t="s">
         <v>253</v>
       </c>
       <c r="F62" s="4"/>
-      <c r="G62" s="8" t="s">
+      <c r="G62" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="H62" s="16" t="s">
+      <c r="H62" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="I62" s="14"/>
-      <c r="J62" s="15" t="s">
+      <c r="I62" s="13"/>
+      <c r="J62" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="K62" s="11" t="s">
+      <c r="K62" s="10" t="s">
         <v>21</v>
       </c>
       <c r="L62" s="4" t="s">
@@ -4866,36 +4851,36 @@
       <c r="M62" s="4"/>
       <c r="N62" s="4"/>
     </row>
-    <row r="63" ht="100.8" spans="1:14">
+    <row r="63" ht="81" spans="1:14">
       <c r="A63" s="4">
         <v>62</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="B63" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="C63" s="15" t="s">
+      <c r="C63" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="D63" s="11" t="s">
+      <c r="D63" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E63" s="8" t="s">
+      <c r="E63" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="F63" s="18" t="s">
+      <c r="F63" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="G63" s="8" t="s">
+      <c r="G63" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="H63" s="16" t="s">
+      <c r="H63" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="I63" s="14"/>
-      <c r="J63" s="15" t="s">
+      <c r="I63" s="13"/>
+      <c r="J63" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="K63" s="11" t="s">
+      <c r="K63" s="10" t="s">
         <v>21</v>
       </c>
       <c r="L63" s="4" t="s">
@@ -4904,34 +4889,34 @@
       <c r="M63" s="4"/>
       <c r="N63" s="4"/>
     </row>
-    <row r="64" ht="100.8" spans="1:14">
+    <row r="64" ht="94.5" spans="1:14">
       <c r="A64" s="4">
         <v>63</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="B64" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="C64" s="15" t="s">
+      <c r="C64" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="D64" s="11" t="s">
+      <c r="D64" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E64" s="8" t="s">
+      <c r="E64" s="7" t="s">
         <v>262</v>
       </c>
       <c r="F64" s="4"/>
-      <c r="G64" s="8" t="s">
+      <c r="G64" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="H64" s="16" t="s">
+      <c r="H64" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="I64" s="14"/>
-      <c r="J64" s="15" t="s">
+      <c r="I64" s="13"/>
+      <c r="J64" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="K64" s="11" t="s">
+      <c r="K64" s="10" t="s">
         <v>21</v>
       </c>
       <c r="L64" s="4" t="s">
@@ -4940,36 +4925,36 @@
       <c r="M64" s="4"/>
       <c r="N64" s="4"/>
     </row>
-    <row r="65" ht="100.8" spans="1:14">
+    <row r="65" ht="81" spans="1:14">
       <c r="A65" s="4">
         <v>64</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="C65" s="15" t="s">
+      <c r="C65" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="D65" s="11" t="s">
+      <c r="D65" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E65" s="8" t="s">
+      <c r="E65" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="F65" s="18" t="s">
+      <c r="F65" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="G65" s="8" t="s">
+      <c r="G65" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="H65" s="16" t="s">
+      <c r="H65" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="I65" s="14"/>
-      <c r="J65" s="15" t="s">
+      <c r="I65" s="13"/>
+      <c r="J65" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="K65" s="11" t="s">
+      <c r="K65" s="10" t="s">
         <v>21</v>
       </c>
       <c r="L65" s="4" t="s">
@@ -4978,34 +4963,34 @@
       <c r="M65" s="4"/>
       <c r="N65" s="4"/>
     </row>
-    <row r="66" ht="100.8" spans="1:14">
+    <row r="66" ht="94.5" spans="1:14">
       <c r="A66" s="4">
         <v>65</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B66" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="C66" s="15" t="s">
+      <c r="C66" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="D66" s="11" t="s">
+      <c r="D66" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E66" s="8" t="s">
+      <c r="E66" s="7" t="s">
         <v>271</v>
       </c>
       <c r="F66" s="4"/>
-      <c r="G66" s="16" t="s">
+      <c r="G66" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="H66" s="19" t="s">
+      <c r="H66" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="I66" s="14"/>
-      <c r="J66" s="15" t="s">
+      <c r="I66" s="13"/>
+      <c r="J66" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="K66" s="11" t="s">
+      <c r="K66" s="10" t="s">
         <v>21</v>
       </c>
       <c r="L66" s="4" t="s">
@@ -5014,34 +4999,34 @@
       <c r="M66" s="4"/>
       <c r="N66" s="4"/>
     </row>
-    <row r="67" ht="100.8" spans="1:14">
+    <row r="67" ht="81" spans="1:14">
       <c r="A67" s="4">
         <v>66</v>
       </c>
-      <c r="B67" s="10" t="s">
+      <c r="B67" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="C67" s="15" t="s">
+      <c r="C67" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="D67" s="11" t="s">
+      <c r="D67" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E67" s="8" t="s">
+      <c r="E67" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="F67" s="18" t="s">
+      <c r="F67" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="G67" s="16" t="s">
+      <c r="G67" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="H67" s="14"/>
-      <c r="I67" s="14"/>
-      <c r="J67" s="15" t="s">
+      <c r="H67" s="13"/>
+      <c r="I67" s="13"/>
+      <c r="J67" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="K67" s="11" t="s">
+      <c r="K67" s="10" t="s">
         <v>21</v>
       </c>
       <c r="L67" s="4" t="s">
@@ -5050,34 +5035,34 @@
       <c r="M67" s="4"/>
       <c r="N67" s="4"/>
     </row>
-    <row r="68" ht="100.8" spans="1:14">
+    <row r="68" ht="94.5" spans="1:14">
       <c r="A68" s="4">
         <v>67</v>
       </c>
-      <c r="B68" s="10" t="s">
+      <c r="B68" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="C68" s="15" t="s">
+      <c r="C68" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="D68" s="11" t="s">
+      <c r="D68" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E68" s="8" t="s">
+      <c r="E68" s="7" t="s">
         <v>278</v>
       </c>
       <c r="F68" s="4"/>
-      <c r="G68" s="16" t="s">
+      <c r="G68" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="H68" s="19" t="s">
+      <c r="H68" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="I68" s="14"/>
-      <c r="J68" s="15" t="s">
+      <c r="I68" s="13"/>
+      <c r="J68" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="K68" s="11" t="s">
+      <c r="K68" s="10" t="s">
         <v>21</v>
       </c>
       <c r="L68" s="4" t="s">
@@ -5086,34 +5071,34 @@
       <c r="M68" s="4"/>
       <c r="N68" s="4"/>
     </row>
-    <row r="69" ht="100.8" spans="1:14">
+    <row r="69" ht="94.5" spans="1:14">
       <c r="A69" s="4">
         <v>68</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="B69" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="C69" s="15" t="s">
+      <c r="C69" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="D69" s="11" t="s">
+      <c r="D69" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E69" s="8" t="s">
+      <c r="E69" s="7" t="s">
         <v>283</v>
       </c>
       <c r="F69" s="4"/>
-      <c r="G69" s="8" t="s">
+      <c r="G69" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="H69" s="19" t="s">
+      <c r="H69" s="17" t="s">
         <v>285</v>
       </c>
-      <c r="I69" s="14"/>
-      <c r="J69" s="15" t="s">
+      <c r="I69" s="13"/>
+      <c r="J69" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="K69" s="11" t="s">
+      <c r="K69" s="10" t="s">
         <v>21</v>
       </c>
       <c r="L69" s="4" t="s">
@@ -5122,36 +5107,36 @@
       <c r="M69" s="4"/>
       <c r="N69" s="4"/>
     </row>
-    <row r="70" ht="100.8" spans="1:14">
+    <row r="70" ht="81" spans="1:14">
       <c r="A70" s="4">
         <v>69</v>
       </c>
-      <c r="B70" s="10" t="s">
+      <c r="B70" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="C70" s="15" t="s">
+      <c r="C70" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="D70" s="11" t="s">
+      <c r="D70" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E70" s="8" t="s">
+      <c r="E70" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="F70" s="18" t="s">
+      <c r="F70" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="G70" s="8" t="s">
+      <c r="G70" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="H70" s="19" t="s">
+      <c r="H70" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="I70" s="14"/>
-      <c r="J70" s="15" t="s">
+      <c r="I70" s="13"/>
+      <c r="J70" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="K70" s="11" t="s">
+      <c r="K70" s="10" t="s">
         <v>21</v>
       </c>
       <c r="L70" s="4" t="s">
@@ -5160,34 +5145,34 @@
       <c r="M70" s="4"/>
       <c r="N70" s="4"/>
     </row>
-    <row r="71" ht="100.8" spans="1:14">
+    <row r="71" ht="94.5" spans="1:14">
       <c r="A71" s="4">
         <v>70</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="B71" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="C71" s="15" t="s">
+      <c r="C71" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="D71" s="11" t="s">
+      <c r="D71" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E71" s="8" t="s">
+      <c r="E71" s="7" t="s">
         <v>292</v>
       </c>
       <c r="F71" s="4"/>
-      <c r="G71" s="8" t="s">
+      <c r="G71" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="H71" s="16" t="s">
+      <c r="H71" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="I71" s="14"/>
-      <c r="J71" s="15" t="s">
+      <c r="I71" s="13"/>
+      <c r="J71" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="K71" s="11" t="s">
+      <c r="K71" s="10" t="s">
         <v>21</v>
       </c>
       <c r="L71" s="4" t="s">
@@ -5196,36 +5181,36 @@
       <c r="M71" s="4"/>
       <c r="N71" s="4"/>
     </row>
-    <row r="72" ht="100.8" spans="1:14">
+    <row r="72" ht="81" spans="1:14">
       <c r="A72" s="4">
         <v>71</v>
       </c>
-      <c r="B72" s="10" t="s">
+      <c r="B72" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="C72" s="15" t="s">
+      <c r="C72" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="D72" s="11" t="s">
+      <c r="D72" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E72" s="8" t="s">
+      <c r="E72" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="F72" s="18" t="s">
+      <c r="F72" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="G72" s="8" t="s">
+      <c r="G72" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="H72" s="16" t="s">
+      <c r="H72" s="15" t="s">
         <v>298</v>
       </c>
-      <c r="I72" s="14"/>
-      <c r="J72" s="15" t="s">
+      <c r="I72" s="13"/>
+      <c r="J72" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="K72" s="11" t="s">
+      <c r="K72" s="10" t="s">
         <v>21</v>
       </c>
       <c r="L72" s="4" t="s">
@@ -5236,15 +5221,15 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="4"/>
-      <c r="B73" s="23"/>
-      <c r="C73" s="15"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
+      <c r="B73" s="20"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
       <c r="F73" s="4"/>
-      <c r="G73" s="19"/>
-      <c r="H73" s="14"/>
-      <c r="I73" s="14"/>
-      <c r="J73" s="15"/>
+      <c r="G73" s="17"/>
+      <c r="H73" s="13"/>
+      <c r="I73" s="13"/>
+      <c r="J73" s="14"/>
       <c r="K73" s="4"/>
       <c r="L73" s="4"/>
       <c r="M73" s="4"/>
@@ -5252,15 +5237,15 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="4"/>
-      <c r="B74" s="23"/>
-      <c r="C74" s="24"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="10"/>
+      <c r="B74" s="20"/>
+      <c r="C74" s="21"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="9"/>
       <c r="F74" s="4"/>
-      <c r="G74" s="19"/>
-      <c r="H74" s="14"/>
-      <c r="I74" s="14"/>
-      <c r="J74" s="26"/>
+      <c r="G74" s="17"/>
+      <c r="H74" s="13"/>
+      <c r="I74" s="13"/>
+      <c r="J74" s="23"/>
       <c r="K74" s="4"/>
       <c r="L74" s="4"/>
       <c r="M74" s="4"/>
@@ -5268,15 +5253,15 @@
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="4"/>
-      <c r="B75" s="23"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="10"/>
+      <c r="B75" s="20"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="9"/>
       <c r="F75" s="4"/>
-      <c r="G75" s="19"/>
-      <c r="H75" s="14"/>
-      <c r="I75" s="14"/>
-      <c r="J75" s="26"/>
+      <c r="G75" s="17"/>
+      <c r="H75" s="13"/>
+      <c r="I75" s="13"/>
+      <c r="J75" s="23"/>
       <c r="K75" s="4"/>
       <c r="L75" s="4"/>
       <c r="M75" s="4"/>
@@ -5284,15 +5269,15 @@
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="4"/>
-      <c r="B76" s="23"/>
-      <c r="C76" s="15"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
+      <c r="B76" s="20"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
       <c r="F76" s="4"/>
-      <c r="G76" s="19"/>
-      <c r="H76" s="14"/>
-      <c r="I76" s="14"/>
-      <c r="J76" s="15"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="13"/>
+      <c r="I76" s="13"/>
+      <c r="J76" s="14"/>
       <c r="K76" s="4"/>
       <c r="L76" s="4"/>
       <c r="M76" s="4"/>
@@ -5300,15 +5285,15 @@
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="4"/>
-      <c r="B77" s="23"/>
-      <c r="C77" s="15"/>
-      <c r="D77" s="8"/>
+      <c r="B77" s="20"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="7"/>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
-      <c r="G77" s="19"/>
-      <c r="H77" s="14"/>
-      <c r="I77" s="14"/>
-      <c r="J77" s="15"/>
+      <c r="G77" s="17"/>
+      <c r="H77" s="13"/>
+      <c r="I77" s="13"/>
+      <c r="J77" s="14"/>
       <c r="K77" s="4"/>
       <c r="L77" s="4"/>
       <c r="M77" s="4"/>
@@ -5316,15 +5301,15 @@
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="4"/>
-      <c r="B78" s="23"/>
-      <c r="C78" s="15"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="10"/>
+      <c r="B78" s="20"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="9"/>
       <c r="F78" s="4"/>
-      <c r="G78" s="19"/>
-      <c r="H78" s="14"/>
-      <c r="I78" s="14"/>
-      <c r="J78" s="15"/>
+      <c r="G78" s="17"/>
+      <c r="H78" s="13"/>
+      <c r="I78" s="13"/>
+      <c r="J78" s="14"/>
       <c r="K78" s="4"/>
       <c r="L78" s="4"/>
       <c r="M78" s="4"/>
@@ -5332,15 +5317,15 @@
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="4"/>
-      <c r="B79" s="23"/>
-      <c r="C79" s="15"/>
-      <c r="D79" s="8"/>
+      <c r="B79" s="20"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="7"/>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
-      <c r="G79" s="19"/>
-      <c r="H79" s="14"/>
-      <c r="I79" s="14"/>
-      <c r="J79" s="15"/>
+      <c r="G79" s="17"/>
+      <c r="H79" s="13"/>
+      <c r="I79" s="13"/>
+      <c r="J79" s="14"/>
       <c r="K79" s="4"/>
       <c r="L79" s="4"/>
       <c r="M79" s="4"/>
@@ -5348,15 +5333,15 @@
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="4"/>
-      <c r="B80" s="23"/>
-      <c r="C80" s="15"/>
-      <c r="D80" s="8"/>
-      <c r="E80" s="10"/>
+      <c r="B80" s="20"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="9"/>
       <c r="F80" s="4"/>
-      <c r="G80" s="19"/>
-      <c r="H80" s="14"/>
-      <c r="I80" s="14"/>
-      <c r="J80" s="15"/>
+      <c r="G80" s="17"/>
+      <c r="H80" s="13"/>
+      <c r="I80" s="13"/>
+      <c r="J80" s="14"/>
       <c r="K80" s="4"/>
       <c r="L80" s="4"/>
       <c r="M80" s="4"/>
@@ -5364,15 +5349,15 @@
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="4"/>
-      <c r="B81" s="23"/>
-      <c r="C81" s="15"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="10"/>
+      <c r="B81" s="20"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="9"/>
       <c r="F81" s="4"/>
-      <c r="G81" s="19"/>
-      <c r="H81" s="14"/>
-      <c r="I81" s="14"/>
-      <c r="J81" s="15"/>
+      <c r="G81" s="17"/>
+      <c r="H81" s="13"/>
+      <c r="I81" s="13"/>
+      <c r="J81" s="14"/>
       <c r="K81" s="4"/>
       <c r="L81" s="4"/>
       <c r="M81" s="4"/>
@@ -5380,15 +5365,15 @@
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="4"/>
-      <c r="B82" s="23"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="8"/>
-      <c r="E82" s="10"/>
+      <c r="B82" s="20"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="9"/>
       <c r="F82" s="4"/>
-      <c r="G82" s="19"/>
-      <c r="H82" s="14"/>
-      <c r="I82" s="14"/>
-      <c r="J82" s="15"/>
+      <c r="G82" s="17"/>
+      <c r="H82" s="13"/>
+      <c r="I82" s="13"/>
+      <c r="J82" s="14"/>
       <c r="K82" s="4"/>
       <c r="L82" s="4"/>
       <c r="M82" s="4"/>
@@ -5396,15 +5381,15 @@
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="4"/>
-      <c r="B83" s="23"/>
-      <c r="C83" s="15"/>
-      <c r="D83" s="8"/>
+      <c r="B83" s="20"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="7"/>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
-      <c r="G83" s="19"/>
-      <c r="H83" s="14"/>
-      <c r="I83" s="14"/>
-      <c r="J83" s="15"/>
+      <c r="G83" s="17"/>
+      <c r="H83" s="13"/>
+      <c r="I83" s="13"/>
+      <c r="J83" s="14"/>
       <c r="K83" s="4"/>
       <c r="L83" s="4"/>
       <c r="M83" s="4"/>
@@ -5412,15 +5397,15 @@
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="4"/>
-      <c r="B84" s="23"/>
-      <c r="C84" s="15"/>
-      <c r="D84" s="8"/>
-      <c r="E84" s="10"/>
+      <c r="B84" s="20"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="9"/>
       <c r="F84" s="4"/>
-      <c r="G84" s="19"/>
-      <c r="H84" s="14"/>
-      <c r="I84" s="14"/>
-      <c r="J84" s="15"/>
+      <c r="G84" s="17"/>
+      <c r="H84" s="13"/>
+      <c r="I84" s="13"/>
+      <c r="J84" s="14"/>
       <c r="K84" s="4"/>
       <c r="L84" s="4"/>
       <c r="M84" s="4"/>
@@ -5428,15 +5413,15 @@
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="4"/>
-      <c r="B85" s="23"/>
-      <c r="C85" s="15"/>
-      <c r="D85" s="8"/>
+      <c r="B85" s="20"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="7"/>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
-      <c r="G85" s="19"/>
-      <c r="H85" s="14"/>
-      <c r="I85" s="14"/>
-      <c r="J85" s="15"/>
+      <c r="G85" s="17"/>
+      <c r="H85" s="13"/>
+      <c r="I85" s="13"/>
+      <c r="J85" s="14"/>
       <c r="K85" s="4"/>
       <c r="L85" s="4"/>
       <c r="M85" s="4"/>
@@ -5444,15 +5429,15 @@
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="4"/>
-      <c r="B86" s="23"/>
-      <c r="C86" s="15"/>
-      <c r="D86" s="8"/>
-      <c r="E86" s="8"/>
-      <c r="F86" s="8"/>
-      <c r="G86" s="16"/>
-      <c r="H86" s="16"/>
-      <c r="I86" s="16"/>
-      <c r="J86" s="15"/>
+      <c r="B86" s="20"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="15"/>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="14"/>
       <c r="K86" s="4"/>
       <c r="L86" s="4"/>
       <c r="M86" s="4"/>
@@ -5460,15 +5445,15 @@
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="4"/>
-      <c r="B87" s="23"/>
-      <c r="C87" s="15"/>
-      <c r="D87" s="8"/>
-      <c r="E87" s="8"/>
-      <c r="F87" s="8"/>
-      <c r="G87" s="16"/>
-      <c r="H87" s="16"/>
-      <c r="I87" s="16"/>
-      <c r="J87" s="15"/>
+      <c r="B87" s="20"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="15"/>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15"/>
+      <c r="J87" s="14"/>
       <c r="K87" s="4"/>
       <c r="L87" s="4"/>
       <c r="M87" s="4"/>
@@ -5476,15 +5461,15 @@
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="4"/>
-      <c r="B88" s="23"/>
-      <c r="C88" s="15"/>
-      <c r="D88" s="8"/>
-      <c r="E88" s="8"/>
-      <c r="F88" s="8"/>
-      <c r="G88" s="16"/>
-      <c r="H88" s="16"/>
-      <c r="I88" s="16"/>
-      <c r="J88" s="15"/>
+      <c r="B88" s="20"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="15"/>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="14"/>
       <c r="K88" s="4"/>
       <c r="L88" s="4"/>
       <c r="M88" s="4"/>
@@ -5492,15 +5477,15 @@
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="4"/>
-      <c r="B89" s="23"/>
-      <c r="C89" s="15"/>
-      <c r="D89" s="8"/>
-      <c r="E89" s="8"/>
-      <c r="F89" s="8"/>
-      <c r="G89" s="16"/>
-      <c r="H89" s="16"/>
-      <c r="I89" s="16"/>
-      <c r="J89" s="15"/>
+      <c r="B89" s="20"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="15"/>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="14"/>
       <c r="K89" s="4"/>
       <c r="L89" s="4"/>
       <c r="M89" s="4"/>
@@ -5508,15 +5493,15 @@
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="4"/>
-      <c r="B90" s="23"/>
-      <c r="C90" s="15"/>
-      <c r="D90" s="8"/>
-      <c r="E90" s="8"/>
-      <c r="F90" s="8"/>
-      <c r="G90" s="16"/>
-      <c r="H90" s="16"/>
-      <c r="I90" s="16"/>
-      <c r="J90" s="15"/>
+      <c r="B90" s="20"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="15"/>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="14"/>
       <c r="K90" s="4"/>
       <c r="L90" s="4"/>
       <c r="M90" s="4"/>
@@ -5524,15 +5509,15 @@
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="4"/>
-      <c r="B91" s="23"/>
-      <c r="C91" s="15"/>
-      <c r="D91" s="8"/>
-      <c r="E91" s="8"/>
-      <c r="F91" s="8"/>
-      <c r="G91" s="16"/>
-      <c r="H91" s="16"/>
-      <c r="I91" s="16"/>
-      <c r="J91" s="15"/>
+      <c r="B91" s="20"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="15"/>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="14"/>
       <c r="K91" s="4"/>
       <c r="L91" s="4"/>
       <c r="M91" s="4"/>
@@ -5540,15 +5525,15 @@
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="4"/>
-      <c r="B92" s="23"/>
-      <c r="C92" s="15"/>
-      <c r="D92" s="8"/>
-      <c r="E92" s="8"/>
-      <c r="F92" s="8"/>
-      <c r="G92" s="16"/>
-      <c r="H92" s="16"/>
-      <c r="I92" s="16"/>
-      <c r="J92" s="15"/>
+      <c r="B92" s="20"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="15"/>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="14"/>
       <c r="K92" s="4"/>
       <c r="L92" s="4"/>
       <c r="M92" s="4"/>
@@ -5556,15 +5541,15 @@
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="4"/>
-      <c r="B93" s="23"/>
-      <c r="C93" s="15"/>
-      <c r="D93" s="8"/>
-      <c r="E93" s="8"/>
-      <c r="F93" s="8"/>
-      <c r="G93" s="16"/>
-      <c r="H93" s="16"/>
-      <c r="I93" s="16"/>
-      <c r="J93" s="15"/>
+      <c r="B93" s="20"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="15"/>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="14"/>
       <c r="K93" s="4"/>
       <c r="L93" s="4"/>
       <c r="M93" s="4"/>
@@ -5572,15 +5557,15 @@
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="4"/>
-      <c r="B94" s="23"/>
-      <c r="C94" s="15"/>
-      <c r="D94" s="8"/>
-      <c r="E94" s="8"/>
+      <c r="B94" s="20"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
       <c r="F94" s="4"/>
-      <c r="G94" s="19"/>
-      <c r="H94" s="14"/>
-      <c r="I94" s="14"/>
-      <c r="J94" s="15"/>
+      <c r="G94" s="17"/>
+      <c r="H94" s="13"/>
+      <c r="I94" s="13"/>
+      <c r="J94" s="14"/>
       <c r="K94" s="4"/>
       <c r="L94" s="4"/>
       <c r="M94" s="4"/>
@@ -5588,15 +5573,15 @@
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="4"/>
-      <c r="B95" s="23"/>
-      <c r="C95" s="15"/>
-      <c r="D95" s="8"/>
-      <c r="E95" s="10"/>
+      <c r="B95" s="20"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="9"/>
       <c r="F95" s="4"/>
-      <c r="G95" s="19"/>
-      <c r="H95" s="14"/>
-      <c r="I95" s="14"/>
-      <c r="J95" s="14"/>
+      <c r="G95" s="17"/>
+      <c r="H95" s="13"/>
+      <c r="I95" s="13"/>
+      <c r="J95" s="13"/>
       <c r="K95" s="4"/>
       <c r="L95" s="4"/>
       <c r="M95" s="4"/>
@@ -5604,15 +5589,15 @@
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="4"/>
-      <c r="B96" s="23"/>
-      <c r="C96" s="15"/>
-      <c r="D96" s="8"/>
-      <c r="E96" s="10"/>
+      <c r="B96" s="20"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="9"/>
       <c r="F96" s="4"/>
-      <c r="G96" s="19"/>
-      <c r="H96" s="14"/>
-      <c r="I96" s="14"/>
-      <c r="J96" s="14"/>
+      <c r="G96" s="17"/>
+      <c r="H96" s="13"/>
+      <c r="I96" s="13"/>
+      <c r="J96" s="13"/>
       <c r="K96" s="4"/>
       <c r="L96" s="4"/>
       <c r="M96" s="4"/>
@@ -5620,15 +5605,15 @@
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="4"/>
-      <c r="B97" s="23"/>
-      <c r="C97" s="15"/>
-      <c r="D97" s="8"/>
-      <c r="E97" s="10"/>
+      <c r="B97" s="20"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="9"/>
       <c r="F97" s="4"/>
-      <c r="G97" s="19"/>
-      <c r="H97" s="14"/>
-      <c r="I97" s="14"/>
-      <c r="J97" s="14"/>
+      <c r="G97" s="17"/>
+      <c r="H97" s="13"/>
+      <c r="I97" s="13"/>
+      <c r="J97" s="13"/>
       <c r="K97" s="4"/>
       <c r="L97" s="4"/>
       <c r="M97" s="4"/>
@@ -5636,15 +5621,15 @@
     </row>
     <row r="98" spans="1:14">
       <c r="A98" s="4"/>
-      <c r="B98" s="23"/>
-      <c r="C98" s="15"/>
-      <c r="D98" s="8"/>
-      <c r="E98" s="10"/>
+      <c r="B98" s="20"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="9"/>
       <c r="F98" s="4"/>
-      <c r="G98" s="19"/>
-      <c r="H98" s="14"/>
-      <c r="I98" s="14"/>
-      <c r="J98" s="14"/>
+      <c r="G98" s="17"/>
+      <c r="H98" s="13"/>
+      <c r="I98" s="13"/>
+      <c r="J98" s="13"/>
       <c r="K98" s="4"/>
       <c r="L98" s="4"/>
       <c r="M98" s="4"/>
@@ -5652,15 +5637,15 @@
     </row>
     <row r="99" spans="1:14">
       <c r="A99" s="4"/>
-      <c r="B99" s="23"/>
-      <c r="C99" s="15"/>
-      <c r="D99" s="8"/>
-      <c r="E99" s="10"/>
+      <c r="B99" s="20"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="9"/>
       <c r="F99" s="4"/>
-      <c r="G99" s="19"/>
-      <c r="H99" s="14"/>
-      <c r="I99" s="14"/>
-      <c r="J99" s="15"/>
+      <c r="G99" s="17"/>
+      <c r="H99" s="13"/>
+      <c r="I99" s="13"/>
+      <c r="J99" s="14"/>
       <c r="K99" s="4"/>
       <c r="L99" s="4"/>
       <c r="M99" s="4"/>
@@ -5668,15 +5653,15 @@
     </row>
     <row r="100" spans="1:14">
       <c r="A100" s="4"/>
-      <c r="B100" s="23"/>
-      <c r="C100" s="15"/>
-      <c r="D100" s="8"/>
-      <c r="E100" s="10"/>
+      <c r="B100" s="20"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="9"/>
       <c r="F100" s="4"/>
-      <c r="G100" s="19"/>
-      <c r="H100" s="14"/>
-      <c r="I100" s="14"/>
-      <c r="J100" s="15"/>
+      <c r="G100" s="17"/>
+      <c r="H100" s="13"/>
+      <c r="I100" s="13"/>
+      <c r="J100" s="14"/>
       <c r="K100" s="4"/>
       <c r="L100" s="4"/>
       <c r="M100" s="4"/>
@@ -5684,15 +5669,15 @@
     </row>
     <row r="101" spans="1:14">
       <c r="A101" s="4"/>
-      <c r="B101" s="23"/>
-      <c r="C101" s="26"/>
-      <c r="D101" s="10"/>
+      <c r="B101" s="20"/>
+      <c r="C101" s="23"/>
+      <c r="D101" s="9"/>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
-      <c r="G101" s="19"/>
-      <c r="H101" s="14"/>
-      <c r="I101" s="14"/>
-      <c r="J101" s="21"/>
+      <c r="G101" s="17"/>
+      <c r="H101" s="13"/>
+      <c r="I101" s="13"/>
+      <c r="J101" s="18"/>
       <c r="K101" s="4"/>
       <c r="L101" s="4"/>
       <c r="M101" s="4"/>
@@ -5700,15 +5685,15 @@
     </row>
     <row r="102" spans="1:14">
       <c r="A102" s="4"/>
-      <c r="B102" s="23"/>
-      <c r="C102" s="26"/>
-      <c r="D102" s="10"/>
+      <c r="B102" s="20"/>
+      <c r="C102" s="23"/>
+      <c r="D102" s="9"/>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
-      <c r="G102" s="19"/>
-      <c r="H102" s="14"/>
-      <c r="I102" s="14"/>
-      <c r="J102" s="21"/>
+      <c r="G102" s="17"/>
+      <c r="H102" s="13"/>
+      <c r="I102" s="13"/>
+      <c r="J102" s="18"/>
       <c r="K102" s="4"/>
       <c r="L102" s="4"/>
       <c r="M102" s="4"/>
@@ -5716,15 +5701,15 @@
     </row>
     <row r="103" spans="1:14">
       <c r="A103" s="4"/>
-      <c r="B103" s="23"/>
-      <c r="C103" s="26"/>
-      <c r="D103" s="8"/>
-      <c r="E103" s="10"/>
+      <c r="B103" s="20"/>
+      <c r="C103" s="23"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="9"/>
       <c r="F103" s="4"/>
-      <c r="G103" s="19"/>
-      <c r="H103" s="14"/>
-      <c r="I103" s="14"/>
-      <c r="J103" s="26"/>
+      <c r="G103" s="17"/>
+      <c r="H103" s="13"/>
+      <c r="I103" s="13"/>
+      <c r="J103" s="23"/>
       <c r="K103" s="4"/>
       <c r="L103" s="4"/>
       <c r="M103" s="4"/>
@@ -5732,15 +5717,15 @@
     </row>
     <row r="104" spans="1:14">
       <c r="A104" s="4"/>
-      <c r="B104" s="23"/>
-      <c r="C104" s="26"/>
-      <c r="D104" s="8"/>
-      <c r="E104" s="10"/>
+      <c r="B104" s="20"/>
+      <c r="C104" s="23"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="9"/>
       <c r="F104" s="4"/>
-      <c r="G104" s="19"/>
-      <c r="H104" s="14"/>
-      <c r="I104" s="14"/>
-      <c r="J104" s="26"/>
+      <c r="G104" s="17"/>
+      <c r="H104" s="13"/>
+      <c r="I104" s="13"/>
+      <c r="J104" s="23"/>
       <c r="K104" s="4"/>
       <c r="L104" s="4"/>
       <c r="M104" s="4"/>
@@ -5748,15 +5733,15 @@
     </row>
     <row r="105" spans="1:14">
       <c r="A105" s="4"/>
-      <c r="B105" s="23"/>
-      <c r="C105" s="26"/>
-      <c r="D105" s="8"/>
-      <c r="E105" s="10"/>
+      <c r="B105" s="20"/>
+      <c r="C105" s="23"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="9"/>
       <c r="F105" s="4"/>
-      <c r="G105" s="19"/>
-      <c r="H105" s="14"/>
-      <c r="I105" s="14"/>
-      <c r="J105" s="26"/>
+      <c r="G105" s="17"/>
+      <c r="H105" s="13"/>
+      <c r="I105" s="13"/>
+      <c r="J105" s="23"/>
       <c r="K105" s="4"/>
       <c r="L105" s="4"/>
       <c r="M105" s="4"/>
@@ -5764,15 +5749,15 @@
     </row>
     <row r="106" spans="1:14">
       <c r="A106" s="4"/>
-      <c r="B106" s="23"/>
-      <c r="C106" s="26"/>
-      <c r="D106" s="8"/>
-      <c r="E106" s="10"/>
+      <c r="B106" s="20"/>
+      <c r="C106" s="23"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="9"/>
       <c r="F106" s="4"/>
-      <c r="G106" s="19"/>
-      <c r="H106" s="14"/>
-      <c r="I106" s="14"/>
-      <c r="J106" s="26"/>
+      <c r="G106" s="17"/>
+      <c r="H106" s="13"/>
+      <c r="I106" s="13"/>
+      <c r="J106" s="23"/>
       <c r="K106" s="4"/>
       <c r="L106" s="4"/>
       <c r="M106" s="4"/>
@@ -5780,15 +5765,15 @@
     </row>
     <row r="107" spans="1:14">
       <c r="A107" s="4"/>
-      <c r="B107" s="23"/>
-      <c r="C107" s="26"/>
-      <c r="D107" s="8"/>
-      <c r="E107" s="27"/>
+      <c r="B107" s="20"/>
+      <c r="C107" s="23"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="24"/>
       <c r="F107" s="4"/>
-      <c r="G107" s="19"/>
-      <c r="H107" s="14"/>
-      <c r="I107" s="14"/>
-      <c r="J107" s="26"/>
+      <c r="G107" s="17"/>
+      <c r="H107" s="13"/>
+      <c r="I107" s="13"/>
+      <c r="J107" s="23"/>
       <c r="K107" s="4"/>
       <c r="L107" s="4"/>
       <c r="M107" s="4"/>
@@ -5796,15 +5781,15 @@
     </row>
     <row r="108" spans="1:14">
       <c r="A108" s="4"/>
-      <c r="B108" s="23"/>
-      <c r="C108" s="26"/>
-      <c r="D108" s="8"/>
-      <c r="E108" s="27"/>
+      <c r="B108" s="20"/>
+      <c r="C108" s="23"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="24"/>
       <c r="F108" s="4"/>
-      <c r="G108" s="19"/>
-      <c r="H108" s="14"/>
-      <c r="I108" s="14"/>
-      <c r="J108" s="26"/>
+      <c r="G108" s="17"/>
+      <c r="H108" s="13"/>
+      <c r="I108" s="13"/>
+      <c r="J108" s="23"/>
       <c r="K108" s="4"/>
       <c r="L108" s="4"/>
       <c r="M108" s="4"/>
@@ -5812,15 +5797,15 @@
     </row>
     <row r="109" spans="1:14">
       <c r="A109" s="4"/>
-      <c r="B109" s="23"/>
-      <c r="C109" s="26"/>
-      <c r="D109" s="8"/>
-      <c r="E109" s="27"/>
+      <c r="B109" s="20"/>
+      <c r="C109" s="23"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="24"/>
       <c r="F109" s="4"/>
-      <c r="G109" s="19"/>
-      <c r="H109" s="14"/>
-      <c r="I109" s="14"/>
-      <c r="J109" s="26"/>
+      <c r="G109" s="17"/>
+      <c r="H109" s="13"/>
+      <c r="I109" s="13"/>
+      <c r="J109" s="23"/>
       <c r="K109" s="4"/>
       <c r="L109" s="4"/>
       <c r="M109" s="4"/>
@@ -5828,15 +5813,15 @@
     </row>
     <row r="110" spans="1:14">
       <c r="A110" s="4"/>
-      <c r="B110" s="23"/>
-      <c r="C110" s="26"/>
-      <c r="D110" s="8"/>
-      <c r="E110" s="27"/>
+      <c r="B110" s="20"/>
+      <c r="C110" s="23"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="24"/>
       <c r="F110" s="4"/>
-      <c r="G110" s="19"/>
-      <c r="H110" s="14"/>
-      <c r="I110" s="14"/>
-      <c r="J110" s="26"/>
+      <c r="G110" s="17"/>
+      <c r="H110" s="13"/>
+      <c r="I110" s="13"/>
+      <c r="J110" s="23"/>
       <c r="K110" s="4"/>
       <c r="L110" s="4"/>
       <c r="M110" s="4"/>
@@ -5844,15 +5829,15 @@
     </row>
     <row r="111" spans="1:14">
       <c r="A111" s="4"/>
-      <c r="B111" s="23"/>
-      <c r="C111" s="26"/>
-      <c r="D111" s="8"/>
-      <c r="E111" s="28"/>
+      <c r="B111" s="20"/>
+      <c r="C111" s="23"/>
+      <c r="D111" s="7"/>
+      <c r="E111" s="25"/>
       <c r="F111" s="4"/>
-      <c r="G111" s="19"/>
-      <c r="H111" s="14"/>
-      <c r="I111" s="14"/>
-      <c r="J111" s="26"/>
+      <c r="G111" s="17"/>
+      <c r="H111" s="13"/>
+      <c r="I111" s="13"/>
+      <c r="J111" s="23"/>
       <c r="K111" s="4"/>
       <c r="L111" s="4"/>
       <c r="M111" s="4"/>
@@ -5860,15 +5845,15 @@
     </row>
     <row r="112" spans="1:14">
       <c r="A112" s="4"/>
-      <c r="B112" s="23"/>
-      <c r="C112" s="26"/>
-      <c r="D112" s="8"/>
-      <c r="E112" s="28"/>
+      <c r="B112" s="20"/>
+      <c r="C112" s="23"/>
+      <c r="D112" s="7"/>
+      <c r="E112" s="25"/>
       <c r="F112" s="4"/>
-      <c r="G112" s="19"/>
-      <c r="H112" s="14"/>
-      <c r="I112" s="14"/>
-      <c r="J112" s="26"/>
+      <c r="G112" s="17"/>
+      <c r="H112" s="13"/>
+      <c r="I112" s="13"/>
+      <c r="J112" s="23"/>
       <c r="K112" s="4"/>
       <c r="L112" s="4"/>
       <c r="M112" s="4"/>
@@ -5876,15 +5861,15 @@
     </row>
     <row r="113" spans="1:14">
       <c r="A113" s="4"/>
-      <c r="B113" s="23"/>
-      <c r="C113" s="15"/>
-      <c r="D113" s="8"/>
-      <c r="E113" s="28"/>
+      <c r="B113" s="20"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="7"/>
+      <c r="E113" s="25"/>
       <c r="F113" s="4"/>
-      <c r="G113" s="19"/>
-      <c r="H113" s="14"/>
-      <c r="I113" s="14"/>
-      <c r="J113" s="15"/>
+      <c r="G113" s="17"/>
+      <c r="H113" s="13"/>
+      <c r="I113" s="13"/>
+      <c r="J113" s="14"/>
       <c r="K113" s="4"/>
       <c r="L113" s="4"/>
       <c r="M113" s="4"/>
@@ -5892,15 +5877,15 @@
     </row>
     <row r="114" spans="1:14">
       <c r="A114" s="4"/>
-      <c r="B114" s="23"/>
-      <c r="C114" s="15"/>
-      <c r="D114" s="8"/>
-      <c r="E114" s="28"/>
+      <c r="B114" s="20"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="7"/>
+      <c r="E114" s="25"/>
       <c r="F114" s="4"/>
-      <c r="G114" s="19"/>
-      <c r="H114" s="14"/>
-      <c r="I114" s="14"/>
-      <c r="J114" s="15"/>
+      <c r="G114" s="17"/>
+      <c r="H114" s="13"/>
+      <c r="I114" s="13"/>
+      <c r="J114" s="14"/>
       <c r="K114" s="4"/>
       <c r="L114" s="4"/>
       <c r="M114" s="4"/>
@@ -5908,15 +5893,15 @@
     </row>
     <row r="115" spans="1:14">
       <c r="A115" s="4"/>
-      <c r="B115" s="23"/>
-      <c r="C115" s="15"/>
-      <c r="D115" s="8"/>
-      <c r="E115" s="28"/>
+      <c r="B115" s="20"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="7"/>
+      <c r="E115" s="25"/>
       <c r="F115" s="4"/>
-      <c r="G115" s="19"/>
-      <c r="H115" s="14"/>
-      <c r="I115" s="14"/>
-      <c r="J115" s="15"/>
+      <c r="G115" s="17"/>
+      <c r="H115" s="13"/>
+      <c r="I115" s="13"/>
+      <c r="J115" s="14"/>
       <c r="K115" s="4"/>
       <c r="L115" s="4"/>
       <c r="M115" s="4"/>
@@ -5924,15 +5909,15 @@
     </row>
     <row r="116" spans="1:14">
       <c r="A116" s="4"/>
-      <c r="B116" s="23"/>
-      <c r="C116" s="15"/>
-      <c r="D116" s="8"/>
+      <c r="B116" s="20"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="7"/>
       <c r="E116" s="4"/>
-      <c r="F116" s="28"/>
-      <c r="G116" s="29"/>
-      <c r="H116" s="29"/>
-      <c r="I116" s="29"/>
-      <c r="J116" s="15"/>
+      <c r="F116" s="25"/>
+      <c r="G116" s="26"/>
+      <c r="H116" s="26"/>
+      <c r="I116" s="26"/>
+      <c r="J116" s="14"/>
       <c r="K116" s="4"/>
       <c r="L116" s="4"/>
       <c r="M116" s="4"/>
@@ -5942,10 +5927,10 @@
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
-      <c r="D117" s="11"/>
+      <c r="D117" s="10"/>
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
-      <c r="G117" s="11"/>
+      <c r="G117" s="10"/>
       <c r="H117" s="4"/>
       <c r="I117" s="4"/>
       <c r="J117" s="4"/>
@@ -5958,10 +5943,10 @@
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
-      <c r="D118" s="11"/>
+      <c r="D118" s="10"/>
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
-      <c r="G118" s="11"/>
+      <c r="G118" s="10"/>
       <c r="H118" s="4"/>
       <c r="I118" s="4"/>
       <c r="J118" s="4"/>
@@ -5974,10 +5959,10 @@
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
-      <c r="D119" s="11"/>
+      <c r="D119" s="10"/>
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
-      <c r="G119" s="11"/>
+      <c r="G119" s="10"/>
       <c r="H119" s="4"/>
       <c r="I119" s="4"/>
       <c r="J119" s="4"/>
@@ -5990,10 +5975,10 @@
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
-      <c r="D120" s="11"/>
+      <c r="D120" s="10"/>
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
-      <c r="G120" s="11"/>
+      <c r="G120" s="10"/>
       <c r="H120" s="4"/>
       <c r="I120" s="4"/>
       <c r="J120" s="4"/>
@@ -6006,10 +5991,10 @@
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
-      <c r="D121" s="11"/>
+      <c r="D121" s="10"/>
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
-      <c r="G121" s="11"/>
+      <c r="G121" s="10"/>
       <c r="H121" s="4"/>
       <c r="I121" s="4"/>
       <c r="J121" s="4"/>
@@ -6022,10 +6007,10 @@
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
-      <c r="D122" s="11"/>
+      <c r="D122" s="10"/>
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
-      <c r="G122" s="11"/>
+      <c r="G122" s="10"/>
       <c r="H122" s="4"/>
       <c r="I122" s="4"/>
       <c r="J122" s="4"/>
@@ -6038,10 +6023,10 @@
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
-      <c r="D123" s="11"/>
+      <c r="D123" s="10"/>
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
-      <c r="G123" s="11"/>
+      <c r="G123" s="10"/>
       <c r="H123" s="4"/>
       <c r="I123" s="4"/>
       <c r="J123" s="4"/>
@@ -6054,10 +6039,10 @@
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
-      <c r="D124" s="11"/>
+      <c r="D124" s="10"/>
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
-      <c r="G124" s="11"/>
+      <c r="G124" s="10"/>
       <c r="H124" s="4"/>
       <c r="I124" s="4"/>
       <c r="J124" s="4"/>
@@ -6070,10 +6055,10 @@
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
-      <c r="D125" s="11"/>
+      <c r="D125" s="10"/>
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
-      <c r="G125" s="11"/>
+      <c r="G125" s="10"/>
       <c r="H125" s="4"/>
       <c r="I125" s="4"/>
       <c r="J125" s="4"/>
@@ -6086,10 +6071,10 @@
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
-      <c r="D126" s="11"/>
+      <c r="D126" s="10"/>
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
-      <c r="G126" s="11"/>
+      <c r="G126" s="10"/>
       <c r="H126" s="4"/>
       <c r="I126" s="4"/>
       <c r="J126" s="4"/>
@@ -6102,10 +6087,10 @@
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
-      <c r="D127" s="11"/>
+      <c r="D127" s="10"/>
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
-      <c r="G127" s="11"/>
+      <c r="G127" s="10"/>
       <c r="H127" s="4"/>
       <c r="I127" s="4"/>
       <c r="J127" s="4"/>
@@ -6118,10 +6103,10 @@
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
-      <c r="D128" s="11"/>
+      <c r="D128" s="10"/>
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
-      <c r="G128" s="11"/>
+      <c r="G128" s="10"/>
       <c r="H128" s="4"/>
       <c r="I128" s="4"/>
       <c r="J128" s="4"/>
@@ -6134,10 +6119,10 @@
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
-      <c r="D129" s="11"/>
+      <c r="D129" s="10"/>
       <c r="E129" s="4"/>
       <c r="F129" s="4"/>
-      <c r="G129" s="11"/>
+      <c r="G129" s="10"/>
       <c r="H129" s="4"/>
       <c r="I129" s="4"/>
       <c r="J129" s="4"/>
@@ -6150,10 +6135,10 @@
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
-      <c r="D130" s="11"/>
+      <c r="D130" s="10"/>
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
-      <c r="G130" s="11"/>
+      <c r="G130" s="10"/>
       <c r="H130" s="4"/>
       <c r="I130" s="4"/>
       <c r="J130" s="4"/>
@@ -6166,10 +6151,10 @@
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
-      <c r="D131" s="11"/>
+      <c r="D131" s="10"/>
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
-      <c r="G131" s="11"/>
+      <c r="G131" s="10"/>
       <c r="H131" s="4"/>
       <c r="I131" s="4"/>
       <c r="J131" s="4"/>
@@ -6182,10 +6167,10 @@
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
-      <c r="D132" s="11"/>
+      <c r="D132" s="10"/>
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
-      <c r="G132" s="11"/>
+      <c r="G132" s="10"/>
       <c r="H132" s="4"/>
       <c r="I132" s="4"/>
       <c r="J132" s="4"/>
@@ -6198,10 +6183,10 @@
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
-      <c r="D133" s="11"/>
+      <c r="D133" s="10"/>
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
-      <c r="G133" s="11"/>
+      <c r="G133" s="10"/>
       <c r="H133" s="4"/>
       <c r="I133" s="4"/>
       <c r="J133" s="4"/>
@@ -6214,10 +6199,10 @@
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
-      <c r="D134" s="11"/>
+      <c r="D134" s="10"/>
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
-      <c r="G134" s="11"/>
+      <c r="G134" s="10"/>
       <c r="H134" s="4"/>
       <c r="I134" s="4"/>
       <c r="J134" s="4"/>
@@ -6230,10 +6215,10 @@
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
-      <c r="D135" s="11"/>
+      <c r="D135" s="10"/>
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
-      <c r="G135" s="11"/>
+      <c r="G135" s="10"/>
       <c r="H135" s="4"/>
       <c r="I135" s="4"/>
       <c r="J135" s="4"/>
@@ -6246,10 +6231,10 @@
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
-      <c r="D136" s="11"/>
+      <c r="D136" s="10"/>
       <c r="E136" s="4"/>
       <c r="F136" s="4"/>
-      <c r="G136" s="11"/>
+      <c r="G136" s="10"/>
       <c r="H136" s="4"/>
       <c r="I136" s="4"/>
       <c r="J136" s="4"/>
@@ -6262,10 +6247,10 @@
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
-      <c r="D137" s="11"/>
+      <c r="D137" s="10"/>
       <c r="E137" s="4"/>
       <c r="F137" s="4"/>
-      <c r="G137" s="11"/>
+      <c r="G137" s="10"/>
       <c r="H137" s="4"/>
       <c r="I137" s="4"/>
       <c r="J137" s="4"/>
@@ -6278,10 +6263,10 @@
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
-      <c r="D138" s="11"/>
+      <c r="D138" s="10"/>
       <c r="E138" s="4"/>
       <c r="F138" s="4"/>
-      <c r="G138" s="11"/>
+      <c r="G138" s="10"/>
       <c r="H138" s="4"/>
       <c r="I138" s="4"/>
       <c r="J138" s="4"/>
@@ -6294,10 +6279,10 @@
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
-      <c r="D139" s="11"/>
+      <c r="D139" s="10"/>
       <c r="E139" s="4"/>
       <c r="F139" s="4"/>
-      <c r="G139" s="11"/>
+      <c r="G139" s="10"/>
       <c r="H139" s="4"/>
       <c r="I139" s="4"/>
       <c r="J139" s="4"/>
@@ -6310,10 +6295,10 @@
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
-      <c r="D140" s="11"/>
+      <c r="D140" s="10"/>
       <c r="E140" s="4"/>
       <c r="F140" s="4"/>
-      <c r="G140" s="11"/>
+      <c r="G140" s="10"/>
       <c r="H140" s="4"/>
       <c r="I140" s="4"/>
       <c r="J140" s="4"/>
@@ -6326,10 +6311,10 @@
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
-      <c r="D141" s="11"/>
+      <c r="D141" s="10"/>
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
-      <c r="G141" s="11"/>
+      <c r="G141" s="10"/>
       <c r="H141" s="4"/>
       <c r="I141" s="4"/>
       <c r="J141" s="4"/>
@@ -6342,10 +6327,10 @@
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
-      <c r="D142" s="11"/>
+      <c r="D142" s="10"/>
       <c r="E142" s="4"/>
       <c r="F142" s="4"/>
-      <c r="G142" s="11"/>
+      <c r="G142" s="10"/>
       <c r="H142" s="4"/>
       <c r="I142" s="4"/>
       <c r="J142" s="4"/>
@@ -6358,10 +6343,10 @@
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
-      <c r="D143" s="11"/>
+      <c r="D143" s="10"/>
       <c r="E143" s="4"/>
       <c r="F143" s="4"/>
-      <c r="G143" s="11"/>
+      <c r="G143" s="10"/>
       <c r="H143" s="4"/>
       <c r="I143" s="4"/>
       <c r="J143" s="4"/>
@@ -6374,10 +6359,10 @@
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
-      <c r="D144" s="11"/>
+      <c r="D144" s="10"/>
       <c r="E144" s="4"/>
       <c r="F144" s="4"/>
-      <c r="G144" s="11"/>
+      <c r="G144" s="10"/>
       <c r="H144" s="4"/>
       <c r="I144" s="4"/>
       <c r="J144" s="4"/>
@@ -6390,10 +6375,10 @@
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
-      <c r="D145" s="11"/>
+      <c r="D145" s="10"/>
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
-      <c r="G145" s="11"/>
+      <c r="G145" s="10"/>
       <c r="H145" s="4"/>
       <c r="I145" s="4"/>
       <c r="J145" s="4"/>
@@ -6406,10 +6391,10 @@
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
-      <c r="D146" s="11"/>
+      <c r="D146" s="10"/>
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
-      <c r="G146" s="11"/>
+      <c r="G146" s="10"/>
       <c r="H146" s="4"/>
       <c r="I146" s="4"/>
       <c r="J146" s="4"/>
@@ -6422,10 +6407,10 @@
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
-      <c r="D147" s="11"/>
+      <c r="D147" s="10"/>
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
-      <c r="G147" s="11"/>
+      <c r="G147" s="10"/>
       <c r="H147" s="4"/>
       <c r="I147" s="4"/>
       <c r="J147" s="4"/>
@@ -6438,10 +6423,10 @@
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
-      <c r="D148" s="11"/>
+      <c r="D148" s="10"/>
       <c r="E148" s="4"/>
       <c r="F148" s="4"/>
-      <c r="G148" s="11"/>
+      <c r="G148" s="10"/>
       <c r="H148" s="4"/>
       <c r="I148" s="4"/>
       <c r="J148" s="4"/>
@@ -6454,10 +6439,10 @@
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
-      <c r="D149" s="11"/>
+      <c r="D149" s="10"/>
       <c r="E149" s="4"/>
       <c r="F149" s="4"/>
-      <c r="G149" s="11"/>
+      <c r="G149" s="10"/>
       <c r="H149" s="4"/>
       <c r="I149" s="4"/>
       <c r="J149" s="4"/>
@@ -6470,10 +6455,10 @@
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
-      <c r="D150" s="11"/>
+      <c r="D150" s="10"/>
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
-      <c r="G150" s="11"/>
+      <c r="G150" s="10"/>
       <c r="H150" s="4"/>
       <c r="I150" s="4"/>
       <c r="J150" s="4"/>
@@ -6486,10 +6471,10 @@
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
-      <c r="D151" s="11"/>
+      <c r="D151" s="10"/>
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
-      <c r="G151" s="11"/>
+      <c r="G151" s="10"/>
       <c r="H151" s="4"/>
       <c r="I151" s="4"/>
       <c r="J151" s="4"/>
@@ -6502,10 +6487,10 @@
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
-      <c r="D152" s="11"/>
+      <c r="D152" s="10"/>
       <c r="E152" s="4"/>
       <c r="F152" s="4"/>
-      <c r="G152" s="11"/>
+      <c r="G152" s="10"/>
       <c r="H152" s="4"/>
       <c r="I152" s="4"/>
       <c r="J152" s="4"/>
@@ -6518,10 +6503,10 @@
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
-      <c r="D153" s="11"/>
+      <c r="D153" s="10"/>
       <c r="E153" s="4"/>
       <c r="F153" s="4"/>
-      <c r="G153" s="11"/>
+      <c r="G153" s="10"/>
       <c r="H153" s="4"/>
       <c r="I153" s="4"/>
       <c r="J153" s="4"/>
@@ -6534,10 +6519,10 @@
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
-      <c r="D154" s="11"/>
+      <c r="D154" s="10"/>
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
-      <c r="G154" s="11"/>
+      <c r="G154" s="10"/>
       <c r="H154" s="4"/>
       <c r="I154" s="4"/>
       <c r="J154" s="4"/>
@@ -6550,10 +6535,10 @@
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
-      <c r="D155" s="11"/>
+      <c r="D155" s="10"/>
       <c r="E155" s="4"/>
       <c r="F155" s="4"/>
-      <c r="G155" s="11"/>
+      <c r="G155" s="10"/>
       <c r="H155" s="4"/>
       <c r="I155" s="4"/>
       <c r="J155" s="4"/>
@@ -6566,10 +6551,10 @@
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
-      <c r="D156" s="11"/>
+      <c r="D156" s="10"/>
       <c r="E156" s="4"/>
       <c r="F156" s="4"/>
-      <c r="G156" s="11"/>
+      <c r="G156" s="10"/>
       <c r="H156" s="4"/>
       <c r="I156" s="4"/>
       <c r="J156" s="4"/>
@@ -6582,10 +6567,10 @@
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
-      <c r="D157" s="11"/>
+      <c r="D157" s="10"/>
       <c r="E157" s="4"/>
       <c r="F157" s="4"/>
-      <c r="G157" s="11"/>
+      <c r="G157" s="10"/>
       <c r="H157" s="4"/>
       <c r="I157" s="4"/>
       <c r="J157" s="4"/>
@@ -6598,10 +6583,10 @@
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
-      <c r="D158" s="11"/>
+      <c r="D158" s="10"/>
       <c r="E158" s="4"/>
       <c r="F158" s="4"/>
-      <c r="G158" s="11"/>
+      <c r="G158" s="10"/>
       <c r="H158" s="4"/>
       <c r="I158" s="4"/>
       <c r="J158" s="4"/>
@@ -6614,10 +6599,10 @@
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
-      <c r="D159" s="11"/>
+      <c r="D159" s="10"/>
       <c r="E159" s="4"/>
       <c r="F159" s="4"/>
-      <c r="G159" s="11"/>
+      <c r="G159" s="10"/>
       <c r="H159" s="4"/>
       <c r="I159" s="4"/>
       <c r="J159" s="4"/>
@@ -6630,10 +6615,10 @@
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
-      <c r="D160" s="11"/>
+      <c r="D160" s="10"/>
       <c r="E160" s="4"/>
       <c r="F160" s="4"/>
-      <c r="G160" s="11"/>
+      <c r="G160" s="10"/>
       <c r="H160" s="4"/>
       <c r="I160" s="4"/>
       <c r="J160" s="4"/>
@@ -6646,10 +6631,10 @@
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
-      <c r="D161" s="11"/>
+      <c r="D161" s="10"/>
       <c r="E161" s="4"/>
       <c r="F161" s="4"/>
-      <c r="G161" s="11"/>
+      <c r="G161" s="10"/>
       <c r="H161" s="4"/>
       <c r="I161" s="4"/>
       <c r="J161" s="4"/>
@@ -6662,10 +6647,10 @@
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
-      <c r="D162" s="11"/>
+      <c r="D162" s="10"/>
       <c r="E162" s="4"/>
       <c r="F162" s="4"/>
-      <c r="G162" s="11"/>
+      <c r="G162" s="10"/>
       <c r="H162" s="4"/>
       <c r="I162" s="4"/>
       <c r="J162" s="4"/>
@@ -6678,10 +6663,10 @@
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
-      <c r="D163" s="11"/>
+      <c r="D163" s="10"/>
       <c r="E163" s="4"/>
       <c r="F163" s="4"/>
-      <c r="G163" s="11"/>
+      <c r="G163" s="10"/>
       <c r="H163" s="4"/>
       <c r="I163" s="4"/>
       <c r="J163" s="4"/>
@@ -6694,10 +6679,10 @@
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
-      <c r="D164" s="11"/>
+      <c r="D164" s="10"/>
       <c r="E164" s="4"/>
       <c r="F164" s="4"/>
-      <c r="G164" s="11"/>
+      <c r="G164" s="10"/>
       <c r="H164" s="4"/>
       <c r="I164" s="4"/>
       <c r="J164" s="4"/>
@@ -6710,10 +6695,10 @@
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
-      <c r="D165" s="11"/>
+      <c r="D165" s="10"/>
       <c r="E165" s="4"/>
       <c r="F165" s="4"/>
-      <c r="G165" s="11"/>
+      <c r="G165" s="10"/>
       <c r="H165" s="4"/>
       <c r="I165" s="4"/>
       <c r="J165" s="4"/>
@@ -6726,10 +6711,10 @@
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
-      <c r="D166" s="11"/>
+      <c r="D166" s="10"/>
       <c r="E166" s="4"/>
       <c r="F166" s="4"/>
-      <c r="G166" s="11"/>
+      <c r="G166" s="10"/>
       <c r="H166" s="4"/>
       <c r="I166" s="4"/>
       <c r="J166" s="4"/>
@@ -6742,10 +6727,10 @@
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
-      <c r="D167" s="11"/>
+      <c r="D167" s="10"/>
       <c r="E167" s="4"/>
       <c r="F167" s="4"/>
-      <c r="G167" s="11"/>
+      <c r="G167" s="10"/>
       <c r="H167" s="4"/>
       <c r="I167" s="4"/>
       <c r="J167" s="4"/>
@@ -6758,10 +6743,10 @@
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
-      <c r="D168" s="11"/>
+      <c r="D168" s="10"/>
       <c r="E168" s="4"/>
       <c r="F168" s="4"/>
-      <c r="G168" s="11"/>
+      <c r="G168" s="10"/>
       <c r="H168" s="4"/>
       <c r="I168" s="4"/>
       <c r="J168" s="4"/>
@@ -6774,10 +6759,10 @@
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
-      <c r="D169" s="11"/>
+      <c r="D169" s="10"/>
       <c r="E169" s="4"/>
       <c r="F169" s="4"/>
-      <c r="G169" s="11"/>
+      <c r="G169" s="10"/>
       <c r="H169" s="4"/>
       <c r="I169" s="4"/>
       <c r="J169" s="4"/>
@@ -6790,10 +6775,10 @@
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
-      <c r="D170" s="11"/>
+      <c r="D170" s="10"/>
       <c r="E170" s="4"/>
       <c r="F170" s="4"/>
-      <c r="G170" s="11"/>
+      <c r="G170" s="10"/>
       <c r="H170" s="4"/>
       <c r="I170" s="4"/>
       <c r="J170" s="4"/>
@@ -6806,10 +6791,10 @@
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
-      <c r="D171" s="11"/>
+      <c r="D171" s="10"/>
       <c r="E171" s="4"/>
       <c r="F171" s="4"/>
-      <c r="G171" s="11"/>
+      <c r="G171" s="10"/>
       <c r="H171" s="4"/>
       <c r="I171" s="4"/>
       <c r="J171" s="4"/>
@@ -6822,10 +6807,10 @@
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
-      <c r="D172" s="11"/>
+      <c r="D172" s="10"/>
       <c r="E172" s="4"/>
       <c r="F172" s="4"/>
-      <c r="G172" s="11"/>
+      <c r="G172" s="10"/>
       <c r="H172" s="4"/>
       <c r="I172" s="4"/>
       <c r="J172" s="4"/>
@@ -6838,10 +6823,10 @@
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
-      <c r="D173" s="11"/>
+      <c r="D173" s="10"/>
       <c r="E173" s="4"/>
       <c r="F173" s="4"/>
-      <c r="G173" s="11"/>
+      <c r="G173" s="10"/>
       <c r="H173" s="4"/>
       <c r="I173" s="4"/>
       <c r="J173" s="4"/>
@@ -6854,10 +6839,10 @@
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
-      <c r="D174" s="11"/>
+      <c r="D174" s="10"/>
       <c r="E174" s="4"/>
       <c r="F174" s="4"/>
-      <c r="G174" s="11"/>
+      <c r="G174" s="10"/>
       <c r="H174" s="4"/>
       <c r="I174" s="4"/>
       <c r="J174" s="4"/>
@@ -6870,10 +6855,10 @@
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
-      <c r="D175" s="11"/>
+      <c r="D175" s="10"/>
       <c r="E175" s="4"/>
       <c r="F175" s="4"/>
-      <c r="G175" s="11"/>
+      <c r="G175" s="10"/>
       <c r="H175" s="4"/>
       <c r="I175" s="4"/>
       <c r="J175" s="4"/>
@@ -6886,10 +6871,10 @@
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
-      <c r="D176" s="11"/>
+      <c r="D176" s="10"/>
       <c r="E176" s="4"/>
       <c r="F176" s="4"/>
-      <c r="G176" s="11"/>
+      <c r="G176" s="10"/>
       <c r="H176" s="4"/>
       <c r="I176" s="4"/>
       <c r="J176" s="4"/>
@@ -6902,10 +6887,10 @@
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
-      <c r="D177" s="11"/>
+      <c r="D177" s="10"/>
       <c r="E177" s="4"/>
       <c r="F177" s="4"/>
-      <c r="G177" s="11"/>
+      <c r="G177" s="10"/>
       <c r="H177" s="4"/>
       <c r="I177" s="4"/>
       <c r="J177" s="4"/>
@@ -6918,10 +6903,10 @@
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
-      <c r="D178" s="11"/>
+      <c r="D178" s="10"/>
       <c r="E178" s="4"/>
       <c r="F178" s="4"/>
-      <c r="G178" s="11"/>
+      <c r="G178" s="10"/>
       <c r="H178" s="4"/>
       <c r="I178" s="4"/>
       <c r="J178" s="4"/>
@@ -6934,10 +6919,10 @@
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
-      <c r="D179" s="11"/>
+      <c r="D179" s="10"/>
       <c r="E179" s="4"/>
       <c r="F179" s="4"/>
-      <c r="G179" s="11"/>
+      <c r="G179" s="10"/>
       <c r="H179" s="4"/>
       <c r="I179" s="4"/>
       <c r="J179" s="4"/>
@@ -6950,10 +6935,10 @@
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
-      <c r="D180" s="11"/>
+      <c r="D180" s="10"/>
       <c r="E180" s="4"/>
       <c r="F180" s="4"/>
-      <c r="G180" s="11"/>
+      <c r="G180" s="10"/>
       <c r="H180" s="4"/>
       <c r="I180" s="4"/>
       <c r="J180" s="4"/>
@@ -6966,10 +6951,10 @@
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
-      <c r="D181" s="11"/>
+      <c r="D181" s="10"/>
       <c r="E181" s="4"/>
       <c r="F181" s="4"/>
-      <c r="G181" s="11"/>
+      <c r="G181" s="10"/>
       <c r="H181" s="4"/>
       <c r="I181" s="4"/>
       <c r="J181" s="4"/>
@@ -6982,10 +6967,10 @@
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
-      <c r="D182" s="11"/>
+      <c r="D182" s="10"/>
       <c r="E182" s="4"/>
       <c r="F182" s="4"/>
-      <c r="G182" s="11"/>
+      <c r="G182" s="10"/>
       <c r="H182" s="4"/>
       <c r="I182" s="4"/>
       <c r="J182" s="4"/>
@@ -6998,10 +6983,10 @@
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
-      <c r="D183" s="11"/>
+      <c r="D183" s="10"/>
       <c r="E183" s="4"/>
       <c r="F183" s="4"/>
-      <c r="G183" s="11"/>
+      <c r="G183" s="10"/>
       <c r="H183" s="4"/>
       <c r="I183" s="4"/>
       <c r="J183" s="4"/>
@@ -7014,10 +6999,10 @@
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
-      <c r="D184" s="11"/>
+      <c r="D184" s="10"/>
       <c r="E184" s="4"/>
       <c r="F184" s="4"/>
-      <c r="G184" s="11"/>
+      <c r="G184" s="10"/>
       <c r="H184" s="4"/>
       <c r="I184" s="4"/>
       <c r="J184" s="4"/>
@@ -7030,10 +7015,10 @@
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
-      <c r="D185" s="11"/>
+      <c r="D185" s="10"/>
       <c r="E185" s="4"/>
       <c r="F185" s="4"/>
-      <c r="G185" s="11"/>
+      <c r="G185" s="10"/>
       <c r="H185" s="4"/>
       <c r="I185" s="4"/>
       <c r="J185" s="4"/>
@@ -7046,10 +7031,10 @@
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
-      <c r="D186" s="11"/>
+      <c r="D186" s="10"/>
       <c r="E186" s="4"/>
       <c r="F186" s="4"/>
-      <c r="G186" s="11"/>
+      <c r="G186" s="10"/>
       <c r="H186" s="4"/>
       <c r="I186" s="4"/>
       <c r="J186" s="4"/>
@@ -7062,10 +7047,10 @@
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
-      <c r="D187" s="11"/>
+      <c r="D187" s="10"/>
       <c r="E187" s="4"/>
       <c r="F187" s="4"/>
-      <c r="G187" s="11"/>
+      <c r="G187" s="10"/>
       <c r="H187" s="4"/>
       <c r="I187" s="4"/>
       <c r="J187" s="4"/>
@@ -7078,10 +7063,10 @@
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
-      <c r="D188" s="11"/>
+      <c r="D188" s="10"/>
       <c r="E188" s="4"/>
       <c r="F188" s="4"/>
-      <c r="G188" s="11"/>
+      <c r="G188" s="10"/>
       <c r="H188" s="4"/>
       <c r="I188" s="4"/>
       <c r="J188" s="4"/>
@@ -7094,10 +7079,10 @@
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
-      <c r="D189" s="11"/>
+      <c r="D189" s="10"/>
       <c r="E189" s="4"/>
       <c r="F189" s="4"/>
-      <c r="G189" s="11"/>
+      <c r="G189" s="10"/>
       <c r="H189" s="4"/>
       <c r="I189" s="4"/>
       <c r="J189" s="4"/>
@@ -7110,10 +7095,10 @@
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
-      <c r="D190" s="11"/>
+      <c r="D190" s="10"/>
       <c r="E190" s="4"/>
       <c r="F190" s="4"/>
-      <c r="G190" s="11"/>
+      <c r="G190" s="10"/>
       <c r="H190" s="4"/>
       <c r="I190" s="4"/>
       <c r="J190" s="4"/>
@@ -7126,10 +7111,10 @@
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
-      <c r="D191" s="11"/>
+      <c r="D191" s="10"/>
       <c r="E191" s="4"/>
       <c r="F191" s="4"/>
-      <c r="G191" s="11"/>
+      <c r="G191" s="10"/>
       <c r="H191" s="4"/>
       <c r="I191" s="4"/>
       <c r="J191" s="4"/>
@@ -7142,10 +7127,10 @@
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
-      <c r="D192" s="11"/>
+      <c r="D192" s="10"/>
       <c r="E192" s="4"/>
       <c r="F192" s="4"/>
-      <c r="G192" s="11"/>
+      <c r="G192" s="10"/>
       <c r="H192" s="4"/>
       <c r="I192" s="4"/>
       <c r="J192" s="4"/>
@@ -7158,10 +7143,10 @@
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
-      <c r="D193" s="11"/>
+      <c r="D193" s="10"/>
       <c r="E193" s="4"/>
       <c r="F193" s="4"/>
-      <c r="G193" s="11"/>
+      <c r="G193" s="10"/>
       <c r="H193" s="4"/>
       <c r="I193" s="4"/>
       <c r="J193" s="4"/>
@@ -7174,10 +7159,10 @@
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
-      <c r="D194" s="11"/>
+      <c r="D194" s="10"/>
       <c r="E194" s="4"/>
       <c r="F194" s="4"/>
-      <c r="G194" s="11"/>
+      <c r="G194" s="10"/>
       <c r="H194" s="4"/>
       <c r="I194" s="4"/>
       <c r="J194" s="4"/>
@@ -7190,10 +7175,10 @@
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
-      <c r="D195" s="11"/>
+      <c r="D195" s="10"/>
       <c r="E195" s="4"/>
       <c r="F195" s="4"/>
-      <c r="G195" s="11"/>
+      <c r="G195" s="10"/>
       <c r="H195" s="4"/>
       <c r="I195" s="4"/>
       <c r="J195" s="4"/>
@@ -7206,10 +7191,10 @@
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
-      <c r="D196" s="11"/>
+      <c r="D196" s="10"/>
       <c r="E196" s="4"/>
       <c r="F196" s="4"/>
-      <c r="G196" s="11"/>
+      <c r="G196" s="10"/>
       <c r="H196" s="4"/>
       <c r="I196" s="4"/>
       <c r="J196" s="4"/>
@@ -7222,10 +7207,10 @@
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
-      <c r="D197" s="11"/>
+      <c r="D197" s="10"/>
       <c r="E197" s="4"/>
       <c r="F197" s="4"/>
-      <c r="G197" s="11"/>
+      <c r="G197" s="10"/>
       <c r="H197" s="4"/>
       <c r="I197" s="4"/>
       <c r="J197" s="4"/>
@@ -7238,10 +7223,10 @@
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
-      <c r="D198" s="11"/>
+      <c r="D198" s="10"/>
       <c r="E198" s="4"/>
       <c r="F198" s="4"/>
-      <c r="G198" s="11"/>
+      <c r="G198" s="10"/>
       <c r="H198" s="4"/>
       <c r="I198" s="4"/>
       <c r="J198" s="4"/>
@@ -7254,10 +7239,10 @@
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
-      <c r="D199" s="11"/>
+      <c r="D199" s="10"/>
       <c r="E199" s="4"/>
       <c r="F199" s="4"/>
-      <c r="G199" s="11"/>
+      <c r="G199" s="10"/>
       <c r="H199" s="4"/>
       <c r="I199" s="4"/>
       <c r="J199" s="4"/>
@@ -7270,10 +7255,10 @@
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
-      <c r="D200" s="11"/>
+      <c r="D200" s="10"/>
       <c r="E200" s="4"/>
       <c r="F200" s="4"/>
-      <c r="G200" s="11"/>
+      <c r="G200" s="10"/>
       <c r="H200" s="4"/>
       <c r="I200" s="4"/>
       <c r="J200" s="4"/>
@@ -7286,10 +7271,10 @@
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
-      <c r="D201" s="11"/>
+      <c r="D201" s="10"/>
       <c r="E201" s="4"/>
       <c r="F201" s="4"/>
-      <c r="G201" s="11"/>
+      <c r="G201" s="10"/>
       <c r="H201" s="4"/>
       <c r="I201" s="4"/>
       <c r="J201" s="4"/>
@@ -7302,10 +7287,10 @@
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
-      <c r="D202" s="11"/>
+      <c r="D202" s="10"/>
       <c r="E202" s="4"/>
       <c r="F202" s="4"/>
-      <c r="G202" s="11"/>
+      <c r="G202" s="10"/>
       <c r="H202" s="4"/>
       <c r="I202" s="4"/>
       <c r="J202" s="4"/>
@@ -7318,10 +7303,10 @@
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
-      <c r="D203" s="11"/>
+      <c r="D203" s="10"/>
       <c r="E203" s="4"/>
       <c r="F203" s="4"/>
-      <c r="G203" s="11"/>
+      <c r="G203" s="10"/>
       <c r="H203" s="4"/>
       <c r="I203" s="4"/>
       <c r="J203" s="4"/>
@@ -7334,10 +7319,10 @@
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
-      <c r="D204" s="11"/>
+      <c r="D204" s="10"/>
       <c r="E204" s="4"/>
       <c r="F204" s="4"/>
-      <c r="G204" s="11"/>
+      <c r="G204" s="10"/>
       <c r="H204" s="4"/>
       <c r="I204" s="4"/>
       <c r="J204" s="4"/>
@@ -7350,10 +7335,10 @@
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
-      <c r="D205" s="11"/>
+      <c r="D205" s="10"/>
       <c r="E205" s="4"/>
       <c r="F205" s="4"/>
-      <c r="G205" s="11"/>
+      <c r="G205" s="10"/>
       <c r="H205" s="4"/>
       <c r="I205" s="4"/>
       <c r="J205" s="4"/>
@@ -7366,10 +7351,10 @@
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
-      <c r="D206" s="11"/>
+      <c r="D206" s="10"/>
       <c r="E206" s="4"/>
       <c r="F206" s="4"/>
-      <c r="G206" s="11"/>
+      <c r="G206" s="10"/>
       <c r="H206" s="4"/>
       <c r="I206" s="4"/>
       <c r="J206" s="4"/>
@@ -7382,10 +7367,10 @@
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
-      <c r="D207" s="11"/>
+      <c r="D207" s="10"/>
       <c r="E207" s="4"/>
       <c r="F207" s="4"/>
-      <c r="G207" s="11"/>
+      <c r="G207" s="10"/>
       <c r="H207" s="4"/>
       <c r="I207" s="4"/>
       <c r="J207" s="4"/>
@@ -7398,10 +7383,10 @@
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
-      <c r="D208" s="11"/>
+      <c r="D208" s="10"/>
       <c r="E208" s="4"/>
       <c r="F208" s="4"/>
-      <c r="G208" s="11"/>
+      <c r="G208" s="10"/>
       <c r="H208" s="4"/>
       <c r="I208" s="4"/>
       <c r="J208" s="4"/>
@@ -7414,10 +7399,10 @@
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
-      <c r="D209" s="11"/>
+      <c r="D209" s="10"/>
       <c r="E209" s="4"/>
       <c r="F209" s="4"/>
-      <c r="G209" s="11"/>
+      <c r="G209" s="10"/>
       <c r="H209" s="4"/>
       <c r="I209" s="4"/>
       <c r="J209" s="4"/>
@@ -7430,10 +7415,10 @@
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
-      <c r="D210" s="11"/>
+      <c r="D210" s="10"/>
       <c r="E210" s="4"/>
       <c r="F210" s="4"/>
-      <c r="G210" s="11"/>
+      <c r="G210" s="10"/>
       <c r="H210" s="4"/>
       <c r="I210" s="4"/>
       <c r="J210" s="4"/>
@@ -7446,10 +7431,10 @@
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
-      <c r="D211" s="11"/>
+      <c r="D211" s="10"/>
       <c r="E211" s="4"/>
       <c r="F211" s="4"/>
-      <c r="G211" s="11"/>
+      <c r="G211" s="10"/>
       <c r="H211" s="4"/>
       <c r="I211" s="4"/>
       <c r="J211" s="4"/>
@@ -7462,10 +7447,10 @@
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
-      <c r="D212" s="11"/>
+      <c r="D212" s="10"/>
       <c r="E212" s="4"/>
       <c r="F212" s="4"/>
-      <c r="G212" s="11"/>
+      <c r="G212" s="10"/>
       <c r="H212" s="4"/>
       <c r="I212" s="4"/>
       <c r="J212" s="4"/>
@@ -7478,10 +7463,10 @@
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
-      <c r="D213" s="11"/>
+      <c r="D213" s="10"/>
       <c r="E213" s="4"/>
       <c r="F213" s="4"/>
-      <c r="G213" s="11"/>
+      <c r="G213" s="10"/>
       <c r="H213" s="4"/>
       <c r="I213" s="4"/>
       <c r="J213" s="4"/>
@@ -7494,10 +7479,10 @@
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
-      <c r="D214" s="11"/>
+      <c r="D214" s="10"/>
       <c r="E214" s="4"/>
       <c r="F214" s="4"/>
-      <c r="G214" s="11"/>
+      <c r="G214" s="10"/>
       <c r="H214" s="4"/>
       <c r="I214" s="4"/>
       <c r="J214" s="4"/>
@@ -7510,10 +7495,10 @@
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
-      <c r="D215" s="11"/>
+      <c r="D215" s="10"/>
       <c r="E215" s="4"/>
       <c r="F215" s="4"/>
-      <c r="G215" s="11"/>
+      <c r="G215" s="10"/>
       <c r="H215" s="4"/>
       <c r="I215" s="4"/>
       <c r="J215" s="4"/>
@@ -7526,10 +7511,10 @@
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
-      <c r="D216" s="11"/>
+      <c r="D216" s="10"/>
       <c r="E216" s="4"/>
       <c r="F216" s="4"/>
-      <c r="G216" s="11"/>
+      <c r="G216" s="10"/>
       <c r="H216" s="4"/>
       <c r="I216" s="4"/>
       <c r="J216" s="4"/>
@@ -7542,10 +7527,10 @@
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
-      <c r="D217" s="11"/>
+      <c r="D217" s="10"/>
       <c r="E217" s="4"/>
       <c r="F217" s="4"/>
-      <c r="G217" s="11"/>
+      <c r="G217" s="10"/>
       <c r="H217" s="4"/>
       <c r="I217" s="4"/>
       <c r="J217" s="4"/>
@@ -7558,10 +7543,10 @@
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
-      <c r="D218" s="11"/>
+      <c r="D218" s="10"/>
       <c r="E218" s="4"/>
       <c r="F218" s="4"/>
-      <c r="G218" s="11"/>
+      <c r="G218" s="10"/>
       <c r="H218" s="4"/>
       <c r="I218" s="4"/>
       <c r="J218" s="4"/>
@@ -7574,10 +7559,10 @@
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
-      <c r="D219" s="11"/>
+      <c r="D219" s="10"/>
       <c r="E219" s="4"/>
       <c r="F219" s="4"/>
-      <c r="G219" s="11"/>
+      <c r="G219" s="10"/>
       <c r="H219" s="4"/>
       <c r="I219" s="4"/>
       <c r="J219" s="4"/>
@@ -7590,10 +7575,10 @@
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
-      <c r="D220" s="11"/>
+      <c r="D220" s="10"/>
       <c r="E220" s="4"/>
       <c r="F220" s="4"/>
-      <c r="G220" s="11"/>
+      <c r="G220" s="10"/>
       <c r="H220" s="4"/>
       <c r="I220" s="4"/>
       <c r="J220" s="4"/>
@@ -7606,10 +7591,10 @@
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
       <c r="C221" s="4"/>
-      <c r="D221" s="11"/>
+      <c r="D221" s="10"/>
       <c r="E221" s="4"/>
       <c r="F221" s="4"/>
-      <c r="G221" s="11"/>
+      <c r="G221" s="10"/>
       <c r="H221" s="4"/>
       <c r="I221" s="4"/>
       <c r="J221" s="4"/>
@@ -7622,10 +7607,10 @@
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
-      <c r="D222" s="11"/>
+      <c r="D222" s="10"/>
       <c r="E222" s="4"/>
       <c r="F222" s="4"/>
-      <c r="G222" s="11"/>
+      <c r="G222" s="10"/>
       <c r="H222" s="4"/>
       <c r="I222" s="4"/>
       <c r="J222" s="4"/>
@@ -7638,10 +7623,10 @@
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
-      <c r="D223" s="11"/>
+      <c r="D223" s="10"/>
       <c r="E223" s="4"/>
       <c r="F223" s="4"/>
-      <c r="G223" s="11"/>
+      <c r="G223" s="10"/>
       <c r="H223" s="4"/>
       <c r="I223" s="4"/>
       <c r="J223" s="4"/>
@@ -7654,10 +7639,10 @@
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
       <c r="C224" s="4"/>
-      <c r="D224" s="11"/>
+      <c r="D224" s="10"/>
       <c r="E224" s="4"/>
       <c r="F224" s="4"/>
-      <c r="G224" s="11"/>
+      <c r="G224" s="10"/>
       <c r="H224" s="4"/>
       <c r="I224" s="4"/>
       <c r="J224" s="4"/>
@@ -7670,10 +7655,10 @@
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
-      <c r="D225" s="11"/>
+      <c r="D225" s="10"/>
       <c r="E225" s="4"/>
       <c r="F225" s="4"/>
-      <c r="G225" s="11"/>
+      <c r="G225" s="10"/>
       <c r="H225" s="4"/>
       <c r="I225" s="4"/>
       <c r="J225" s="4"/>
@@ -7686,10 +7671,10 @@
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
-      <c r="D226" s="11"/>
+      <c r="D226" s="10"/>
       <c r="E226" s="4"/>
       <c r="F226" s="4"/>
-      <c r="G226" s="11"/>
+      <c r="G226" s="10"/>
       <c r="H226" s="4"/>
       <c r="I226" s="4"/>
       <c r="J226" s="4"/>
@@ -7702,10 +7687,10 @@
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
-      <c r="D227" s="11"/>
+      <c r="D227" s="10"/>
       <c r="E227" s="4"/>
       <c r="F227" s="4"/>
-      <c r="G227" s="11"/>
+      <c r="G227" s="10"/>
       <c r="H227" s="4"/>
       <c r="I227" s="4"/>
       <c r="J227" s="4"/>
@@ -7718,10 +7703,10 @@
       <c r="A228" s="4"/>
       <c r="B228" s="4"/>
       <c r="C228" s="4"/>
-      <c r="D228" s="11"/>
+      <c r="D228" s="10"/>
       <c r="E228" s="4"/>
       <c r="F228" s="4"/>
-      <c r="G228" s="11"/>
+      <c r="G228" s="10"/>
       <c r="H228" s="4"/>
       <c r="I228" s="4"/>
       <c r="J228" s="4"/>
@@ -7734,10 +7719,10 @@
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
       <c r="C229" s="4"/>
-      <c r="D229" s="11"/>
+      <c r="D229" s="10"/>
       <c r="E229" s="4"/>
       <c r="F229" s="4"/>
-      <c r="G229" s="11"/>
+      <c r="G229" s="10"/>
       <c r="H229" s="4"/>
       <c r="I229" s="4"/>
       <c r="J229" s="4"/>
@@ -7750,10 +7735,10 @@
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
-      <c r="D230" s="11"/>
+      <c r="D230" s="10"/>
       <c r="E230" s="4"/>
       <c r="F230" s="4"/>
-      <c r="G230" s="11"/>
+      <c r="G230" s="10"/>
       <c r="H230" s="4"/>
       <c r="I230" s="4"/>
       <c r="J230" s="4"/>
@@ -7766,10 +7751,10 @@
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
-      <c r="D231" s="11"/>
+      <c r="D231" s="10"/>
       <c r="E231" s="4"/>
       <c r="F231" s="4"/>
-      <c r="G231" s="11"/>
+      <c r="G231" s="10"/>
       <c r="H231" s="4"/>
       <c r="I231" s="4"/>
       <c r="J231" s="4"/>
@@ -7782,10 +7767,10 @@
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
       <c r="C232" s="4"/>
-      <c r="D232" s="11"/>
+      <c r="D232" s="10"/>
       <c r="E232" s="4"/>
       <c r="F232" s="4"/>
-      <c r="G232" s="11"/>
+      <c r="G232" s="10"/>
       <c r="H232" s="4"/>
       <c r="I232" s="4"/>
       <c r="J232" s="4"/>
@@ -7798,10 +7783,10 @@
       <c r="A233" s="4"/>
       <c r="B233" s="4"/>
       <c r="C233" s="4"/>
-      <c r="D233" s="11"/>
+      <c r="D233" s="10"/>
       <c r="E233" s="4"/>
       <c r="F233" s="4"/>
-      <c r="G233" s="11"/>
+      <c r="G233" s="10"/>
       <c r="H233" s="4"/>
       <c r="I233" s="4"/>
       <c r="J233" s="4"/>
@@ -7814,10 +7799,10 @@
       <c r="A234" s="4"/>
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
-      <c r="D234" s="11"/>
+      <c r="D234" s="10"/>
       <c r="E234" s="4"/>
       <c r="F234" s="4"/>
-      <c r="G234" s="11"/>
+      <c r="G234" s="10"/>
       <c r="H234" s="4"/>
       <c r="I234" s="4"/>
       <c r="J234" s="4"/>
@@ -7830,10 +7815,10 @@
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
-      <c r="D235" s="11"/>
+      <c r="D235" s="10"/>
       <c r="E235" s="4"/>
       <c r="F235" s="4"/>
-      <c r="G235" s="11"/>
+      <c r="G235" s="10"/>
       <c r="H235" s="4"/>
       <c r="I235" s="4"/>
       <c r="J235" s="4"/>
@@ -7846,10 +7831,10 @@
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
       <c r="C236" s="4"/>
-      <c r="D236" s="11"/>
+      <c r="D236" s="10"/>
       <c r="E236" s="4"/>
       <c r="F236" s="4"/>
-      <c r="G236" s="11"/>
+      <c r="G236" s="10"/>
       <c r="H236" s="4"/>
       <c r="I236" s="4"/>
       <c r="J236" s="4"/>
@@ -7862,10 +7847,10 @@
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
-      <c r="D237" s="11"/>
+      <c r="D237" s="10"/>
       <c r="E237" s="4"/>
       <c r="F237" s="4"/>
-      <c r="G237" s="11"/>
+      <c r="G237" s="10"/>
       <c r="H237" s="4"/>
       <c r="I237" s="4"/>
       <c r="J237" s="4"/>
@@ -7878,10 +7863,10 @@
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
       <c r="C238" s="4"/>
-      <c r="D238" s="11"/>
+      <c r="D238" s="10"/>
       <c r="E238" s="4"/>
       <c r="F238" s="4"/>
-      <c r="G238" s="11"/>
+      <c r="G238" s="10"/>
       <c r="H238" s="4"/>
       <c r="I238" s="4"/>
       <c r="J238" s="4"/>
@@ -7894,10 +7879,10 @@
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
-      <c r="D239" s="11"/>
+      <c r="D239" s="10"/>
       <c r="E239" s="4"/>
       <c r="F239" s="4"/>
-      <c r="G239" s="11"/>
+      <c r="G239" s="10"/>
       <c r="H239" s="4"/>
       <c r="I239" s="4"/>
       <c r="J239" s="4"/>
@@ -7910,10 +7895,10 @@
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
       <c r="C240" s="4"/>
-      <c r="D240" s="11"/>
+      <c r="D240" s="10"/>
       <c r="E240" s="4"/>
       <c r="F240" s="4"/>
-      <c r="G240" s="11"/>
+      <c r="G240" s="10"/>
       <c r="H240" s="4"/>
       <c r="I240" s="4"/>
       <c r="J240" s="4"/>
@@ -7926,10 +7911,10 @@
       <c r="A241" s="4"/>
       <c r="B241" s="4"/>
       <c r="C241" s="4"/>
-      <c r="D241" s="11"/>
+      <c r="D241" s="10"/>
       <c r="E241" s="4"/>
       <c r="F241" s="4"/>
-      <c r="G241" s="11"/>
+      <c r="G241" s="10"/>
       <c r="H241" s="4"/>
       <c r="I241" s="4"/>
       <c r="J241" s="4"/>
@@ -7942,10 +7927,10 @@
       <c r="A242" s="4"/>
       <c r="B242" s="4"/>
       <c r="C242" s="4"/>
-      <c r="D242" s="11"/>
+      <c r="D242" s="10"/>
       <c r="E242" s="4"/>
       <c r="F242" s="4"/>
-      <c r="G242" s="11"/>
+      <c r="G242" s="10"/>
       <c r="H242" s="4"/>
       <c r="I242" s="4"/>
       <c r="J242" s="4"/>
@@ -7958,10 +7943,10 @@
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
-      <c r="D243" s="11"/>
+      <c r="D243" s="10"/>
       <c r="E243" s="4"/>
       <c r="F243" s="4"/>
-      <c r="G243" s="11"/>
+      <c r="G243" s="10"/>
       <c r="H243" s="4"/>
       <c r="I243" s="4"/>
       <c r="J243" s="4"/>
@@ -7974,10 +7959,10 @@
       <c r="A244" s="4"/>
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
-      <c r="D244" s="11"/>
+      <c r="D244" s="10"/>
       <c r="E244" s="4"/>
       <c r="F244" s="4"/>
-      <c r="G244" s="11"/>
+      <c r="G244" s="10"/>
       <c r="H244" s="4"/>
       <c r="I244" s="4"/>
       <c r="J244" s="4"/>
@@ -7990,10 +7975,10 @@
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
-      <c r="D245" s="11"/>
+      <c r="D245" s="10"/>
       <c r="E245" s="4"/>
       <c r="F245" s="4"/>
-      <c r="G245" s="11"/>
+      <c r="G245" s="10"/>
       <c r="H245" s="4"/>
       <c r="I245" s="4"/>
       <c r="J245" s="4"/>
@@ -8006,10 +7991,10 @@
       <c r="A246" s="4"/>
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
-      <c r="D246" s="11"/>
+      <c r="D246" s="10"/>
       <c r="E246" s="4"/>
       <c r="F246" s="4"/>
-      <c r="G246" s="11"/>
+      <c r="G246" s="10"/>
       <c r="H246" s="4"/>
       <c r="I246" s="4"/>
       <c r="J246" s="4"/>
@@ -8022,10 +8007,10 @@
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
-      <c r="D247" s="11"/>
+      <c r="D247" s="10"/>
       <c r="E247" s="4"/>
       <c r="F247" s="4"/>
-      <c r="G247" s="11"/>
+      <c r="G247" s="10"/>
       <c r="H247" s="4"/>
       <c r="I247" s="4"/>
       <c r="J247" s="4"/>
@@ -8038,10 +8023,10 @@
       <c r="A248" s="4"/>
       <c r="B248" s="4"/>
       <c r="C248" s="4"/>
-      <c r="D248" s="11"/>
+      <c r="D248" s="10"/>
       <c r="E248" s="4"/>
       <c r="F248" s="4"/>
-      <c r="G248" s="11"/>
+      <c r="G248" s="10"/>
       <c r="H248" s="4"/>
       <c r="I248" s="4"/>
       <c r="J248" s="4"/>
@@ -8054,10 +8039,10 @@
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
-      <c r="D249" s="11"/>
+      <c r="D249" s="10"/>
       <c r="E249" s="4"/>
       <c r="F249" s="4"/>
-      <c r="G249" s="11"/>
+      <c r="G249" s="10"/>
       <c r="H249" s="4"/>
       <c r="I249" s="4"/>
       <c r="J249" s="4"/>
@@ -8070,10 +8055,10 @@
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
-      <c r="D250" s="11"/>
+      <c r="D250" s="10"/>
       <c r="E250" s="4"/>
       <c r="F250" s="4"/>
-      <c r="G250" s="11"/>
+      <c r="G250" s="10"/>
       <c r="H250" s="4"/>
       <c r="I250" s="4"/>
       <c r="J250" s="4"/>
@@ -8086,10 +8071,10 @@
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
       <c r="C251" s="4"/>
-      <c r="D251" s="11"/>
+      <c r="D251" s="10"/>
       <c r="E251" s="4"/>
       <c r="F251" s="4"/>
-      <c r="G251" s="11"/>
+      <c r="G251" s="10"/>
       <c r="H251" s="4"/>
       <c r="I251" s="4"/>
       <c r="J251" s="4"/>
@@ -8102,10 +8087,10 @@
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
-      <c r="D252" s="11"/>
+      <c r="D252" s="10"/>
       <c r="E252" s="4"/>
       <c r="F252" s="4"/>
-      <c r="G252" s="11"/>
+      <c r="G252" s="10"/>
       <c r="H252" s="4"/>
       <c r="I252" s="4"/>
       <c r="J252" s="4"/>
@@ -8118,10 +8103,10 @@
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
-      <c r="D253" s="11"/>
+      <c r="D253" s="10"/>
       <c r="E253" s="4"/>
       <c r="F253" s="4"/>
-      <c r="G253" s="11"/>
+      <c r="G253" s="10"/>
       <c r="H253" s="4"/>
       <c r="I253" s="4"/>
       <c r="J253" s="4"/>
@@ -8134,10 +8119,10 @@
       <c r="A254" s="4"/>
       <c r="B254" s="4"/>
       <c r="C254" s="4"/>
-      <c r="D254" s="11"/>
+      <c r="D254" s="10"/>
       <c r="E254" s="4"/>
       <c r="F254" s="4"/>
-      <c r="G254" s="11"/>
+      <c r="G254" s="10"/>
       <c r="H254" s="4"/>
       <c r="I254" s="4"/>
       <c r="J254" s="4"/>
@@ -8150,10 +8135,10 @@
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
       <c r="C255" s="4"/>
-      <c r="D255" s="11"/>
+      <c r="D255" s="10"/>
       <c r="E255" s="4"/>
       <c r="F255" s="4"/>
-      <c r="G255" s="11"/>
+      <c r="G255" s="10"/>
       <c r="H255" s="4"/>
       <c r="I255" s="4"/>
       <c r="J255" s="4"/>
@@ -8166,10 +8151,10 @@
       <c r="A256" s="4"/>
       <c r="B256" s="4"/>
       <c r="C256" s="4"/>
-      <c r="D256" s="11"/>
+      <c r="D256" s="10"/>
       <c r="E256" s="4"/>
       <c r="F256" s="4"/>
-      <c r="G256" s="11"/>
+      <c r="G256" s="10"/>
       <c r="H256" s="4"/>
       <c r="I256" s="4"/>
       <c r="J256" s="4"/>
@@ -8182,10 +8167,10 @@
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
       <c r="C257" s="4"/>
-      <c r="D257" s="11"/>
+      <c r="D257" s="10"/>
       <c r="E257" s="4"/>
       <c r="F257" s="4"/>
-      <c r="G257" s="11"/>
+      <c r="G257" s="10"/>
       <c r="H257" s="4"/>
       <c r="I257" s="4"/>
       <c r="J257" s="4"/>
@@ -8198,10 +8183,10 @@
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
       <c r="C258" s="4"/>
-      <c r="D258" s="11"/>
+      <c r="D258" s="10"/>
       <c r="E258" s="4"/>
       <c r="F258" s="4"/>
-      <c r="G258" s="11"/>
+      <c r="G258" s="10"/>
       <c r="H258" s="4"/>
       <c r="I258" s="4"/>
       <c r="J258" s="4"/>
@@ -8214,10 +8199,10 @@
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
-      <c r="D259" s="11"/>
+      <c r="D259" s="10"/>
       <c r="E259" s="4"/>
       <c r="F259" s="4"/>
-      <c r="G259" s="11"/>
+      <c r="G259" s="10"/>
       <c r="H259" s="4"/>
       <c r="I259" s="4"/>
       <c r="J259" s="4"/>
@@ -8230,10 +8215,10 @@
       <c r="A260" s="4"/>
       <c r="B260" s="4"/>
       <c r="C260" s="4"/>
-      <c r="D260" s="11"/>
+      <c r="D260" s="10"/>
       <c r="E260" s="4"/>
       <c r="F260" s="4"/>
-      <c r="G260" s="11"/>
+      <c r="G260" s="10"/>
       <c r="H260" s="4"/>
       <c r="I260" s="4"/>
       <c r="J260" s="4"/>
@@ -8246,10 +8231,10 @@
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
-      <c r="D261" s="11"/>
+      <c r="D261" s="10"/>
       <c r="E261" s="4"/>
       <c r="F261" s="4"/>
-      <c r="G261" s="11"/>
+      <c r="G261" s="10"/>
       <c r="H261" s="4"/>
       <c r="I261" s="4"/>
       <c r="J261" s="4"/>
@@ -8262,10 +8247,10 @@
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
       <c r="C262" s="4"/>
-      <c r="D262" s="11"/>
+      <c r="D262" s="10"/>
       <c r="E262" s="4"/>
       <c r="F262" s="4"/>
-      <c r="G262" s="11"/>
+      <c r="G262" s="10"/>
       <c r="H262" s="4"/>
       <c r="I262" s="4"/>
       <c r="J262" s="4"/>
@@ -8278,10 +8263,10 @@
       <c r="A263" s="4"/>
       <c r="B263" s="4"/>
       <c r="C263" s="4"/>
-      <c r="D263" s="11"/>
+      <c r="D263" s="10"/>
       <c r="E263" s="4"/>
       <c r="F263" s="4"/>
-      <c r="G263" s="11"/>
+      <c r="G263" s="10"/>
       <c r="H263" s="4"/>
       <c r="I263" s="4"/>
       <c r="J263" s="4"/>
@@ -8294,10 +8279,10 @@
       <c r="A264" s="4"/>
       <c r="B264" s="4"/>
       <c r="C264" s="4"/>
-      <c r="D264" s="11"/>
+      <c r="D264" s="10"/>
       <c r="E264" s="4"/>
       <c r="F264" s="4"/>
-      <c r="G264" s="11"/>
+      <c r="G264" s="10"/>
       <c r="H264" s="4"/>
       <c r="I264" s="4"/>
       <c r="J264" s="4"/>
@@ -8310,10 +8295,10 @@
       <c r="A265" s="4"/>
       <c r="B265" s="4"/>
       <c r="C265" s="4"/>
-      <c r="D265" s="11"/>
+      <c r="D265" s="10"/>
       <c r="E265" s="4"/>
       <c r="F265" s="4"/>
-      <c r="G265" s="11"/>
+      <c r="G265" s="10"/>
       <c r="H265" s="4"/>
       <c r="I265" s="4"/>
       <c r="J265" s="4"/>
@@ -8326,10 +8311,10 @@
       <c r="A266" s="4"/>
       <c r="B266" s="4"/>
       <c r="C266" s="4"/>
-      <c r="D266" s="11"/>
+      <c r="D266" s="10"/>
       <c r="E266" s="4"/>
       <c r="F266" s="4"/>
-      <c r="G266" s="11"/>
+      <c r="G266" s="10"/>
       <c r="H266" s="4"/>
       <c r="I266" s="4"/>
       <c r="J266" s="4"/>
@@ -8342,10 +8327,10 @@
       <c r="A267" s="4"/>
       <c r="B267" s="4"/>
       <c r="C267" s="4"/>
-      <c r="D267" s="11"/>
+      <c r="D267" s="10"/>
       <c r="E267" s="4"/>
       <c r="F267" s="4"/>
-      <c r="G267" s="11"/>
+      <c r="G267" s="10"/>
       <c r="H267" s="4"/>
       <c r="I267" s="4"/>
       <c r="J267" s="4"/>
@@ -8358,10 +8343,10 @@
       <c r="A268" s="4"/>
       <c r="B268" s="4"/>
       <c r="C268" s="4"/>
-      <c r="D268" s="11"/>
+      <c r="D268" s="10"/>
       <c r="E268" s="4"/>
       <c r="F268" s="4"/>
-      <c r="G268" s="11"/>
+      <c r="G268" s="10"/>
       <c r="H268" s="4"/>
       <c r="I268" s="4"/>
       <c r="J268" s="4"/>
@@ -8374,10 +8359,10 @@
       <c r="A269" s="4"/>
       <c r="B269" s="4"/>
       <c r="C269" s="4"/>
-      <c r="D269" s="11"/>
+      <c r="D269" s="10"/>
       <c r="E269" s="4"/>
       <c r="F269" s="4"/>
-      <c r="G269" s="11"/>
+      <c r="G269" s="10"/>
       <c r="H269" s="4"/>
       <c r="I269" s="4"/>
       <c r="J269" s="4"/>
@@ -8390,10 +8375,10 @@
       <c r="A270" s="4"/>
       <c r="B270" s="4"/>
       <c r="C270" s="4"/>
-      <c r="D270" s="11"/>
+      <c r="D270" s="10"/>
       <c r="E270" s="4"/>
       <c r="F270" s="4"/>
-      <c r="G270" s="11"/>
+      <c r="G270" s="10"/>
       <c r="H270" s="4"/>
       <c r="I270" s="4"/>
       <c r="J270" s="4"/>
@@ -8406,10 +8391,10 @@
       <c r="A271" s="4"/>
       <c r="B271" s="4"/>
       <c r="C271" s="4"/>
-      <c r="D271" s="11"/>
+      <c r="D271" s="10"/>
       <c r="E271" s="4"/>
       <c r="F271" s="4"/>
-      <c r="G271" s="11"/>
+      <c r="G271" s="10"/>
       <c r="H271" s="4"/>
       <c r="I271" s="4"/>
       <c r="J271" s="4"/>
@@ -8422,10 +8407,10 @@
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
       <c r="C272" s="4"/>
-      <c r="D272" s="11"/>
+      <c r="D272" s="10"/>
       <c r="E272" s="4"/>
       <c r="F272" s="4"/>
-      <c r="G272" s="11"/>
+      <c r="G272" s="10"/>
       <c r="H272" s="4"/>
       <c r="I272" s="4"/>
       <c r="J272" s="4"/>
@@ -8438,10 +8423,10 @@
       <c r="A273" s="4"/>
       <c r="B273" s="4"/>
       <c r="C273" s="4"/>
-      <c r="D273" s="11"/>
+      <c r="D273" s="10"/>
       <c r="E273" s="4"/>
       <c r="F273" s="4"/>
-      <c r="G273" s="11"/>
+      <c r="G273" s="10"/>
       <c r="H273" s="4"/>
       <c r="I273" s="4"/>
       <c r="J273" s="4"/>
@@ -8454,10 +8439,10 @@
       <c r="A274" s="4"/>
       <c r="B274" s="4"/>
       <c r="C274" s="4"/>
-      <c r="D274" s="11"/>
+      <c r="D274" s="10"/>
       <c r="E274" s="4"/>
       <c r="F274" s="4"/>
-      <c r="G274" s="11"/>
+      <c r="G274" s="10"/>
       <c r="H274" s="4"/>
       <c r="I274" s="4"/>
       <c r="J274" s="4"/>
@@ -8470,10 +8455,10 @@
       <c r="A275" s="4"/>
       <c r="B275" s="4"/>
       <c r="C275" s="4"/>
-      <c r="D275" s="11"/>
+      <c r="D275" s="10"/>
       <c r="E275" s="4"/>
       <c r="F275" s="4"/>
-      <c r="G275" s="11"/>
+      <c r="G275" s="10"/>
       <c r="H275" s="4"/>
       <c r="I275" s="4"/>
       <c r="J275" s="4"/>
@@ -8486,10 +8471,10 @@
       <c r="A276" s="4"/>
       <c r="B276" s="4"/>
       <c r="C276" s="4"/>
-      <c r="D276" s="11"/>
+      <c r="D276" s="10"/>
       <c r="E276" s="4"/>
       <c r="F276" s="4"/>
-      <c r="G276" s="11"/>
+      <c r="G276" s="10"/>
       <c r="H276" s="4"/>
       <c r="I276" s="4"/>
       <c r="J276" s="4"/>
@@ -8502,10 +8487,10 @@
       <c r="A277" s="4"/>
       <c r="B277" s="4"/>
       <c r="C277" s="4"/>
-      <c r="D277" s="11"/>
+      <c r="D277" s="10"/>
       <c r="E277" s="4"/>
       <c r="F277" s="4"/>
-      <c r="G277" s="11"/>
+      <c r="G277" s="10"/>
       <c r="H277" s="4"/>
       <c r="I277" s="4"/>
       <c r="J277" s="4"/>
@@ -8518,10 +8503,10 @@
       <c r="A278" s="4"/>
       <c r="B278" s="4"/>
       <c r="C278" s="4"/>
-      <c r="D278" s="11"/>
+      <c r="D278" s="10"/>
       <c r="E278" s="4"/>
       <c r="F278" s="4"/>
-      <c r="G278" s="11"/>
+      <c r="G278" s="10"/>
       <c r="H278" s="4"/>
       <c r="I278" s="4"/>
       <c r="J278" s="4"/>
@@ -8534,10 +8519,10 @@
       <c r="A279" s="4"/>
       <c r="B279" s="4"/>
       <c r="C279" s="4"/>
-      <c r="D279" s="11"/>
+      <c r="D279" s="10"/>
       <c r="E279" s="4"/>
       <c r="F279" s="4"/>
-      <c r="G279" s="11"/>
+      <c r="G279" s="10"/>
       <c r="H279" s="4"/>
       <c r="I279" s="4"/>
       <c r="J279" s="4"/>
@@ -8550,10 +8535,10 @@
       <c r="A280" s="4"/>
       <c r="B280" s="4"/>
       <c r="C280" s="4"/>
-      <c r="D280" s="11"/>
+      <c r="D280" s="10"/>
       <c r="E280" s="4"/>
       <c r="F280" s="4"/>
-      <c r="G280" s="11"/>
+      <c r="G280" s="10"/>
       <c r="H280" s="4"/>
       <c r="I280" s="4"/>
       <c r="J280" s="4"/>
@@ -8566,10 +8551,10 @@
       <c r="A281" s="4"/>
       <c r="B281" s="4"/>
       <c r="C281" s="4"/>
-      <c r="D281" s="11"/>
+      <c r="D281" s="10"/>
       <c r="E281" s="4"/>
       <c r="F281" s="4"/>
-      <c r="G281" s="11"/>
+      <c r="G281" s="10"/>
       <c r="H281" s="4"/>
       <c r="I281" s="4"/>
       <c r="J281" s="4"/>
@@ -8582,10 +8567,10 @@
       <c r="A282" s="4"/>
       <c r="B282" s="4"/>
       <c r="C282" s="4"/>
-      <c r="D282" s="11"/>
+      <c r="D282" s="10"/>
       <c r="E282" s="4"/>
       <c r="F282" s="4"/>
-      <c r="G282" s="11"/>
+      <c r="G282" s="10"/>
       <c r="H282" s="4"/>
       <c r="I282" s="4"/>
       <c r="J282" s="4"/>
@@ -8598,10 +8583,10 @@
       <c r="A283" s="4"/>
       <c r="B283" s="4"/>
       <c r="C283" s="4"/>
-      <c r="D283" s="11"/>
+      <c r="D283" s="10"/>
       <c r="E283" s="4"/>
       <c r="F283" s="4"/>
-      <c r="G283" s="11"/>
+      <c r="G283" s="10"/>
       <c r="H283" s="4"/>
       <c r="I283" s="4"/>
       <c r="J283" s="4"/>
@@ -8614,10 +8599,10 @@
       <c r="A284" s="4"/>
       <c r="B284" s="4"/>
       <c r="C284" s="4"/>
-      <c r="D284" s="11"/>
+      <c r="D284" s="10"/>
       <c r="E284" s="4"/>
       <c r="F284" s="4"/>
-      <c r="G284" s="11"/>
+      <c r="G284" s="10"/>
       <c r="H284" s="4"/>
       <c r="I284" s="4"/>
       <c r="J284" s="4"/>
@@ -8630,10 +8615,10 @@
       <c r="A285" s="4"/>
       <c r="B285" s="4"/>
       <c r="C285" s="4"/>
-      <c r="D285" s="11"/>
+      <c r="D285" s="10"/>
       <c r="E285" s="4"/>
       <c r="F285" s="4"/>
-      <c r="G285" s="11"/>
+      <c r="G285" s="10"/>
       <c r="H285" s="4"/>
       <c r="I285" s="4"/>
       <c r="J285" s="4"/>
@@ -8646,10 +8631,10 @@
       <c r="A286" s="4"/>
       <c r="B286" s="4"/>
       <c r="C286" s="4"/>
-      <c r="D286" s="11"/>
+      <c r="D286" s="10"/>
       <c r="E286" s="4"/>
       <c r="F286" s="4"/>
-      <c r="G286" s="11"/>
+      <c r="G286" s="10"/>
       <c r="H286" s="4"/>
       <c r="I286" s="4"/>
       <c r="J286" s="4"/>
@@ -8662,10 +8647,10 @@
       <c r="A287" s="4"/>
       <c r="B287" s="4"/>
       <c r="C287" s="4"/>
-      <c r="D287" s="11"/>
+      <c r="D287" s="10"/>
       <c r="E287" s="4"/>
       <c r="F287" s="4"/>
-      <c r="G287" s="11"/>
+      <c r="G287" s="10"/>
       <c r="H287" s="4"/>
       <c r="I287" s="4"/>
       <c r="J287" s="4"/>
@@ -8678,10 +8663,10 @@
       <c r="A288" s="4"/>
       <c r="B288" s="4"/>
       <c r="C288" s="4"/>
-      <c r="D288" s="11"/>
+      <c r="D288" s="10"/>
       <c r="E288" s="4"/>
       <c r="F288" s="4"/>
-      <c r="G288" s="11"/>
+      <c r="G288" s="10"/>
       <c r="H288" s="4"/>
       <c r="I288" s="4"/>
       <c r="J288" s="4"/>
@@ -8694,10 +8679,10 @@
       <c r="A289" s="4"/>
       <c r="B289" s="4"/>
       <c r="C289" s="4"/>
-      <c r="D289" s="11"/>
+      <c r="D289" s="10"/>
       <c r="E289" s="4"/>
       <c r="F289" s="4"/>
-      <c r="G289" s="11"/>
+      <c r="G289" s="10"/>
       <c r="H289" s="4"/>
       <c r="I289" s="4"/>
       <c r="J289" s="4"/>
@@ -8710,10 +8695,10 @@
       <c r="A290" s="4"/>
       <c r="B290" s="4"/>
       <c r="C290" s="4"/>
-      <c r="D290" s="11"/>
+      <c r="D290" s="10"/>
       <c r="E290" s="4"/>
       <c r="F290" s="4"/>
-      <c r="G290" s="11"/>
+      <c r="G290" s="10"/>
       <c r="H290" s="4"/>
       <c r="I290" s="4"/>
       <c r="J290" s="4"/>
@@ -8726,10 +8711,10 @@
       <c r="A291" s="4"/>
       <c r="B291" s="4"/>
       <c r="C291" s="4"/>
-      <c r="D291" s="11"/>
+      <c r="D291" s="10"/>
       <c r="E291" s="4"/>
       <c r="F291" s="4"/>
-      <c r="G291" s="11"/>
+      <c r="G291" s="10"/>
       <c r="H291" s="4"/>
       <c r="I291" s="4"/>
       <c r="J291" s="4"/>
@@ -8742,10 +8727,10 @@
       <c r="A292" s="4"/>
       <c r="B292" s="4"/>
       <c r="C292" s="4"/>
-      <c r="D292" s="11"/>
+      <c r="D292" s="10"/>
       <c r="E292" s="4"/>
       <c r="F292" s="4"/>
-      <c r="G292" s="11"/>
+      <c r="G292" s="10"/>
       <c r="H292" s="4"/>
       <c r="I292" s="4"/>
       <c r="J292" s="4"/>
@@ -8758,10 +8743,10 @@
       <c r="A293" s="4"/>
       <c r="B293" s="4"/>
       <c r="C293" s="4"/>
-      <c r="D293" s="11"/>
+      <c r="D293" s="10"/>
       <c r="E293" s="4"/>
       <c r="F293" s="4"/>
-      <c r="G293" s="11"/>
+      <c r="G293" s="10"/>
       <c r="H293" s="4"/>
       <c r="I293" s="4"/>
       <c r="J293" s="4"/>
@@ -8774,10 +8759,10 @@
       <c r="A294" s="4"/>
       <c r="B294" s="4"/>
       <c r="C294" s="4"/>
-      <c r="D294" s="11"/>
+      <c r="D294" s="10"/>
       <c r="E294" s="4"/>
       <c r="F294" s="4"/>
-      <c r="G294" s="11"/>
+      <c r="G294" s="10"/>
       <c r="H294" s="4"/>
       <c r="I294" s="4"/>
       <c r="J294" s="4"/>
@@ -8790,10 +8775,10 @@
       <c r="A295" s="4"/>
       <c r="B295" s="4"/>
       <c r="C295" s="4"/>
-      <c r="D295" s="11"/>
+      <c r="D295" s="10"/>
       <c r="E295" s="4"/>
       <c r="F295" s="4"/>
-      <c r="G295" s="11"/>
+      <c r="G295" s="10"/>
       <c r="H295" s="4"/>
       <c r="I295" s="4"/>
       <c r="J295" s="4"/>
@@ -8806,10 +8791,10 @@
       <c r="A296" s="4"/>
       <c r="B296" s="4"/>
       <c r="C296" s="4"/>
-      <c r="D296" s="11"/>
+      <c r="D296" s="10"/>
       <c r="E296" s="4"/>
       <c r="F296" s="4"/>
-      <c r="G296" s="11"/>
+      <c r="G296" s="10"/>
       <c r="H296" s="4"/>
       <c r="I296" s="4"/>
       <c r="J296" s="4"/>
@@ -8822,10 +8807,10 @@
       <c r="A297" s="4"/>
       <c r="B297" s="4"/>
       <c r="C297" s="4"/>
-      <c r="D297" s="11"/>
+      <c r="D297" s="10"/>
       <c r="E297" s="4"/>
       <c r="F297" s="4"/>
-      <c r="G297" s="11"/>
+      <c r="G297" s="10"/>
       <c r="H297" s="4"/>
       <c r="I297" s="4"/>
       <c r="J297" s="4"/>
@@ -8838,10 +8823,10 @@
       <c r="A298" s="4"/>
       <c r="B298" s="4"/>
       <c r="C298" s="4"/>
-      <c r="D298" s="11"/>
+      <c r="D298" s="10"/>
       <c r="E298" s="4"/>
       <c r="F298" s="4"/>
-      <c r="G298" s="11"/>
+      <c r="G298" s="10"/>
       <c r="H298" s="4"/>
       <c r="I298" s="4"/>
       <c r="J298" s="4"/>
@@ -8854,10 +8839,10 @@
       <c r="A299" s="4"/>
       <c r="B299" s="4"/>
       <c r="C299" s="4"/>
-      <c r="D299" s="11"/>
+      <c r="D299" s="10"/>
       <c r="E299" s="4"/>
       <c r="F299" s="4"/>
-      <c r="G299" s="11"/>
+      <c r="G299" s="10"/>
       <c r="H299" s="4"/>
       <c r="I299" s="4"/>
       <c r="J299" s="4"/>
@@ -8870,10 +8855,10 @@
       <c r="A300" s="4"/>
       <c r="B300" s="4"/>
       <c r="C300" s="4"/>
-      <c r="D300" s="11"/>
+      <c r="D300" s="10"/>
       <c r="E300" s="4"/>
       <c r="F300" s="4"/>
-      <c r="G300" s="11"/>
+      <c r="G300" s="10"/>
       <c r="H300" s="4"/>
       <c r="I300" s="4"/>
       <c r="J300" s="4"/>
@@ -8886,10 +8871,10 @@
       <c r="A301" s="4"/>
       <c r="B301" s="4"/>
       <c r="C301" s="4"/>
-      <c r="D301" s="11"/>
+      <c r="D301" s="10"/>
       <c r="E301" s="4"/>
       <c r="F301" s="4"/>
-      <c r="G301" s="11"/>
+      <c r="G301" s="10"/>
       <c r="H301" s="4"/>
       <c r="I301" s="4"/>
       <c r="J301" s="4"/>
@@ -8902,10 +8887,10 @@
       <c r="A302" s="4"/>
       <c r="B302" s="4"/>
       <c r="C302" s="4"/>
-      <c r="D302" s="11"/>
+      <c r="D302" s="10"/>
       <c r="E302" s="4"/>
       <c r="F302" s="4"/>
-      <c r="G302" s="11"/>
+      <c r="G302" s="10"/>
       <c r="H302" s="4"/>
       <c r="I302" s="4"/>
       <c r="J302" s="4"/>
@@ -8918,10 +8903,10 @@
       <c r="A303" s="4"/>
       <c r="B303" s="4"/>
       <c r="C303" s="4"/>
-      <c r="D303" s="11"/>
+      <c r="D303" s="10"/>
       <c r="E303" s="4"/>
       <c r="F303" s="4"/>
-      <c r="G303" s="11"/>
+      <c r="G303" s="10"/>
       <c r="H303" s="4"/>
       <c r="I303" s="4"/>
       <c r="J303" s="4"/>
@@ -8934,10 +8919,10 @@
       <c r="A304" s="4"/>
       <c r="B304" s="4"/>
       <c r="C304" s="4"/>
-      <c r="D304" s="11"/>
+      <c r="D304" s="10"/>
       <c r="E304" s="4"/>
       <c r="F304" s="4"/>
-      <c r="G304" s="11"/>
+      <c r="G304" s="10"/>
       <c r="H304" s="4"/>
       <c r="I304" s="4"/>
       <c r="J304" s="4"/>
@@ -8950,10 +8935,10 @@
       <c r="A305" s="4"/>
       <c r="B305" s="4"/>
       <c r="C305" s="4"/>
-      <c r="D305" s="11"/>
+      <c r="D305" s="10"/>
       <c r="E305" s="4"/>
       <c r="F305" s="4"/>
-      <c r="G305" s="11"/>
+      <c r="G305" s="10"/>
       <c r="H305" s="4"/>
       <c r="I305" s="4"/>
       <c r="J305" s="4"/>
@@ -8966,10 +8951,10 @@
       <c r="A306" s="4"/>
       <c r="B306" s="4"/>
       <c r="C306" s="4"/>
-      <c r="D306" s="11"/>
+      <c r="D306" s="10"/>
       <c r="E306" s="4"/>
       <c r="F306" s="4"/>
-      <c r="G306" s="11"/>
+      <c r="G306" s="10"/>
       <c r="H306" s="4"/>
       <c r="I306" s="4"/>
       <c r="J306" s="4"/>
@@ -8982,10 +8967,10 @@
       <c r="A307" s="4"/>
       <c r="B307" s="4"/>
       <c r="C307" s="4"/>
-      <c r="D307" s="11"/>
+      <c r="D307" s="10"/>
       <c r="E307" s="4"/>
       <c r="F307" s="4"/>
-      <c r="G307" s="11"/>
+      <c r="G307" s="10"/>
       <c r="H307" s="4"/>
       <c r="I307" s="4"/>
       <c r="J307" s="4"/>
@@ -8998,10 +8983,10 @@
       <c r="A308" s="4"/>
       <c r="B308" s="4"/>
       <c r="C308" s="4"/>
-      <c r="D308" s="11"/>
+      <c r="D308" s="10"/>
       <c r="E308" s="4"/>
       <c r="F308" s="4"/>
-      <c r="G308" s="11"/>
+      <c r="G308" s="10"/>
       <c r="H308" s="4"/>
       <c r="I308" s="4"/>
       <c r="J308" s="4"/>
@@ -9014,10 +8999,10 @@
       <c r="A309" s="4"/>
       <c r="B309" s="4"/>
       <c r="C309" s="4"/>
-      <c r="D309" s="11"/>
+      <c r="D309" s="10"/>
       <c r="E309" s="4"/>
       <c r="F309" s="4"/>
-      <c r="G309" s="11"/>
+      <c r="G309" s="10"/>
       <c r="H309" s="4"/>
       <c r="I309" s="4"/>
       <c r="J309" s="4"/>
@@ -9030,10 +9015,10 @@
       <c r="A310" s="4"/>
       <c r="B310" s="4"/>
       <c r="C310" s="4"/>
-      <c r="D310" s="11"/>
+      <c r="D310" s="10"/>
       <c r="E310" s="4"/>
       <c r="F310" s="4"/>
-      <c r="G310" s="11"/>
+      <c r="G310" s="10"/>
       <c r="H310" s="4"/>
       <c r="I310" s="4"/>
       <c r="J310" s="4"/>
@@ -9046,10 +9031,10 @@
       <c r="A311" s="4"/>
       <c r="B311" s="4"/>
       <c r="C311" s="4"/>
-      <c r="D311" s="11"/>
+      <c r="D311" s="10"/>
       <c r="E311" s="4"/>
       <c r="F311" s="4"/>
-      <c r="G311" s="11"/>
+      <c r="G311" s="10"/>
       <c r="H311" s="4"/>
       <c r="I311" s="4"/>
       <c r="J311" s="4"/>
@@ -9062,10 +9047,10 @@
       <c r="A312" s="4"/>
       <c r="B312" s="4"/>
       <c r="C312" s="4"/>
-      <c r="D312" s="11"/>
+      <c r="D312" s="10"/>
       <c r="E312" s="4"/>
       <c r="F312" s="4"/>
-      <c r="G312" s="11"/>
+      <c r="G312" s="10"/>
       <c r="H312" s="4"/>
       <c r="I312" s="4"/>
       <c r="J312" s="4"/>
@@ -9078,10 +9063,10 @@
       <c r="A313" s="4"/>
       <c r="B313" s="4"/>
       <c r="C313" s="4"/>
-      <c r="D313" s="11"/>
+      <c r="D313" s="10"/>
       <c r="E313" s="4"/>
       <c r="F313" s="4"/>
-      <c r="G313" s="11"/>
+      <c r="G313" s="10"/>
       <c r="H313" s="4"/>
       <c r="I313" s="4"/>
       <c r="J313" s="4"/>
@@ -9094,10 +9079,10 @@
       <c r="A314" s="4"/>
       <c r="B314" s="4"/>
       <c r="C314" s="4"/>
-      <c r="D314" s="11"/>
+      <c r="D314" s="10"/>
       <c r="E314" s="4"/>
       <c r="F314" s="4"/>
-      <c r="G314" s="11"/>
+      <c r="G314" s="10"/>
       <c r="H314" s="4"/>
       <c r="I314" s="4"/>
       <c r="J314" s="4"/>
@@ -9110,10 +9095,10 @@
       <c r="A315" s="4"/>
       <c r="B315" s="4"/>
       <c r="C315" s="4"/>
-      <c r="D315" s="11"/>
+      <c r="D315" s="10"/>
       <c r="E315" s="4"/>
       <c r="F315" s="4"/>
-      <c r="G315" s="11"/>
+      <c r="G315" s="10"/>
       <c r="H315" s="4"/>
       <c r="I315" s="4"/>
       <c r="J315" s="4"/>
@@ -9126,10 +9111,10 @@
       <c r="A316" s="4"/>
       <c r="B316" s="4"/>
       <c r="C316" s="4"/>
-      <c r="D316" s="11"/>
+      <c r="D316" s="10"/>
       <c r="E316" s="4"/>
       <c r="F316" s="4"/>
-      <c r="G316" s="11"/>
+      <c r="G316" s="10"/>
       <c r="H316" s="4"/>
       <c r="I316" s="4"/>
       <c r="J316" s="4"/>
@@ -9142,10 +9127,10 @@
       <c r="A317" s="4"/>
       <c r="B317" s="4"/>
       <c r="C317" s="4"/>
-      <c r="D317" s="11"/>
+      <c r="D317" s="10"/>
       <c r="E317" s="4"/>
       <c r="F317" s="4"/>
-      <c r="G317" s="11"/>
+      <c r="G317" s="10"/>
       <c r="H317" s="4"/>
       <c r="I317" s="4"/>
       <c r="J317" s="4"/>
@@ -9158,10 +9143,10 @@
       <c r="A318" s="4"/>
       <c r="B318" s="4"/>
       <c r="C318" s="4"/>
-      <c r="D318" s="11"/>
+      <c r="D318" s="10"/>
       <c r="E318" s="4"/>
       <c r="F318" s="4"/>
-      <c r="G318" s="11"/>
+      <c r="G318" s="10"/>
       <c r="H318" s="4"/>
       <c r="I318" s="4"/>
       <c r="J318" s="4"/>
@@ -9174,10 +9159,10 @@
       <c r="A319" s="4"/>
       <c r="B319" s="4"/>
       <c r="C319" s="4"/>
-      <c r="D319" s="11"/>
+      <c r="D319" s="10"/>
       <c r="E319" s="4"/>
       <c r="F319" s="4"/>
-      <c r="G319" s="11"/>
+      <c r="G319" s="10"/>
       <c r="H319" s="4"/>
       <c r="I319" s="4"/>
       <c r="J319" s="4"/>
@@ -9190,10 +9175,10 @@
       <c r="A320" s="4"/>
       <c r="B320" s="4"/>
       <c r="C320" s="4"/>
-      <c r="D320" s="11"/>
+      <c r="D320" s="10"/>
       <c r="E320" s="4"/>
       <c r="F320" s="4"/>
-      <c r="G320" s="11"/>
+      <c r="G320" s="10"/>
       <c r="H320" s="4"/>
       <c r="I320" s="4"/>
       <c r="J320" s="4"/>
@@ -9206,10 +9191,10 @@
       <c r="A321" s="4"/>
       <c r="B321" s="4"/>
       <c r="C321" s="4"/>
-      <c r="D321" s="11"/>
+      <c r="D321" s="10"/>
       <c r="E321" s="4"/>
       <c r="F321" s="4"/>
-      <c r="G321" s="11"/>
+      <c r="G321" s="10"/>
       <c r="H321" s="4"/>
       <c r="I321" s="4"/>
       <c r="J321" s="4"/>
@@ -9222,10 +9207,10 @@
       <c r="A322" s="4"/>
       <c r="B322" s="4"/>
       <c r="C322" s="4"/>
-      <c r="D322" s="11"/>
+      <c r="D322" s="10"/>
       <c r="E322" s="4"/>
       <c r="F322" s="4"/>
-      <c r="G322" s="11"/>
+      <c r="G322" s="10"/>
       <c r="H322" s="4"/>
       <c r="I322" s="4"/>
       <c r="J322" s="4"/>
@@ -9238,10 +9223,10 @@
       <c r="A323" s="4"/>
       <c r="B323" s="4"/>
       <c r="C323" s="4"/>
-      <c r="D323" s="11"/>
+      <c r="D323" s="10"/>
       <c r="E323" s="4"/>
       <c r="F323" s="4"/>
-      <c r="G323" s="11"/>
+      <c r="G323" s="10"/>
       <c r="H323" s="4"/>
       <c r="I323" s="4"/>
       <c r="J323" s="4"/>
@@ -9254,10 +9239,10 @@
       <c r="A324" s="4"/>
       <c r="B324" s="4"/>
       <c r="C324" s="4"/>
-      <c r="D324" s="11"/>
+      <c r="D324" s="10"/>
       <c r="E324" s="4"/>
       <c r="F324" s="4"/>
-      <c r="G324" s="11"/>
+      <c r="G324" s="10"/>
       <c r="H324" s="4"/>
       <c r="I324" s="4"/>
       <c r="J324" s="4"/>
@@ -9270,10 +9255,10 @@
       <c r="A325" s="4"/>
       <c r="B325" s="4"/>
       <c r="C325" s="4"/>
-      <c r="D325" s="11"/>
+      <c r="D325" s="10"/>
       <c r="E325" s="4"/>
       <c r="F325" s="4"/>
-      <c r="G325" s="11"/>
+      <c r="G325" s="10"/>
       <c r="H325" s="4"/>
       <c r="I325" s="4"/>
       <c r="J325" s="4"/>
@@ -9286,10 +9271,10 @@
       <c r="A326" s="4"/>
       <c r="B326" s="4"/>
       <c r="C326" s="4"/>
-      <c r="D326" s="11"/>
+      <c r="D326" s="10"/>
       <c r="E326" s="4"/>
       <c r="F326" s="4"/>
-      <c r="G326" s="11"/>
+      <c r="G326" s="10"/>
       <c r="H326" s="4"/>
       <c r="I326" s="4"/>
       <c r="J326" s="4"/>
@@ -9302,10 +9287,10 @@
       <c r="A327" s="4"/>
       <c r="B327" s="4"/>
       <c r="C327" s="4"/>
-      <c r="D327" s="11"/>
+      <c r="D327" s="10"/>
       <c r="E327" s="4"/>
       <c r="F327" s="4"/>
-      <c r="G327" s="11"/>
+      <c r="G327" s="10"/>
       <c r="H327" s="4"/>
       <c r="I327" s="4"/>
       <c r="J327" s="4"/>
@@ -9318,10 +9303,10 @@
       <c r="A328" s="4"/>
       <c r="B328" s="4"/>
       <c r="C328" s="4"/>
-      <c r="D328" s="11"/>
+      <c r="D328" s="10"/>
       <c r="E328" s="4"/>
       <c r="F328" s="4"/>
-      <c r="G328" s="11"/>
+      <c r="G328" s="10"/>
       <c r="H328" s="4"/>
       <c r="I328" s="4"/>
       <c r="J328" s="4"/>
@@ -9334,10 +9319,10 @@
       <c r="A329" s="4"/>
       <c r="B329" s="4"/>
       <c r="C329" s="4"/>
-      <c r="D329" s="11"/>
+      <c r="D329" s="10"/>
       <c r="E329" s="4"/>
       <c r="F329" s="4"/>
-      <c r="G329" s="11"/>
+      <c r="G329" s="10"/>
       <c r="H329" s="4"/>
       <c r="I329" s="4"/>
       <c r="J329" s="4"/>
@@ -9350,10 +9335,10 @@
       <c r="A330" s="4"/>
       <c r="B330" s="4"/>
       <c r="C330" s="4"/>
-      <c r="D330" s="11"/>
+      <c r="D330" s="10"/>
       <c r="E330" s="4"/>
       <c r="F330" s="4"/>
-      <c r="G330" s="11"/>
+      <c r="G330" s="10"/>
       <c r="H330" s="4"/>
       <c r="I330" s="4"/>
       <c r="J330" s="4"/>
@@ -9366,10 +9351,10 @@
       <c r="A331" s="4"/>
       <c r="B331" s="4"/>
       <c r="C331" s="4"/>
-      <c r="D331" s="11"/>
+      <c r="D331" s="10"/>
       <c r="E331" s="4"/>
       <c r="F331" s="4"/>
-      <c r="G331" s="11"/>
+      <c r="G331" s="10"/>
       <c r="H331" s="4"/>
       <c r="I331" s="4"/>
       <c r="J331" s="4"/>
@@ -9382,10 +9367,10 @@
       <c r="A332" s="4"/>
       <c r="B332" s="4"/>
       <c r="C332" s="4"/>
-      <c r="D332" s="11"/>
+      <c r="D332" s="10"/>
       <c r="E332" s="4"/>
       <c r="F332" s="4"/>
-      <c r="G332" s="11"/>
+      <c r="G332" s="10"/>
       <c r="H332" s="4"/>
       <c r="I332" s="4"/>
       <c r="J332" s="4"/>
@@ -9398,10 +9383,10 @@
       <c r="A333" s="4"/>
       <c r="B333" s="4"/>
       <c r="C333" s="4"/>
-      <c r="D333" s="11"/>
+      <c r="D333" s="10"/>
       <c r="E333" s="4"/>
       <c r="F333" s="4"/>
-      <c r="G333" s="11"/>
+      <c r="G333" s="10"/>
       <c r="H333" s="4"/>
       <c r="I333" s="4"/>
       <c r="J333" s="4"/>
@@ -9414,10 +9399,10 @@
       <c r="A334" s="4"/>
       <c r="B334" s="4"/>
       <c r="C334" s="4"/>
-      <c r="D334" s="11"/>
+      <c r="D334" s="10"/>
       <c r="E334" s="4"/>
       <c r="F334" s="4"/>
-      <c r="G334" s="11"/>
+      <c r="G334" s="10"/>
       <c r="H334" s="4"/>
       <c r="I334" s="4"/>
       <c r="J334" s="4"/>
@@ -9430,10 +9415,10 @@
       <c r="A335" s="4"/>
       <c r="B335" s="4"/>
       <c r="C335" s="4"/>
-      <c r="D335" s="11"/>
+      <c r="D335" s="10"/>
       <c r="E335" s="4"/>
       <c r="F335" s="4"/>
-      <c r="G335" s="11"/>
+      <c r="G335" s="10"/>
       <c r="H335" s="4"/>
       <c r="I335" s="4"/>
       <c r="J335" s="4"/>
@@ -9446,10 +9431,10 @@
       <c r="A336" s="4"/>
       <c r="B336" s="4"/>
       <c r="C336" s="4"/>
-      <c r="D336" s="11"/>
+      <c r="D336" s="10"/>
       <c r="E336" s="4"/>
       <c r="F336" s="4"/>
-      <c r="G336" s="11"/>
+      <c r="G336" s="10"/>
       <c r="H336" s="4"/>
       <c r="I336" s="4"/>
       <c r="J336" s="4"/>
@@ -9462,10 +9447,10 @@
       <c r="A337" s="4"/>
       <c r="B337" s="4"/>
       <c r="C337" s="4"/>
-      <c r="D337" s="11"/>
+      <c r="D337" s="10"/>
       <c r="E337" s="4"/>
       <c r="F337" s="4"/>
-      <c r="G337" s="11"/>
+      <c r="G337" s="10"/>
       <c r="H337" s="4"/>
       <c r="I337" s="4"/>
       <c r="J337" s="4"/>
@@ -9478,10 +9463,10 @@
       <c r="A338" s="4"/>
       <c r="B338" s="4"/>
       <c r="C338" s="4"/>
-      <c r="D338" s="11"/>
+      <c r="D338" s="10"/>
       <c r="E338" s="4"/>
       <c r="F338" s="4"/>
-      <c r="G338" s="11"/>
+      <c r="G338" s="10"/>
       <c r="H338" s="4"/>
       <c r="I338" s="4"/>
       <c r="J338" s="4"/>
@@ -9494,10 +9479,10 @@
       <c r="A339" s="4"/>
       <c r="B339" s="4"/>
       <c r="C339" s="4"/>
-      <c r="D339" s="11"/>
+      <c r="D339" s="10"/>
       <c r="E339" s="4"/>
       <c r="F339" s="4"/>
-      <c r="G339" s="11"/>
+      <c r="G339" s="10"/>
       <c r="H339" s="4"/>
       <c r="I339" s="4"/>
       <c r="J339" s="4"/>
@@ -9510,10 +9495,10 @@
       <c r="A340" s="4"/>
       <c r="B340" s="4"/>
       <c r="C340" s="4"/>
-      <c r="D340" s="11"/>
+      <c r="D340" s="10"/>
       <c r="E340" s="4"/>
       <c r="F340" s="4"/>
-      <c r="G340" s="11"/>
+      <c r="G340" s="10"/>
       <c r="H340" s="4"/>
       <c r="I340" s="4"/>
       <c r="J340" s="4"/>
@@ -9526,10 +9511,10 @@
       <c r="A341" s="4"/>
       <c r="B341" s="4"/>
       <c r="C341" s="4"/>
-      <c r="D341" s="11"/>
+      <c r="D341" s="10"/>
       <c r="E341" s="4"/>
       <c r="F341" s="4"/>
-      <c r="G341" s="11"/>
+      <c r="G341" s="10"/>
       <c r="H341" s="4"/>
       <c r="I341" s="4"/>
       <c r="J341" s="4"/>
@@ -9542,10 +9527,10 @@
       <c r="A342" s="4"/>
       <c r="B342" s="4"/>
       <c r="C342" s="4"/>
-      <c r="D342" s="11"/>
+      <c r="D342" s="10"/>
       <c r="E342" s="4"/>
       <c r="F342" s="4"/>
-      <c r="G342" s="11"/>
+      <c r="G342" s="10"/>
       <c r="H342" s="4"/>
       <c r="I342" s="4"/>
       <c r="J342" s="4"/>
@@ -9558,10 +9543,10 @@
       <c r="A343" s="4"/>
       <c r="B343" s="4"/>
       <c r="C343" s="4"/>
-      <c r="D343" s="11"/>
+      <c r="D343" s="10"/>
       <c r="E343" s="4"/>
       <c r="F343" s="4"/>
-      <c r="G343" s="11"/>
+      <c r="G343" s="10"/>
       <c r="H343" s="4"/>
       <c r="I343" s="4"/>
       <c r="J343" s="4"/>
@@ -9574,10 +9559,10 @@
       <c r="A344" s="4"/>
       <c r="B344" s="4"/>
       <c r="C344" s="4"/>
-      <c r="D344" s="11"/>
+      <c r="D344" s="10"/>
       <c r="E344" s="4"/>
       <c r="F344" s="4"/>
-      <c r="G344" s="11"/>
+      <c r="G344" s="10"/>
       <c r="H344" s="4"/>
       <c r="I344" s="4"/>
       <c r="J344" s="4"/>
@@ -9590,10 +9575,10 @@
       <c r="A345" s="4"/>
       <c r="B345" s="4"/>
       <c r="C345" s="4"/>
-      <c r="D345" s="11"/>
+      <c r="D345" s="10"/>
       <c r="E345" s="4"/>
       <c r="F345" s="4"/>
-      <c r="G345" s="11"/>
+      <c r="G345" s="10"/>
       <c r="H345" s="4"/>
       <c r="I345" s="4"/>
       <c r="J345" s="4"/>
@@ -9606,10 +9591,10 @@
       <c r="A346" s="4"/>
       <c r="B346" s="4"/>
       <c r="C346" s="4"/>
-      <c r="D346" s="11"/>
+      <c r="D346" s="10"/>
       <c r="E346" s="4"/>
       <c r="F346" s="4"/>
-      <c r="G346" s="11"/>
+      <c r="G346" s="10"/>
       <c r="H346" s="4"/>
       <c r="I346" s="4"/>
       <c r="J346" s="4"/>
@@ -9622,10 +9607,10 @@
       <c r="A347" s="4"/>
       <c r="B347" s="4"/>
       <c r="C347" s="4"/>
-      <c r="D347" s="11"/>
+      <c r="D347" s="10"/>
       <c r="E347" s="4"/>
       <c r="F347" s="4"/>
-      <c r="G347" s="11"/>
+      <c r="G347" s="10"/>
       <c r="H347" s="4"/>
       <c r="I347" s="4"/>
       <c r="J347" s="4"/>
@@ -9638,10 +9623,10 @@
       <c r="A348" s="4"/>
       <c r="B348" s="4"/>
       <c r="C348" s="4"/>
-      <c r="D348" s="11"/>
+      <c r="D348" s="10"/>
       <c r="E348" s="4"/>
       <c r="F348" s="4"/>
-      <c r="G348" s="11"/>
+      <c r="G348" s="10"/>
       <c r="H348" s="4"/>
       <c r="I348" s="4"/>
       <c r="J348" s="4"/>
@@ -9654,10 +9639,10 @@
       <c r="A349" s="4"/>
       <c r="B349" s="4"/>
       <c r="C349" s="4"/>
-      <c r="D349" s="11"/>
+      <c r="D349" s="10"/>
       <c r="E349" s="4"/>
       <c r="F349" s="4"/>
-      <c r="G349" s="11"/>
+      <c r="G349" s="10"/>
       <c r="H349" s="4"/>
       <c r="I349" s="4"/>
       <c r="J349" s="4"/>
@@ -9670,10 +9655,10 @@
       <c r="A350" s="4"/>
       <c r="B350" s="4"/>
       <c r="C350" s="4"/>
-      <c r="D350" s="11"/>
+      <c r="D350" s="10"/>
       <c r="E350" s="4"/>
       <c r="F350" s="4"/>
-      <c r="G350" s="11"/>
+      <c r="G350" s="10"/>
       <c r="H350" s="4"/>
       <c r="I350" s="4"/>
       <c r="J350" s="4"/>
@@ -9686,10 +9671,10 @@
       <c r="A351" s="4"/>
       <c r="B351" s="4"/>
       <c r="C351" s="4"/>
-      <c r="D351" s="11"/>
+      <c r="D351" s="10"/>
       <c r="E351" s="4"/>
       <c r="F351" s="4"/>
-      <c r="G351" s="11"/>
+      <c r="G351" s="10"/>
       <c r="H351" s="4"/>
       <c r="I351" s="4"/>
       <c r="J351" s="4"/>
@@ -9702,10 +9687,10 @@
       <c r="A352" s="4"/>
       <c r="B352" s="4"/>
       <c r="C352" s="4"/>
-      <c r="D352" s="11"/>
+      <c r="D352" s="10"/>
       <c r="E352" s="4"/>
       <c r="F352" s="4"/>
-      <c r="G352" s="11"/>
+      <c r="G352" s="10"/>
       <c r="H352" s="4"/>
       <c r="I352" s="4"/>
       <c r="J352" s="4"/>
@@ -9718,10 +9703,10 @@
       <c r="A353" s="4"/>
       <c r="B353" s="4"/>
       <c r="C353" s="4"/>
-      <c r="D353" s="11"/>
+      <c r="D353" s="10"/>
       <c r="E353" s="4"/>
       <c r="F353" s="4"/>
-      <c r="G353" s="11"/>
+      <c r="G353" s="10"/>
       <c r="H353" s="4"/>
       <c r="I353" s="4"/>
       <c r="J353" s="4"/>
@@ -9734,10 +9719,10 @@
       <c r="A354" s="4"/>
       <c r="B354" s="4"/>
       <c r="C354" s="4"/>
-      <c r="D354" s="11"/>
+      <c r="D354" s="10"/>
       <c r="E354" s="4"/>
       <c r="F354" s="4"/>
-      <c r="G354" s="11"/>
+      <c r="G354" s="10"/>
       <c r="H354" s="4"/>
       <c r="I354" s="4"/>
       <c r="J354" s="4"/>
@@ -9750,10 +9735,10 @@
       <c r="A355" s="4"/>
       <c r="B355" s="4"/>
       <c r="C355" s="4"/>
-      <c r="D355" s="11"/>
+      <c r="D355" s="10"/>
       <c r="E355" s="4"/>
       <c r="F355" s="4"/>
-      <c r="G355" s="11"/>
+      <c r="G355" s="10"/>
       <c r="H355" s="4"/>
       <c r="I355" s="4"/>
       <c r="J355" s="4"/>
@@ -9766,10 +9751,10 @@
       <c r="A356" s="4"/>
       <c r="B356" s="4"/>
       <c r="C356" s="4"/>
-      <c r="D356" s="11"/>
+      <c r="D356" s="10"/>
       <c r="E356" s="4"/>
       <c r="F356" s="4"/>
-      <c r="G356" s="11"/>
+      <c r="G356" s="10"/>
       <c r="H356" s="4"/>
       <c r="I356" s="4"/>
       <c r="J356" s="4"/>
@@ -9782,10 +9767,10 @@
       <c r="A357" s="4"/>
       <c r="B357" s="4"/>
       <c r="C357" s="4"/>
-      <c r="D357" s="11"/>
+      <c r="D357" s="10"/>
       <c r="E357" s="4"/>
       <c r="F357" s="4"/>
-      <c r="G357" s="11"/>
+      <c r="G357" s="10"/>
       <c r="H357" s="4"/>
       <c r="I357" s="4"/>
       <c r="J357" s="4"/>
@@ -9798,10 +9783,10 @@
       <c r="A358" s="4"/>
       <c r="B358" s="4"/>
       <c r="C358" s="4"/>
-      <c r="D358" s="11"/>
+      <c r="D358" s="10"/>
       <c r="E358" s="4"/>
       <c r="F358" s="4"/>
-      <c r="G358" s="11"/>
+      <c r="G358" s="10"/>
       <c r="H358" s="4"/>
       <c r="I358" s="4"/>
       <c r="J358" s="4"/>
@@ -9814,10 +9799,10 @@
       <c r="A359" s="4"/>
       <c r="B359" s="4"/>
       <c r="C359" s="4"/>
-      <c r="D359" s="11"/>
+      <c r="D359" s="10"/>
       <c r="E359" s="4"/>
       <c r="F359" s="4"/>
-      <c r="G359" s="11"/>
+      <c r="G359" s="10"/>
       <c r="H359" s="4"/>
       <c r="I359" s="4"/>
       <c r="J359" s="4"/>
@@ -9830,10 +9815,10 @@
       <c r="A360" s="4"/>
       <c r="B360" s="4"/>
       <c r="C360" s="4"/>
-      <c r="D360" s="11"/>
+      <c r="D360" s="10"/>
       <c r="E360" s="4"/>
       <c r="F360" s="4"/>
-      <c r="G360" s="11"/>
+      <c r="G360" s="10"/>
       <c r="H360" s="4"/>
       <c r="I360" s="4"/>
       <c r="J360" s="4"/>
@@ -9846,10 +9831,10 @@
       <c r="A361" s="4"/>
       <c r="B361" s="4"/>
       <c r="C361" s="4"/>
-      <c r="D361" s="11"/>
+      <c r="D361" s="10"/>
       <c r="E361" s="4"/>
       <c r="F361" s="4"/>
-      <c r="G361" s="11"/>
+      <c r="G361" s="10"/>
       <c r="H361" s="4"/>
       <c r="I361" s="4"/>
       <c r="J361" s="4"/>
@@ -9862,10 +9847,10 @@
       <c r="A362" s="4"/>
       <c r="B362" s="4"/>
       <c r="C362" s="4"/>
-      <c r="D362" s="11"/>
+      <c r="D362" s="10"/>
       <c r="E362" s="4"/>
       <c r="F362" s="4"/>
-      <c r="G362" s="11"/>
+      <c r="G362" s="10"/>
       <c r="H362" s="4"/>
       <c r="I362" s="4"/>
       <c r="J362" s="4"/>
@@ -9878,10 +9863,10 @@
       <c r="A363" s="4"/>
       <c r="B363" s="4"/>
       <c r="C363" s="4"/>
-      <c r="D363" s="11"/>
+      <c r="D363" s="10"/>
       <c r="E363" s="4"/>
       <c r="F363" s="4"/>
-      <c r="G363" s="11"/>
+      <c r="G363" s="10"/>
       <c r="H363" s="4"/>
       <c r="I363" s="4"/>
       <c r="J363" s="4"/>
@@ -9894,10 +9879,10 @@
       <c r="A364" s="4"/>
       <c r="B364" s="4"/>
       <c r="C364" s="4"/>
-      <c r="D364" s="11"/>
+      <c r="D364" s="10"/>
       <c r="E364" s="4"/>
       <c r="F364" s="4"/>
-      <c r="G364" s="11"/>
+      <c r="G364" s="10"/>
       <c r="H364" s="4"/>
       <c r="I364" s="4"/>
       <c r="J364" s="4"/>
@@ -9910,10 +9895,10 @@
       <c r="A365" s="4"/>
       <c r="B365" s="4"/>
       <c r="C365" s="4"/>
-      <c r="D365" s="11"/>
+      <c r="D365" s="10"/>
       <c r="E365" s="4"/>
       <c r="F365" s="4"/>
-      <c r="G365" s="11"/>
+      <c r="G365" s="10"/>
       <c r="H365" s="4"/>
       <c r="I365" s="4"/>
       <c r="J365" s="4"/>
@@ -9926,10 +9911,10 @@
       <c r="A366" s="4"/>
       <c r="B366" s="4"/>
       <c r="C366" s="4"/>
-      <c r="D366" s="11"/>
+      <c r="D366" s="10"/>
       <c r="E366" s="4"/>
       <c r="F366" s="4"/>
-      <c r="G366" s="11"/>
+      <c r="G366" s="10"/>
       <c r="H366" s="4"/>
       <c r="I366" s="4"/>
       <c r="J366" s="4"/>
@@ -9942,10 +9927,10 @@
       <c r="A367" s="4"/>
       <c r="B367" s="4"/>
       <c r="C367" s="4"/>
-      <c r="D367" s="11"/>
+      <c r="D367" s="10"/>
       <c r="E367" s="4"/>
       <c r="F367" s="4"/>
-      <c r="G367" s="11"/>
+      <c r="G367" s="10"/>
       <c r="H367" s="4"/>
       <c r="I367" s="4"/>
       <c r="J367" s="4"/>
@@ -9958,10 +9943,10 @@
       <c r="A368" s="4"/>
       <c r="B368" s="4"/>
       <c r="C368" s="4"/>
-      <c r="D368" s="11"/>
+      <c r="D368" s="10"/>
       <c r="E368" s="4"/>
       <c r="F368" s="4"/>
-      <c r="G368" s="11"/>
+      <c r="G368" s="10"/>
       <c r="H368" s="4"/>
       <c r="I368" s="4"/>
       <c r="J368" s="4"/>
@@ -9974,10 +9959,10 @@
       <c r="A369" s="4"/>
       <c r="B369" s="4"/>
       <c r="C369" s="4"/>
-      <c r="D369" s="11"/>
+      <c r="D369" s="10"/>
       <c r="E369" s="4"/>
       <c r="F369" s="4"/>
-      <c r="G369" s="11"/>
+      <c r="G369" s="10"/>
       <c r="H369" s="4"/>
       <c r="I369" s="4"/>
       <c r="J369" s="4"/>
@@ -9990,10 +9975,10 @@
       <c r="A370" s="4"/>
       <c r="B370" s="4"/>
       <c r="C370" s="4"/>
-      <c r="D370" s="11"/>
+      <c r="D370" s="10"/>
       <c r="E370" s="4"/>
       <c r="F370" s="4"/>
-      <c r="G370" s="11"/>
+      <c r="G370" s="10"/>
       <c r="H370" s="4"/>
       <c r="I370" s="4"/>
       <c r="J370" s="4"/>
@@ -10006,10 +9991,10 @@
       <c r="A371" s="4"/>
       <c r="B371" s="4"/>
       <c r="C371" s="4"/>
-      <c r="D371" s="11"/>
+      <c r="D371" s="10"/>
       <c r="E371" s="4"/>
       <c r="F371" s="4"/>
-      <c r="G371" s="11"/>
+      <c r="G371" s="10"/>
       <c r="H371" s="4"/>
       <c r="I371" s="4"/>
       <c r="J371" s="4"/>
@@ -10022,10 +10007,10 @@
       <c r="A372" s="4"/>
       <c r="B372" s="4"/>
       <c r="C372" s="4"/>
-      <c r="D372" s="11"/>
+      <c r="D372" s="10"/>
       <c r="E372" s="4"/>
       <c r="F372" s="4"/>
-      <c r="G372" s="11"/>
+      <c r="G372" s="10"/>
       <c r="H372" s="4"/>
       <c r="I372" s="4"/>
       <c r="J372" s="4"/>
@@ -10038,10 +10023,10 @@
       <c r="A373" s="4"/>
       <c r="B373" s="4"/>
       <c r="C373" s="4"/>
-      <c r="D373" s="11"/>
+      <c r="D373" s="10"/>
       <c r="E373" s="4"/>
       <c r="F373" s="4"/>
-      <c r="G373" s="11"/>
+      <c r="G373" s="10"/>
       <c r="H373" s="4"/>
       <c r="I373" s="4"/>
       <c r="J373" s="4"/>
@@ -10054,10 +10039,10 @@
       <c r="A374" s="4"/>
       <c r="B374" s="4"/>
       <c r="C374" s="4"/>
-      <c r="D374" s="11"/>
+      <c r="D374" s="10"/>
       <c r="E374" s="4"/>
       <c r="F374" s="4"/>
-      <c r="G374" s="11"/>
+      <c r="G374" s="10"/>
       <c r="H374" s="4"/>
       <c r="I374" s="4"/>
       <c r="J374" s="4"/>
@@ -10070,10 +10055,10 @@
       <c r="A375" s="4"/>
       <c r="B375" s="4"/>
       <c r="C375" s="4"/>
-      <c r="D375" s="11"/>
+      <c r="D375" s="10"/>
       <c r="E375" s="4"/>
       <c r="F375" s="4"/>
-      <c r="G375" s="11"/>
+      <c r="G375" s="10"/>
       <c r="H375" s="4"/>
       <c r="I375" s="4"/>
       <c r="J375" s="4"/>
@@ -10086,10 +10071,10 @@
       <c r="A376" s="4"/>
       <c r="B376" s="4"/>
       <c r="C376" s="4"/>
-      <c r="D376" s="11"/>
+      <c r="D376" s="10"/>
       <c r="E376" s="4"/>
       <c r="F376" s="4"/>
-      <c r="G376" s="11"/>
+      <c r="G376" s="10"/>
       <c r="H376" s="4"/>
       <c r="I376" s="4"/>
       <c r="J376" s="4"/>
@@ -10102,10 +10087,10 @@
       <c r="A377" s="4"/>
       <c r="B377" s="4"/>
       <c r="C377" s="4"/>
-      <c r="D377" s="11"/>
+      <c r="D377" s="10"/>
       <c r="E377" s="4"/>
       <c r="F377" s="4"/>
-      <c r="G377" s="11"/>
+      <c r="G377" s="10"/>
       <c r="H377" s="4"/>
       <c r="I377" s="4"/>
       <c r="J377" s="4"/>
@@ -10118,10 +10103,10 @@
       <c r="A378" s="4"/>
       <c r="B378" s="4"/>
       <c r="C378" s="4"/>
-      <c r="D378" s="11"/>
+      <c r="D378" s="10"/>
       <c r="E378" s="4"/>
       <c r="F378" s="4"/>
-      <c r="G378" s="11"/>
+      <c r="G378" s="10"/>
       <c r="H378" s="4"/>
       <c r="I378" s="4"/>
       <c r="J378" s="4"/>
@@ -10134,10 +10119,10 @@
       <c r="A379" s="4"/>
       <c r="B379" s="4"/>
       <c r="C379" s="4"/>
-      <c r="D379" s="11"/>
+      <c r="D379" s="10"/>
       <c r="E379" s="4"/>
       <c r="F379" s="4"/>
-      <c r="G379" s="11"/>
+      <c r="G379" s="10"/>
       <c r="H379" s="4"/>
       <c r="I379" s="4"/>
       <c r="J379" s="4"/>
@@ -10150,10 +10135,10 @@
       <c r="A380" s="4"/>
       <c r="B380" s="4"/>
       <c r="C380" s="4"/>
-      <c r="D380" s="11"/>
+      <c r="D380" s="10"/>
       <c r="E380" s="4"/>
       <c r="F380" s="4"/>
-      <c r="G380" s="11"/>
+      <c r="G380" s="10"/>
       <c r="H380" s="4"/>
       <c r="I380" s="4"/>
       <c r="J380" s="4"/>
@@ -10166,10 +10151,10 @@
       <c r="A381" s="4"/>
       <c r="B381" s="4"/>
       <c r="C381" s="4"/>
-      <c r="D381" s="11"/>
+      <c r="D381" s="10"/>
       <c r="E381" s="4"/>
       <c r="F381" s="4"/>
-      <c r="G381" s="11"/>
+      <c r="G381" s="10"/>
       <c r="H381" s="4"/>
       <c r="I381" s="4"/>
       <c r="J381" s="4"/>
@@ -10182,10 +10167,10 @@
       <c r="A382" s="4"/>
       <c r="B382" s="4"/>
       <c r="C382" s="4"/>
-      <c r="D382" s="11"/>
+      <c r="D382" s="10"/>
       <c r="E382" s="4"/>
       <c r="F382" s="4"/>
-      <c r="G382" s="11"/>
+      <c r="G382" s="10"/>
       <c r="H382" s="4"/>
       <c r="I382" s="4"/>
       <c r="J382" s="4"/>
@@ -10198,10 +10183,10 @@
       <c r="A383" s="4"/>
       <c r="B383" s="4"/>
       <c r="C383" s="4"/>
-      <c r="D383" s="11"/>
+      <c r="D383" s="10"/>
       <c r="E383" s="4"/>
       <c r="F383" s="4"/>
-      <c r="G383" s="11"/>
+      <c r="G383" s="10"/>
       <c r="H383" s="4"/>
       <c r="I383" s="4"/>
       <c r="J383" s="4"/>
@@ -10214,10 +10199,10 @@
       <c r="A384" s="4"/>
       <c r="B384" s="4"/>
       <c r="C384" s="4"/>
-      <c r="D384" s="11"/>
+      <c r="D384" s="10"/>
       <c r="E384" s="4"/>
       <c r="F384" s="4"/>
-      <c r="G384" s="11"/>
+      <c r="G384" s="10"/>
       <c r="H384" s="4"/>
       <c r="I384" s="4"/>
       <c r="J384" s="4"/>
@@ -10230,10 +10215,10 @@
       <c r="A385" s="4"/>
       <c r="B385" s="4"/>
       <c r="C385" s="4"/>
-      <c r="D385" s="11"/>
+      <c r="D385" s="10"/>
       <c r="E385" s="4"/>
       <c r="F385" s="4"/>
-      <c r="G385" s="11"/>
+      <c r="G385" s="10"/>
       <c r="H385" s="4"/>
       <c r="I385" s="4"/>
       <c r="J385" s="4"/>
@@ -10246,10 +10231,10 @@
       <c r="A386" s="4"/>
       <c r="B386" s="4"/>
       <c r="C386" s="4"/>
-      <c r="D386" s="11"/>
+      <c r="D386" s="10"/>
       <c r="E386" s="4"/>
       <c r="F386" s="4"/>
-      <c r="G386" s="11"/>
+      <c r="G386" s="10"/>
       <c r="H386" s="4"/>
       <c r="I386" s="4"/>
       <c r="J386" s="4"/>
@@ -10262,10 +10247,10 @@
       <c r="A387" s="4"/>
       <c r="B387" s="4"/>
       <c r="C387" s="4"/>
-      <c r="D387" s="11"/>
+      <c r="D387" s="10"/>
       <c r="E387" s="4"/>
       <c r="F387" s="4"/>
-      <c r="G387" s="11"/>
+      <c r="G387" s="10"/>
       <c r="H387" s="4"/>
       <c r="I387" s="4"/>
       <c r="J387" s="4"/>
